--- a/output/TA_Monitor_2026-02-28.xlsx
+++ b/output/TA_Monitor_2026-02-28.xlsx
@@ -10,7 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Posizioni" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Posizioni'!$A$1:$I$162</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Posizioni'!$A$1:$I$243</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I162"/>
+  <dimension ref="A1:I243"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -503,170 +503,158 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Account Manager – PR Agency (Roma)</t>
+          <t>Addetto/a Risorse Umane – Selezione e inserimento personale</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Spencer &amp; Lewis</t>
+          <t>Passyer web</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>indeed</t>
+          <t>google</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Roma, LAZ, IT</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>fulltime</t>
-        </is>
-      </c>
+          <t>Rome, Metropolitan City of Rome Capital, Italy</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
       <c r="H2" s="2" t="inlineStr">
         <is>
-          <t>https://it.indeed.com/viewjob?jk=5e9f91bbcc822045</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>2026-02-26</t>
-        </is>
-      </c>
+          <t>https://it.bebee.com/job/2cb37fa3b265e6e22611b123f64fd30b?utm_campaign=google_jobs_apply&amp;utm_source=google_jobs_apply&amp;utm_medium=organic</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Account Manager – International Advertising Agency (Roma)</t>
+          <t>Senior Human Resources Manager</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Studio Futuroma</t>
+          <t>Marriott Hotels Resorts</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>indeed</t>
+          <t>google</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Roma, LAZ, IT</t>
+          <t>Rome, Metropolitan City of Rome Capital, Italy</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>fulltime</t>
+          <t>contract</t>
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
       <c r="H3" s="2" t="inlineStr">
         <is>
-          <t>https://it.indeed.com/viewjob?jk=fab2c241c5db9fcb</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>2026-02-26</t>
-        </is>
-      </c>
+          <t>https://it.jooble.org/rjdp/-5822958054213240275?utm_campaign=google_jobs_apply&amp;utm_source=google_jobs_apply&amp;utm_medium=organic</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Conferimento, per titoli e colloquio, dell'incarico quinquennale eventualmente rinnovabile di direttore della UOC Servizio igiene alimenti e nutrizione, del Dipartimento di prevenzione, a tempo determinato.</t>
+          <t>Senior HR Transformation Manager</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>AZIENDA SANITARIA LOCALE ROMA 3 DI ROMA</t>
+          <t>Leonardo SpA</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>indeed</t>
+          <t>google</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Roma, LAZ, IT</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr"/>
+          <t>Rome, Metropolitan City of Rome Capital, Italy</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>contract</t>
+        </is>
+      </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>https://it.indeed.com/viewjob?jk=1cb53341ebb8e30f</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>2026-02-24</t>
-        </is>
-      </c>
+          <t>https://www.simplyhired.it/job/iViFJhzzcnWMhmGs6ynh8jCpkjaMA413jHVUsvuphhZ9bsg_EdCLZA?utm_campaign=google_jobs_apply&amp;utm_source=google_jobs_apply&amp;utm_medium=organic</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Conferimento dell'incarico quinquennale di direttore dell'unita' operativa complessa Ortopedia e traumatologia Ospedale Anzio-Nettuno.</t>
+          <t>RISORSE UMANE/ADDETTO AL PERSONALE</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>AZIENDA SANITARIA LOCALE ROMA 6 - ALBANO LAZIALE</t>
+          <t>Cinecittà World S.p.A</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>indeed</t>
+          <t>google</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Albano Laziale, LAZ, IT</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr"/>
+          <t>Rome, Metropolitan City of Rome Capital, Italy</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>fulltime</t>
+        </is>
+      </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>https://it.indeed.com/viewjob?jk=6dc2741e055d401b</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>2026-02-27</t>
-        </is>
-      </c>
+          <t>https://it.jooble.org/rjdp/-2175985008483393345?utm_campaign=google_jobs_apply&amp;utm_source=google_jobs_apply&amp;utm_medium=organic</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Safety &amp; Security Audit Specialist - Roma</t>
+          <t>Responsabile Risorse Umane, Amministrazione e Finanza</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>VOIhotels</t>
+          <t>WiseGlow</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>indeed</t>
+          <t>google</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Roma, LAZ, IT</t>
+          <t>Rome, Metropolitan City of Rome Capital, Italy</t>
         </is>
       </c>
       <c r="E6" t="inlineStr"/>
@@ -674,34 +662,30 @@
       <c r="G6" t="inlineStr"/>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>https://it.indeed.com/viewjob?jk=20ea5a0e6f4a363f</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>2026-02-23</t>
-        </is>
-      </c>
+          <t>https://it.bebee.com/job/1b1ad39c5510361057dd08565c3c8842?utm_campaign=google_jobs_apply&amp;utm_source=google_jobs_apply&amp;utm_medium=organic</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Product People Partnering Trainee</t>
+          <t>responsabile del personale</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Sisal</t>
+          <t>Noi srl</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>linkedin</t>
+          <t>google</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Rome, Latium, Italy</t>
+          <t>Rome, Metropolitan City of Rome Capital, Italy</t>
         </is>
       </c>
       <c r="E7" t="inlineStr"/>
@@ -709,30 +693,34 @@
       <c r="G7" t="inlineStr"/>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/4379235976</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr"/>
+          <t>https://it.jooble.org/jdp/-1671671881287850035?utm_campaign=google_jobs_apply&amp;utm_source=google_jobs_apply&amp;utm_medium=organic</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Specialista paghe e contributi - Roma Tor Vergata</t>
+          <t>Addetto / a Risorse Umane - Settore Benessere Idrico (27041)</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>SPP Agenzia per il Lavoro</t>
+          <t>Impiegando.com</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>indeed</t>
+          <t>google</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Roma, LAZ, IT</t>
+          <t>Rome, Metropolitan City of Rome Capital, Italy</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -744,34 +732,34 @@
       <c r="G8" t="inlineStr"/>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>https://it.indeed.com/viewjob?jk=b458a4e356c8160f</t>
+          <t>https://it.talent.com/view?id=74689963d947&amp;utm_campaign=google_jobs_apply&amp;utm_source=google_jobs_apply&amp;utm_medium=organic</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>2026-02-23</t>
+          <t>2026-02-03</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>CYS - GCAP Joint Venture Headquarters - Digital Adoption &amp; Capability Manager</t>
+          <t>Assistente paghe e contributi risorse umane</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Leonardo</t>
+          <t>Studio Saperessere SRL</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>indeed</t>
+          <t>google</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Roma, LAZ, IT</t>
+          <t>Rome, Metropolitan City of Rome Capital, Italy</t>
         </is>
       </c>
       <c r="E9" t="inlineStr"/>
@@ -779,186 +767,186 @@
       <c r="G9" t="inlineStr"/>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>https://it.indeed.com/viewjob?jk=2f38080b68bca520</t>
+          <t>https://it.bebee.com/job/5bf5984da7e8913c61cbaa4452a90111?utm_campaign=google_jobs_apply&amp;utm_source=google_jobs_apply&amp;utm_medium=organic</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>2026-02-23</t>
+          <t>2026-02-06</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Addetto/addetta fast food - Burger King Roma Fosso di Santa Maura</t>
+          <t>Addetto/a alle Risorse Umane</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>QSRP</t>
+          <t>key-absolute</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>indeed</t>
+          <t>google</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Roma, LAZ, IT</t>
+          <t>Rome, Metropolitan City of Rome Capital, Italy</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>parttime</t>
+          <t>fulltime</t>
         </is>
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>https://it.indeed.com/viewjob?jk=13f48153cb0ddc67</t>
+          <t>https://it.bebee.com/job/90cd0164a85b2551e3c80ec7557b4a2b?utm_campaign=google_jobs_apply&amp;utm_source=google_jobs_apply&amp;utm_medium=organic</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>2026-01-29</t>
+          <t>2026-02-06</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Addetto Fast Food Gran Roma</t>
+          <t>HR Director | Rome, IT</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>QSRP</t>
+          <t>Wehunt</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>indeed</t>
+          <t>google</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Roma, LAZ, IT</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>parttime</t>
-        </is>
-      </c>
+          <t>Rome, Metropolitan City of Rome Capital, Italy</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>https://it.indeed.com/viewjob?jk=4d62c2e98d4f826f</t>
+          <t>https://www.efinancialcareers.it/jobs-Italy-Rome-HR_Director.id23799657?utm_campaign=google_jobs_apply&amp;utm_source=google_jobs_apply&amp;utm_medium=organic</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>2026-01-29</t>
+          <t>2026-02-07</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Sales Assistant WEEKENDER 12H - ROMA CC Euroma2</t>
+          <t>HR Generalist - Guidonia (RM)</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>LA CASA DE LAS CARCASAS</t>
+          <t>Number1 Logistics Group</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>indeed</t>
+          <t>google</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Roma, LAZ, IT</t>
+          <t>Guidonia, Metropolitan City of Rome Capital, Italy</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>parttime</t>
+          <t>fulltime</t>
         </is>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>https://it.indeed.com/viewjob?jk=40819fa2f4c14054</t>
+          <t>https://it.linkedin.com/jobs/view/hr-generalist-guidonia-rm-at-number1-logistics-group-4370455565?utm_campaign=google_jobs_apply&amp;utm_source=google_jobs_apply&amp;utm_medium=organic</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>2026-02-24</t>
+          <t>2026-02-08</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Addetto Continuous Improvement</t>
+          <t>Hr Business Partner - Settore Bancario</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Leonardo</t>
+          <t>S&amp;you Italia</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>indeed</t>
+          <t>google</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Cisterna di Latina, LAZ, IT</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr"/>
+          <t>Rome, Metropolitan City of Rome Capital, Italy</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>fulltime</t>
+        </is>
+      </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>https://it.indeed.com/viewjob?jk=666422e0a0697b49</t>
+          <t>https://it.jobtome.com/offertalavoro/hr-business-partner-settore-bancario/1abfacc682effea87c5bbe9a4b11288e?utm_campaign=google_jobs_apply&amp;utm_source=google_jobs_apply&amp;utm_medium=organic</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>2026-02-24</t>
+          <t>2026-02-10</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Addetto/a all’Inventario – appartenente alle categorie protette legge 68/99</t>
+          <t>Responsabile Risorse Umane - Beni di Largo Consumo</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>RGIS</t>
+          <t>SH</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>indeed</t>
+          <t>google</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Roma, LAZ, IT</t>
+          <t>Colleferro, Metropolitan City of Rome Capital, Italy</t>
         </is>
       </c>
       <c r="E14" t="inlineStr"/>
@@ -966,73 +954,73 @@
       <c r="G14" t="inlineStr"/>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>https://it.indeed.com/viewjob?jk=53a50102b74d168f</t>
+          <t>https://it.talent.com/view?id=9b9707e4a457&amp;utm_campaign=google_jobs_apply&amp;utm_source=google_jobs_apply&amp;utm_medium=organic</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>2026-02-25</t>
+          <t>2026-02-10</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Sales Assistant</t>
+          <t>Responsabile Risorse Umane</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Holyart</t>
+          <t>SH</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>indeed</t>
+          <t>google</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Roma, LAZ, IT</t>
+          <t>Colleferro, Metropolitan City of Rome Capital, Italy</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>parttime, fulltime</t>
+          <t>fulltime</t>
         </is>
       </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>https://it.indeed.com/viewjob?jk=2403b50fdd439735</t>
+          <t>https://it.talent.com/view?id=4fba08b5c9b0&amp;utm_campaign=google_jobs_apply&amp;utm_source=google_jobs_apply&amp;utm_medium=organic</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>2026-02-25</t>
+          <t>2026-02-10</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Impiegato Amministrativo Area Formazione</t>
+          <t>Bilingual Office Manager (Italian/English)</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Corsi Alta Formazione Italia</t>
+          <t>Gi Group</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>indeed</t>
+          <t>google</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Latina, LAZ, IT</t>
+          <t>Rome, Metropolitan City of Rome Capital, Italy</t>
         </is>
       </c>
       <c r="E16" t="inlineStr"/>
@@ -1040,112 +1028,104 @@
       <c r="G16" t="inlineStr"/>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>https://it.indeed.com/viewjob?jk=480503e87c0bcf8e</t>
+          <t>https://www.sercanto.it/detail/a/bilingual-office-manager-italian-english_roma_464188789?utm_campaign=google_jobs_apply&amp;utm_source=google_jobs_apply&amp;utm_medium=organic</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>2026-02-23</t>
+          <t>2026-02-11</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>COMMERCIALE SENIOR – SETTORE GIOCATTOLI</t>
+          <t>Plant Human Resources Manager</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>E-Servizi Srls</t>
+          <t>Allison Off-Highway Drive &amp; Motion Systems</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>indeed</t>
+          <t>google</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Ciampino, LAZ, IT</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>fulltime</t>
-        </is>
-      </c>
+          <t>Rome, Metropolitan City of Rome Capital, Italy</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>https://it.indeed.com/viewjob?jk=0e5c07e2817d801f</t>
+          <t>https://it.talent.com/view?id=689620d9aa90&amp;utm_campaign=google_jobs_apply&amp;utm_source=google_jobs_apply&amp;utm_medium=organic</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>2026-02-23</t>
+          <t>2026-02-11</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>LASERoma® – Cercasi Estetista di Centro epilazione (Zona San Giovanni)</t>
+          <t>Direttore del Personale e Organizzazione</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>epìLate Roma San Giovanni</t>
+          <t>Intermedia Selection</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>indeed</t>
+          <t>google</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Roma, LAZ, IT</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>parttime</t>
-        </is>
-      </c>
+          <t>Italy</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr"/>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>https://it.indeed.com/viewjob?jk=0f955ec92444b344</t>
+          <t>https://it.bebee.com/job/dd2bea88834d625490ede74d18154ec9?utm_campaign=google_jobs_apply&amp;utm_source=google_jobs_apply&amp;utm_medium=organic</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>2026-02-23</t>
+          <t>2026-02-14</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>SETTER - In sede a Roma Prati</t>
+          <t>Specialista Risorse Umane – Turni</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Traction</t>
+          <t>Impiegando.Com</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>indeed</t>
+          <t>google</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Roma, LAZ, IT</t>
+          <t>Rome, Metropolitan City of Rome Capital, Italy</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1157,34 +1137,34 @@
       <c r="G19" t="inlineStr"/>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>https://it.indeed.com/viewjob?jk=5825191c635aa4dd</t>
+          <t>https://it.trabajo.org/offerta-3189-8fe162ef1018130fd14beee703067e90?utm_campaign=google_jobs_apply&amp;utm_source=google_jobs_apply&amp;utm_medium=organic</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>2026-02-23</t>
+          <t>2026-02-14</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Guest Relations Agent</t>
+          <t>Assistente Risorse Umane – Amministrazione &amp; Selezione</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Masseria Torre Maizza, Rocco Forte Hotels</t>
+          <t>Impiegando.Com</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>indeed</t>
+          <t>google</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Roma, LAZ, IT</t>
+          <t>Rome, Metropolitan City of Rome Capital, Italy</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1196,186 +1176,178 @@
       <c r="G20" t="inlineStr"/>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>https://it.indeed.com/viewjob?jk=a896c095670d4e94</t>
+          <t>https://it.talent.com/view?id=2d7a5b88e645&amp;utm_campaign=google_jobs_apply&amp;utm_source=google_jobs_apply&amp;utm_medium=organic</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>2026-02-24</t>
+          <t>2026-02-14</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Program Manager</t>
+          <t>HR Manager: Coordinamento Risorse</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Leonardo</t>
+          <t>Impiegando.Com</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>indeed</t>
+          <t>google</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Roma, LAZ, IT</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr"/>
+          <t>Rome, Metropolitan City of Rome Capital, Italy</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>fulltime</t>
+        </is>
+      </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>https://it.indeed.com/viewjob?jk=ad16411d89ad5dbe</t>
+          <t>https://it.trabajo.org/offerta-1906-e63717c3aec84a4b6b0ccc1c8aa3528d?utm_campaign=google_jobs_apply&amp;utm_source=google_jobs_apply&amp;utm_medium=organic</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>2026-02-24</t>
+          <t>2026-02-14</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Addetto/a Vendite CC ROMAEST</t>
+          <t>RESPONSABILE DELLE RISORSE UMANE PART TIME</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Hype srl</t>
+          <t>Lattanzio KIBS Benefit Corporation</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>indeed</t>
+          <t>google</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Roma, LAZ, IT</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>fulltime</t>
-        </is>
-      </c>
+          <t>Rome, Metropolitan City of Rome Capital, Italy</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr"/>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>https://it.indeed.com/viewjob?jk=f742cf702e7efb63</t>
+          <t>https://it.trabajo.org/offerta-1389-7ef8a86d6d7383e913d03bcfc93eb263?utm_campaign=google_jobs_apply&amp;utm_source=google_jobs_apply&amp;utm_medium=organic</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>2026-02-25</t>
+          <t>2026-02-14</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Project Manager - Offerta di lavoro</t>
+          <t>Capo Risorse Umane Negozio | Sviluppo Persone</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>SecretKey</t>
+          <t>Altro</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>indeed</t>
+          <t>google</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Roma, LAZ, IT</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>fulltime</t>
-        </is>
-      </c>
+          <t>Rome, Metropolitan City of Rome Capital, Italy</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>https://it.indeed.com/viewjob?jk=b9cc63ad479c945b</t>
+          <t>https://it.trabajo.org/offerta-3189-4b59930540f11622a6266fee7a94d721?utm_campaign=google_jobs_apply&amp;utm_source=google_jobs_apply&amp;utm_medium=organic</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>2026-02-25</t>
+          <t>2026-02-14</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Digital Advertising Specialist</t>
+          <t>HR MANAGER RESPONSABILE DEL PERSONALE</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>SecretKey</t>
+          <t>ManpowerGroup</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>indeed</t>
+          <t>google</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Roma, LAZ, IT</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>fulltime</t>
-        </is>
-      </c>
+          <t>Rome, Metropolitan City of Rome Capital, Italy</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>https://it.indeed.com/viewjob?jk=a8be07d50930c780</t>
+          <t>https://it.jooble.org/rjdp/-4132777169967100505?utm_campaign=google_jobs_apply&amp;utm_source=google_jobs_apply&amp;utm_medium=organic</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>2026-02-25</t>
+          <t>2026-02-14</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Google AdWords e Facebook Ads - Junior Manager</t>
+          <t>Controller Area Risorse Umane</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>SecretKey</t>
+          <t>Altro</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>indeed</t>
+          <t>google</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Roma, LAZ, IT</t>
+          <t>Rome, Metropolitan City of Rome Capital, Italy</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1387,34 +1359,34 @@
       <c r="G25" t="inlineStr"/>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>https://it.indeed.com/viewjob?jk=00ab154bb57b2b1e</t>
+          <t>https://it.trabajo.org/offerta-3189-03a31d2ef0de976a4b189080f97dac99?utm_campaign=google_jobs_apply&amp;utm_source=google_jobs_apply&amp;utm_medium=organic</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>2026-02-25</t>
+          <t>2026-02-15</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Responsabile Customer Care</t>
+          <t>Assistente d'ufficio e supporto reparto risorse umane</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>New Energy Gas e Luce Spa</t>
+          <t>Mercury Events srl</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>indeed</t>
+          <t>google</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Roma, LAZ, IT</t>
+          <t>Rome, Metropolitan City of Rome Capital, Italy</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1426,112 +1398,104 @@
       <c r="G26" t="inlineStr"/>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>https://it.indeed.com/viewjob?jk=471078c961290336</t>
+          <t>https://it.bebee.com/job/9da80c84fd43a259daac9fb856be5a32?utm_campaign=google_jobs_apply&amp;utm_source=google_jobs_apply&amp;utm_medium=organic</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>2026-02-25</t>
+          <t>2026-02-15</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Responsabile Finance &amp; Procurement</t>
+          <t>HR Manager GDO/Retail – Sardegna Itinerante</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>IMMUNI SRL</t>
+          <t>Gi Group SpA Filiale di Cagliari</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>indeed</t>
+          <t>google</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Roma, LAZ, IT</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>fulltime</t>
-        </is>
-      </c>
+          <t>Rome, Metropolitan City of Rome Capital, Italy</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr"/>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>https://it.indeed.com/viewjob?jk=44221aa6cbc0e687</t>
+          <t>https://it.trabajo.org/offerta-1906-568a7175216a4497c52e535888f6de54?utm_campaign=google_jobs_apply&amp;utm_source=google_jobs_apply&amp;utm_medium=organic</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>2026-02-27</t>
+          <t>2026-02-15</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Facchino ai piani</t>
+          <t>Responsabile HR e Ammnistrazione(Richiesta lingua cinese)</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Masseria Torre Maizza, Rocco Forte Hotels</t>
+          <t>Kngloo Italy</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>indeed</t>
+          <t>google</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Roma, LAZ, IT</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>fulltime</t>
-        </is>
-      </c>
+          <t>Italy</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr"/>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>https://it.indeed.com/viewjob?jk=305184b6b48de667</t>
+          <t>https://it.trabajo.org/offerta-3815-aafd63ab233e9b14b4d3772e13794440?utm_campaign=google_jobs_apply&amp;utm_source=google_jobs_apply&amp;utm_medium=organic</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>2026-02-27</t>
+          <t>2026-02-15</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Impiegato/a Ufficio Risorse Umane | Gestione del personale</t>
+          <t>Capo Hr Negozio: Sviluppa Persone E Performance</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>tecno-system</t>
+          <t>Altro</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>linkedin</t>
+          <t>google</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Rome, Latium, Italy</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="E29" t="inlineStr"/>
@@ -1539,73 +1503,69 @@
       <c r="G29" t="inlineStr"/>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/4375708086</t>
+          <t>https://it.trabajo.org/offerta-3189-a76dc8f72b4f88ab99976506266549f1?utm_campaign=google_jobs_apply&amp;utm_source=google_jobs_apply&amp;utm_medium=organic</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>2026-02-23</t>
+          <t>2026-02-15</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Addetto/a Elaborazione Paghe</t>
+          <t>Direttore Risorse Umane: Leadership e Sviluppo</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Gruppo Paoletti</t>
+          <t>Altro</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>indeed</t>
+          <t>google</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Fiumicino, LAZ, IT</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>fulltime</t>
-        </is>
-      </c>
+          <t>Rome, Metropolitan City of Rome Capital, Italy</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr"/>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>https://it.indeed.com/viewjob?jk=aac95dc33fcb3fd0</t>
+          <t>https://it.trabajo.org/offerta-1906-b276ab1d0f72ebccb88b05a2d2937cba?utm_campaign=google_jobs_apply&amp;utm_source=google_jobs_apply&amp;utm_medium=organic</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>2026-02-21</t>
+          <t>2026-02-15</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Educatore</t>
+          <t>Responsabile Hr: Amministrazione, Payroll</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>ASD Mental Games</t>
+          <t>Bebee*Gestionerisorsaumana*</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>indeed</t>
+          <t>google</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Pomezia, LAZ, IT</t>
+          <t>Rome, Metropolitan City of Rome Capital, Italy</t>
         </is>
       </c>
       <c r="E31" t="inlineStr"/>
@@ -1613,190 +1573,178 @@
       <c r="G31" t="inlineStr"/>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>https://it.indeed.com/viewjob?jk=74a25f1eb5c7d253</t>
+          <t>https://it.trabajo.org/offerta-1906-493079d94eb2c0b99e1d2de703259e9e?utm_campaign=google_jobs_apply&amp;utm_source=google_jobs_apply&amp;utm_medium=organic</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>2026-02-23</t>
+          <t>2026-02-15</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Autista di Autobus - Roma</t>
+          <t>Responsabile Hr E Amministrazione – Manifatturiero</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Arriva Italia</t>
+          <t>Ali Professional</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>indeed</t>
+          <t>google</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Roma, LAZ, IT</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>parttime</t>
-        </is>
-      </c>
+          <t>Italy</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr"/>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>https://it.indeed.com/viewjob?jk=4935a852d0b600ae</t>
+          <t>https://it.trabajo.org/offerta-3189-da6c705d7d954df608007bfdd7a25762?utm_campaign=google_jobs_apply&amp;utm_source=google_jobs_apply&amp;utm_medium=organic</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>2026-02-23</t>
+          <t>2026-02-16</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Autista Consegnatario - sede Fiano Romano</t>
+          <t>Bilingual HR Ops Partner - Contracts &amp; Data</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>ELIS ITALIA S.p.A.</t>
+          <t>Sisal</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>indeed</t>
+          <t>google</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Fiano Romano, LAZ, IT</t>
+          <t>Rome, Metropolitan City of Rome Capital, Italy</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>fulltime</t>
+          <t>contract</t>
         </is>
       </c>
       <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr"/>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>https://it.indeed.com/viewjob?jk=8aa5fe403821aa32</t>
+          <t>https://www.sercanto.it/detail/a/bilingual-hr-ops-partner-contracts-data_roma_468134512?utm_campaign=google_jobs_apply&amp;utm_source=google_jobs_apply&amp;utm_medium=organic</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>2026-02-23</t>
+          <t>2026-02-18</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Promoter/Hostess</t>
+          <t>MASTER GESTIONE E AMMINISTRAZIONE DELLE RISORSE UMANE</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Be-Agency</t>
+          <t>Job Farm</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>indeed</t>
+          <t>google</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Genzano di Roma, LAZ, IT</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>fulltime</t>
-        </is>
-      </c>
+          <t>Rome, Metropolitan City of Rome Capital, Italy</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>https://it.indeed.com/viewjob?jk=df5eda7b5fd44b4f</t>
+          <t>https://it.trabajo.org/offerta-1389-2def3ac2b1c792b8e99cac848d20062a?utm_campaign=google_jobs_apply&amp;utm_source=google_jobs_apply&amp;utm_medium=organic</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>2026-02-23</t>
+          <t>2026-02-19</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Personale di Supermercato per la zona di Monteverde/Colli Portuensi</t>
+          <t>Human Resource - Gestione e Amministrazione Personale</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Service Group srls</t>
+          <t>Grafton Recruitment</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>indeed</t>
+          <t>google</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Roma, LAZ, IT</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>fulltime</t>
-        </is>
-      </c>
+          <t>Rome, Metropolitan City of Rome Capital, Italy</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>https://it.indeed.com/viewjob?jk=15aee85de125b47d</t>
+          <t>https://it.talent.com/view?id=607351704898447227&amp;utm_campaign=google_jobs_apply&amp;utm_source=google_jobs_apply&amp;utm_medium=organic</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>2026-02-23</t>
+          <t>2026-02-19</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Consulente Applicativo Zucchetti Junior- Roma Eur</t>
+          <t>Responsabile Risorse Umane – Prodotti per la Cura del Riposo</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>NHRG SRL – Agenzia per il Lavoro</t>
+          <t>EmmeBi Group</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>indeed</t>
+          <t>google</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Roma, LAZ, IT</t>
+          <t>Rome, Metropolitan City of Rome Capital, Italy</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -1808,112 +1756,104 @@
       <c r="G36" t="inlineStr"/>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>https://it.indeed.com/viewjob?jk=853619f64839acd6</t>
+          <t>https://it.bebee.com/job/4c6087ca49fb045dbba9e92622d0f441?utm_campaign=google_jobs_apply&amp;utm_source=google_jobs_apply&amp;utm_medium=organic</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>2026-02-23</t>
+          <t>2026-02-19</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Marketing Automation Expert</t>
+          <t>HR Account Manager : Grow Clients &amp; Build Talent</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Traction Group s.r.l.</t>
+          <t>Randstad Group Italia spa</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>indeed</t>
+          <t>google</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Roma, LAZ, IT</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>fulltime</t>
-        </is>
-      </c>
+          <t>Rome, Metropolitan City of Rome Capital, Italy</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr"/>
       <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr"/>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>https://it.indeed.com/viewjob?jk=3a8a39fb67efd908</t>
+          <t>https://it.talent.com/view?id=607442414764888210&amp;utm_campaign=google_jobs_apply&amp;utm_source=google_jobs_apply&amp;utm_medium=organic</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>2026-02-23</t>
+          <t>2026-02-20</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Analista Funzionale e Tecnico</t>
+          <t>Group HR Director — Strategy, M&amp;A &amp; Talent</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Data-Driven.Ai srl</t>
+          <t>InPost Italy</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>indeed</t>
+          <t>google</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Roma, LAZ, IT</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>fulltime</t>
-        </is>
-      </c>
+          <t>Rome, Metropolitan City of Rome Capital, Italy</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr"/>
       <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr"/>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>https://it.indeed.com/viewjob?jk=553410435a331afa</t>
+          <t>https://it.talent.com/view?id=607335043766234231&amp;utm_campaign=google_jobs_apply&amp;utm_source=google_jobs_apply&amp;utm_medium=organic</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>2026-02-23</t>
+          <t>2026-02-20</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>FRESATORE CNC SENIOR</t>
+          <t>Borgo Pignano Florence Human Resources Supervisor- Borgo Pignano Florence Firenze Borgo Pignano[...]</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>APIS Srl Agenzia per il Lavoro</t>
+          <t>Relais &amp; Châteaux</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>indeed</t>
+          <t>google</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Palestrina, LAZ, IT</t>
+          <t>Rome, Metropolitan City of Rome Capital, Italy</t>
         </is>
       </c>
       <c r="E39" t="inlineStr"/>
@@ -1921,34 +1861,34 @@
       <c r="G39" t="inlineStr"/>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>https://it.indeed.com/viewjob?jk=563ee087c7d6974a</t>
+          <t>https://it.talent.com/view?id=607374474007488379&amp;utm_campaign=google_jobs_apply&amp;utm_source=google_jobs_apply&amp;utm_medium=organic</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>2026-02-23</t>
+          <t>2026-02-20</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Cluster Sales Manager Villa Agrippina &amp; Palazzo Cordusio (38442)</t>
+          <t>Franchise HR Director – Avvia Nuovi Uffici &amp; Crescita</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Meliá Hotels International</t>
+          <t>Altro</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>indeed</t>
+          <t>google</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Roma, LAZ, IT</t>
+          <t>Rome, Metropolitan City of Rome Capital, Italy</t>
         </is>
       </c>
       <c r="E40" t="inlineStr"/>
@@ -1956,34 +1896,34 @@
       <c r="G40" t="inlineStr"/>
       <c r="H40" s="2" t="inlineStr">
         <is>
-          <t>https://it.indeed.com/viewjob?jk=89628ae4238c2a11</t>
+          <t>https://it.talent.com/view?id=607442470975901842&amp;utm_campaign=google_jobs_apply&amp;utm_source=google_jobs_apply&amp;utm_medium=organic</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>2026-02-24</t>
+          <t>2026-02-20</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Responsabile Ufficio Calibrazione</t>
+          <t>Stage Risorse Umane Healthcare : Selezione &amp; Onboarding</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>NETwk</t>
+          <t>Altro</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>indeed</t>
+          <t>google</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Roma, LAZ, IT</t>
+          <t>Rome, Metropolitan City of Rome Capital, Italy</t>
         </is>
       </c>
       <c r="E41" t="inlineStr"/>
@@ -1991,112 +1931,104 @@
       <c r="G41" t="inlineStr"/>
       <c r="H41" s="2" t="inlineStr">
         <is>
-          <t>https://it.indeed.com/viewjob?jk=835cd79ae499f772</t>
+          <t>https://it.talent.com/view?id=607373979488687569&amp;utm_campaign=google_jobs_apply&amp;utm_source=google_jobs_apply&amp;utm_medium=organic</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>2026-02-24</t>
+          <t>2026-02-20</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Junior Finance</t>
+          <t>Assistente HR : Onboarding e Admin, Tempo pieno</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Data-Driven.Ai srl</t>
+          <t>F.F. Group</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>indeed</t>
+          <t>google</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Roma, LAZ, IT</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>fulltime</t>
-        </is>
-      </c>
+          <t>Rome, Metropolitan City of Rome Capital, Italy</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr"/>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr"/>
       <c r="H42" s="2" t="inlineStr">
         <is>
-          <t>https://it.indeed.com/viewjob?jk=02647aa62a25aafc</t>
+          <t>https://it.talent.com/view?id=607444714606177399&amp;utm_campaign=google_jobs_apply&amp;utm_source=google_jobs_apply&amp;utm_medium=organic</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>2026-02-24</t>
+          <t>2026-02-20</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Hostess di Sala</t>
+          <t>Specialista HR — Recruiting &amp; Formazione (Somministrazione)</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Palazzo Montemartini Rome</t>
+          <t>Altro</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>indeed</t>
+          <t>google</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Roma, LAZ, IT</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>fulltime</t>
-        </is>
-      </c>
+          <t>Rome, Metropolitan City of Rome Capital, Italy</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr"/>
       <c r="F43" t="inlineStr"/>
       <c r="G43" t="inlineStr"/>
       <c r="H43" s="2" t="inlineStr">
         <is>
-          <t>https://it.indeed.com/viewjob?jk=a69dc08186fe52c7</t>
+          <t>https://it.talent.com/view?id=607442465261162642&amp;utm_campaign=google_jobs_apply&amp;utm_source=google_jobs_apply&amp;utm_medium=organic</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>2026-02-24</t>
+          <t>2026-02-20</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Specialista HSE</t>
+          <t>Junior Impiegata Risorse Umane – Amministrazione</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>NTWK</t>
+          <t>Altro</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>indeed</t>
+          <t>google</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Roma, LAZ, IT</t>
+          <t>Rome, Metropolitan City of Rome Capital, Italy</t>
         </is>
       </c>
       <c r="E44" t="inlineStr"/>
@@ -2104,147 +2036,143 @@
       <c r="G44" t="inlineStr"/>
       <c r="H44" s="2" t="inlineStr">
         <is>
-          <t>https://it.indeed.com/viewjob?jk=5ade74db0f32cec0</t>
+          <t>https://it.talent.com/view?id=607479690392442321&amp;utm_campaign=google_jobs_apply&amp;utm_source=google_jobs_apply&amp;utm_medium=organic</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>2026-02-24</t>
+          <t>2026-02-20</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>ASPP</t>
+          <t>Impiegato / a Risorse Umane – Gestione e Sviluppo del Personale</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>NTWK</t>
+          <t>Silver</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>indeed</t>
+          <t>google</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Roma, LAZ, IT</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr"/>
+          <t>Rome, Metropolitan City of Rome Capital, Italy</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>fulltime</t>
+        </is>
+      </c>
       <c r="F45" t="inlineStr"/>
       <c r="G45" t="inlineStr"/>
       <c r="H45" s="2" t="inlineStr">
         <is>
-          <t>https://it.indeed.com/viewjob?jk=dac0ec471436e682</t>
+          <t>https://it.talent.com/view?id=607374424189708155&amp;utm_campaign=google_jobs_apply&amp;utm_source=google_jobs_apply&amp;utm_medium=organic</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>2026-02-24</t>
+          <t>2026-02-20</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Food&amp;Beverage - Gestione Bar Bistrot</t>
+          <t>Responsabile HR: Sviluppo Talent, Formazione</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Relais Boutique Hotels srl</t>
+          <t>SH</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>indeed</t>
+          <t>google</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Roma, LAZ, IT</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>fulltime</t>
-        </is>
-      </c>
+          <t>Rome, Metropolitan City of Rome Capital, Italy</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr"/>
       <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr"/>
       <c r="H46" s="2" t="inlineStr">
         <is>
-          <t>https://it.indeed.com/viewjob?jk=5ebfc5697317bca6</t>
+          <t>https://it.trabajo.org/offerta-1906-83dc836da756f2e1b32b28843444fb16?utm_campaign=google_jobs_apply&amp;utm_source=google_jobs_apply&amp;utm_medium=organic</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>2026-02-24</t>
+          <t>2026-02-20</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>ADDETTO/A PARTENZE</t>
+          <t>Impiegato HR – Amministrazione Risorse Umane &amp; Recruiting</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>STEF</t>
+          <t>Altro</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>indeed</t>
+          <t>google</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Santa Palomba, LAZ, IT</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>fulltime</t>
-        </is>
-      </c>
+          <t>Rome, Metropolitan City of Rome Capital, Italy</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr"/>
       <c r="F47" t="inlineStr"/>
       <c r="G47" t="inlineStr"/>
       <c r="H47" s="2" t="inlineStr">
         <is>
-          <t>https://it.indeed.com/viewjob?jk=f8c88af751f6f812</t>
+          <t>https://it.talent.com/view?id=607479665061926353&amp;utm_campaign=google_jobs_apply&amp;utm_source=google_jobs_apply&amp;utm_medium=organic</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>2026-02-24</t>
+          <t>2026-02-20</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Addetto/a per Conteggio Merci e Inventario - Back Office per la sede di Roma</t>
+          <t>Impiegata Risorse Umane</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>RGIS</t>
+          <t>Cies</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>indeed</t>
+          <t>google</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Roma, LAZ, IT</t>
+          <t>Rome, Metropolitan City of Rome Capital, Italy</t>
         </is>
       </c>
       <c r="E48" t="inlineStr"/>
@@ -2252,73 +2180,69 @@
       <c r="G48" t="inlineStr"/>
       <c r="H48" s="2" t="inlineStr">
         <is>
-          <t>https://it.indeed.com/viewjob?jk=f108027b085d6c44</t>
+          <t>https://www.sercanto.it/detail/a/impiegata-risorse-umane_roma_468310701?utm_campaign=google_jobs_apply&amp;utm_source=google_jobs_apply&amp;utm_medium=organic</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>2026-02-25</t>
+          <t>2026-02-20</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>ADDETTO AL SERVIZIO PREVENZIONE E PROTEZIONE (ASPP)</t>
+          <t>Responsabile HR in sede – sviluppo talento</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Venpa Spa</t>
+          <t>Marco Ronci</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>indeed</t>
+          <t>google</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Monterotondo, LAZ, IT</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>fulltime</t>
-        </is>
-      </c>
+          <t>Rome, Metropolitan City of Rome Capital, Italy</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr"/>
       <c r="F49" t="inlineStr"/>
       <c r="G49" t="inlineStr"/>
       <c r="H49" s="2" t="inlineStr">
         <is>
-          <t>https://it.indeed.com/viewjob?jk=338094a28e3330f2</t>
+          <t>https://it.trabajo.org/offerta-1941-bae1078dbb28f248d3dba7c818a9d336?utm_campaign=google_jobs_apply&amp;utm_source=google_jobs_apply&amp;utm_medium=organic</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>2026-02-25</t>
+          <t>2026-02-20</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Addetto/a Vendite profilo ESPERTO</t>
+          <t>Assistente HR : Selezione e Inserimento Risorse</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>NTWK</t>
+          <t>Altro</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>indeed</t>
+          <t>google</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Roma, LAZ, IT</t>
+          <t>Rome, Metropolitan City of Rome Capital, Italy</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -2330,34 +2254,34 @@
       <c r="G50" t="inlineStr"/>
       <c r="H50" s="2" t="inlineStr">
         <is>
-          <t>https://it.indeed.com/viewjob?jk=d5806b9abe71e071</t>
+          <t>https://it.talent.com/view?id=607442463424909458&amp;utm_campaign=google_jobs_apply&amp;utm_source=google_jobs_apply&amp;utm_medium=organic</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>2026-02-25</t>
+          <t>2026-02-20</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Progettista Elettronico RF junior</t>
+          <t>ID : P978C10 - 1 Addetti alla gestione del personale</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>NETwk</t>
+          <t>Altro</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>indeed</t>
+          <t>google</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Roma, LAZ, IT</t>
+          <t>Rome, Metropolitan City of Rome Capital, Italy</t>
         </is>
       </c>
       <c r="E51" t="inlineStr"/>
@@ -2365,69 +2289,73 @@
       <c r="G51" t="inlineStr"/>
       <c r="H51" s="2" t="inlineStr">
         <is>
-          <t>https://it.indeed.com/viewjob?jk=2feda2ff286bad64</t>
+          <t>https://it.talent.com/view?id=607442459318816914&amp;utm_campaign=google_jobs_apply&amp;utm_source=google_jobs_apply&amp;utm_medium=organic</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>2026-02-25</t>
+          <t>2026-02-20</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>System Administration specialist full remote</t>
+          <t>Responsabile HR – Supporto alle Imprese</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>NETwk</t>
+          <t>Con-way</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>indeed</t>
+          <t>google</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Roma, LAZ, IT</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr"/>
+          <t>Rome, Metropolitan City of Rome Capital, Italy</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>fulltime</t>
+        </is>
+      </c>
       <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr"/>
       <c r="H52" s="2" t="inlineStr">
         <is>
-          <t>https://it.indeed.com/viewjob?jk=618e4d647e62747d</t>
+          <t>https://it.trabajo.org/offerta-1906-87df0134a7ebe58f60167de6f980eb49?utm_campaign=google_jobs_apply&amp;utm_source=google_jobs_apply&amp;utm_medium=organic</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>2026-02-25</t>
+          <t>2026-02-20</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>International Tax Manager</t>
+          <t>Responsabile HR nel GDO - Tempo Pieno, Ticket</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Assist Digital</t>
+          <t>Impiegando.com</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>indeed</t>
+          <t>google</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Roma, LAZ, IT</t>
+          <t>Rome, Metropolitan City of Rome Capital, Italy</t>
         </is>
       </c>
       <c r="E53" t="inlineStr"/>
@@ -2435,112 +2363,104 @@
       <c r="G53" t="inlineStr"/>
       <c r="H53" s="2" t="inlineStr">
         <is>
-          <t>https://it.indeed.com/viewjob?jk=08efa856e56bbba0</t>
+          <t>https://it.talent.com/view?id=607479672187917777&amp;utm_campaign=google_jobs_apply&amp;utm_source=google_jobs_apply&amp;utm_medium=organic</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>2026-02-25</t>
+          <t>2026-02-20</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Gelatiere Conista Roma Via Ottaviano</t>
+          <t>Specialist HR Services (m / f / x)</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>GROMART SRL</t>
+          <t>Roechling Industrial (Singapore) Pte Ltd</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>indeed</t>
+          <t>google</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Roma, LAZ, IT</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>parttime</t>
-        </is>
-      </c>
+          <t>Rome, Metropolitan City of Rome Capital, Italy</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr"/>
       <c r="F54" t="inlineStr"/>
       <c r="G54" t="inlineStr"/>
       <c r="H54" s="2" t="inlineStr">
         <is>
-          <t>https://it.indeed.com/viewjob?jk=219fb50d066dcc22</t>
+          <t>https://it.talent.com/view?id=607476489936381819&amp;utm_campaign=google_jobs_apply&amp;utm_source=google_jobs_apply&amp;utm_medium=organic</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>2026-02-25</t>
+          <t>2026-02-21</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Sales Assistant GROM Roma Piazzale Flaminio</t>
+          <t>stage commerciale ambito risorse umane</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>GROMART SRL</t>
+          <t>AxL Agenzia per il Lavoro</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>indeed</t>
+          <t>google</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Roma, LAZ, IT</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>parttime</t>
-        </is>
-      </c>
+          <t>Rome, Metropolitan City of Rome Capital, Italy</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr"/>
       <c r="F55" t="inlineStr"/>
       <c r="G55" t="inlineStr"/>
       <c r="H55" s="2" t="inlineStr">
         <is>
-          <t>https://it.indeed.com/viewjob?jk=f7a72c5cfb650f5b</t>
+          <t>https://it.bebee.com/job/391cbdc48b94462e85288152ff459300?utm_campaign=google_jobs_apply&amp;utm_source=google_jobs_apply&amp;utm_medium=organic</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>2026-02-25</t>
+          <t>2026-02-21</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Tecnico Collaudatore</t>
+          <t>Specialista Risorse Umane: Recruiting e Formazione</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>NTWK</t>
+          <t>Adecco filiale di cantù</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>indeed</t>
+          <t>google</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Roma, LAZ, IT</t>
+          <t>Rome, Metropolitan City of Rome Capital, Italy</t>
         </is>
       </c>
       <c r="E56" t="inlineStr"/>
@@ -2548,186 +2468,178 @@
       <c r="G56" t="inlineStr"/>
       <c r="H56" s="2" t="inlineStr">
         <is>
-          <t>https://it.indeed.com/viewjob?jk=7c564a443495b5a3</t>
+          <t>https://it.bebee.com/job/d847c0f3bc0a0fac8ed00e506d190d97?utm_campaign=google_jobs_apply&amp;utm_source=google_jobs_apply&amp;utm_medium=organic</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>2026-02-25</t>
+          <t>2026-02-21</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>assistente alla poltrona di Studio Odontoitrico ASO</t>
+          <t>Stage HR Retail: Crescita Professionale e Benessere</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Studio Odontoiatrico Baldinetti</t>
+          <t>Leroy Merlin Italia</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>indeed</t>
+          <t>google</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Roma, LAZ, IT</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>fulltime</t>
-        </is>
-      </c>
+          <t>Rome, Metropolitan City of Rome Capital, Italy</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr"/>
       <c r="F57" t="inlineStr"/>
       <c r="G57" t="inlineStr"/>
       <c r="H57" s="2" t="inlineStr">
         <is>
-          <t>https://it.indeed.com/viewjob?jk=42c2ecdbcddebf5f</t>
+          <t>https://it.jooble.org/jdp/-4206049375996661611?utm_campaign=google_jobs_apply&amp;utm_source=google_jobs_apply&amp;utm_medium=organic</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>2026-02-26</t>
+          <t>2026-02-21</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Addetto/a Vendite Pacchetti Turistici</t>
+          <t>Addetto / a Area Risorse Umane – Settore Beni a Largo Consumo</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>NTWK</t>
+          <t>C.S.S. Group</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>indeed</t>
+          <t>google</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Roma, LAZ, IT</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>fulltime</t>
-        </is>
-      </c>
+          <t>Rome, Metropolitan City of Rome Capital, Italy</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr"/>
       <c r="F58" t="inlineStr"/>
       <c r="G58" t="inlineStr"/>
       <c r="H58" s="2" t="inlineStr">
         <is>
-          <t>https://it.indeed.com/viewjob?jk=7fec35d365af962e</t>
+          <t>https://it.talent.com/view?id=607479664643347921&amp;utm_campaign=google_jobs_apply&amp;utm_source=google_jobs_apply&amp;utm_medium=organic</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>2026-02-26</t>
+          <t>2026-02-21</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Tecnico specializzato (CND)</t>
+          <t>Impiegato / a gestione del personale | Settore Alimentare</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>NETwk</t>
+          <t>Altro</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>indeed</t>
+          <t>google</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Rocca Priora, LAZ, IT</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr"/>
+          <t>Rome, Metropolitan City of Rome Capital, Italy</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>fulltime</t>
+        </is>
+      </c>
       <c r="F59" t="inlineStr"/>
       <c r="G59" t="inlineStr"/>
       <c r="H59" s="2" t="inlineStr">
         <is>
-          <t>https://it.indeed.com/viewjob?jk=199364c22f265df0</t>
+          <t>https://it.talent.com/view?id=607476474198697851&amp;utm_campaign=google_jobs_apply&amp;utm_source=google_jobs_apply&amp;utm_medium=organic</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>2026-02-26</t>
+          <t>2026-02-21</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Montatore/trice di arredi</t>
+          <t>Stage Risorse Umane: Formazione, Crescita e Impatto</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>NETwk</t>
+          <t>Clayton Italia</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>indeed</t>
+          <t>google</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Roma, LAZ, IT</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>fulltime</t>
-        </is>
-      </c>
+          <t>Rome, Metropolitan City of Rome Capital, Italy</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr"/>
       <c r="F60" t="inlineStr"/>
       <c r="G60" t="inlineStr"/>
       <c r="H60" s="2" t="inlineStr">
         <is>
-          <t>https://it.indeed.com/viewjob?jk=5ffeb310666f7432</t>
+          <t>https://it.bebee.com/job/6928d09e5c357d17576521b1c92e0643?utm_campaign=google_jobs_apply&amp;utm_source=google_jobs_apply&amp;utm_medium=organic</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>2026-02-26</t>
+          <t>2026-02-21</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Ingegnere Civile</t>
+          <t>HR Specialist Finanza – Amministrazione Risorse Umane</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>NETwk</t>
+          <t>key-absolute</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>indeed</t>
+          <t>google</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Roma, LAZ, IT</t>
+          <t>Rome, Metropolitan City of Rome Capital, Italy</t>
         </is>
       </c>
       <c r="E61" t="inlineStr"/>
@@ -2735,108 +2647,108 @@
       <c r="G61" t="inlineStr"/>
       <c r="H61" s="2" t="inlineStr">
         <is>
-          <t>https://it.indeed.com/viewjob?jk=c0e7c275838fd873</t>
+          <t>https://it.talent.com/view?id=607543948907719799&amp;utm_campaign=google_jobs_apply&amp;utm_source=google_jobs_apply&amp;utm_medium=organic</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>2026-02-26</t>
+          <t>2026-02-21</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Commerciali</t>
+          <t>Addetto / a Risorse Umane – Struttura GDO</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>NETwk</t>
+          <t>Team opportunity</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>indeed</t>
+          <t>google</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Roma, LAZ, IT</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr"/>
+          <t>Rome, Metropolitan City of Rome Capital, Italy</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>fulltime</t>
+        </is>
+      </c>
       <c r="F62" t="inlineStr"/>
       <c r="G62" t="inlineStr"/>
       <c r="H62" s="2" t="inlineStr">
         <is>
-          <t>https://it.indeed.com/viewjob?jk=074ee49b20947514</t>
+          <t>https://it.talent.com/view?id=607545779113562258&amp;utm_campaign=google_jobs_apply&amp;utm_source=google_jobs_apply&amp;utm_medium=organic</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>2026-02-26</t>
+          <t>2026-02-21</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Addetto Customer Care (part-time o full-time)</t>
+          <t>Responsabile HR - Settore Benessere</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>NETwk</t>
+          <t>Mcc service</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>indeed</t>
+          <t>google</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Roma, LAZ, IT</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>parttime, fulltime</t>
-        </is>
-      </c>
+          <t>Rome, Metropolitan City of Rome Capital, Italy</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr"/>
       <c r="F63" t="inlineStr"/>
       <c r="G63" t="inlineStr"/>
       <c r="H63" s="2" t="inlineStr">
         <is>
-          <t>https://it.indeed.com/viewjob?jk=a9b7a6c984d572f5</t>
+          <t>https://it.talent.com/view?id=607544007413804151&amp;utm_campaign=google_jobs_apply&amp;utm_source=google_jobs_apply&amp;utm_medium=organic</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>2026-02-26</t>
+          <t>2026-02-21</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Assuntore/trice rischi assicurativi junior</t>
+          <t>Verona Hr Recruiter – Full‑time Talent Acquisition</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>NETwk</t>
+          <t>SPP S.r.l.</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>indeed</t>
+          <t>google</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Latina, LAZ, IT</t>
+          <t>Rome, Metropolitan City of Rome Capital, Italy</t>
         </is>
       </c>
       <c r="E64" t="inlineStr"/>
@@ -2844,34 +2756,34 @@
       <c r="G64" t="inlineStr"/>
       <c r="H64" s="2" t="inlineStr">
         <is>
-          <t>https://it.indeed.com/viewjob?jk=15768774c8118b76</t>
+          <t>https://it.jobtome.com/offertalavoro/verona-hr-recruiter-fulltime-talent-acquisition/24cb5836e437882f5369cbc4537d1a90?utm_campaign=google_jobs_apply&amp;utm_source=google_jobs_apply&amp;utm_medium=organic</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>2026-02-26</t>
+          <t>2026-02-22</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Impiegato/a Assicurativo</t>
+          <t>Human Resources Generalist</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>NETwk</t>
+          <t>CATL</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>indeed</t>
+          <t>google</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Latina, LAZ, IT</t>
+          <t>Rome, Metropolitan City of Rome Capital, Italy</t>
         </is>
       </c>
       <c r="E65" t="inlineStr"/>
@@ -2879,73 +2791,69 @@
       <c r="G65" t="inlineStr"/>
       <c r="H65" s="2" t="inlineStr">
         <is>
-          <t>https://it.indeed.com/viewjob?jk=9d46df4e5476d77a</t>
+          <t>https://it.jooble.org/jdp/-5790017912814719256?utm_campaign=google_jobs_apply&amp;utm_source=google_jobs_apply&amp;utm_medium=organic</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>2026-02-26</t>
+          <t>2026-02-23</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Addette/i alle pulizie civili su Fiumicino</t>
+          <t>Talent Acquisition Specialist - Fixed Term (Maternity Cover)</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>CONSORZIO STABILE LGA SERVICE</t>
+          <t>Human Value</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>indeed</t>
+          <t>google</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Fiumicino, LAZ, IT</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>parttime</t>
-        </is>
-      </c>
+          <t>Rome, Metropolitan City of Rome Capital, Italy</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr"/>
       <c r="F66" t="inlineStr"/>
       <c r="G66" t="inlineStr"/>
       <c r="H66" s="2" t="inlineStr">
         <is>
-          <t>https://it.indeed.com/viewjob?jk=d35fb31f1bec8b57</t>
+          <t>https://it.talent.com/view?id=607936996473373928&amp;utm_campaign=google_jobs_apply&amp;utm_source=google_jobs_apply&amp;utm_medium=organic</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>2026-02-26</t>
+          <t>2026-02-23</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>RENTAL SALES AGENT - ROMA FIUMICINO</t>
+          <t>Addetta Per Ufficio Risorse Umane Full Time</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>PLUS HOLDİNG</t>
+          <t>Impiegando.com</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>indeed</t>
+          <t>google</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Roma, LAZ, IT</t>
+          <t>Rome, Metropolitan City of Rome Capital, Italy</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -2957,69 +2865,73 @@
       <c r="G67" t="inlineStr"/>
       <c r="H67" s="2" t="inlineStr">
         <is>
-          <t>https://it.indeed.com/viewjob?jk=62848cef67f19cad</t>
+          <t>https://it.jooble.org/rjdp/1146021212775634036?utm_campaign=google_jobs_apply&amp;utm_source=google_jobs_apply&amp;utm_medium=organic</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>2026-02-26</t>
+          <t>2026-02-23</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Operatore Elettrotermico</t>
+          <t>HR Controller (P.iva - Full remote)</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>NTWK</t>
+          <t>Grafton Recruitment</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>indeed</t>
+          <t>google</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Roma, LAZ, IT</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr"/>
+          <t>Rome, Metropolitan City of Rome Capital, Italy</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>contract</t>
+        </is>
+      </c>
       <c r="F68" t="inlineStr"/>
       <c r="G68" t="inlineStr"/>
       <c r="H68" s="2" t="inlineStr">
         <is>
-          <t>https://it.indeed.com/viewjob?jk=2dd2cd91026d79f1</t>
+          <t>https://it.linkedin.com/jobs/view/hr-controller-p-iva-full-remote-at-grafton-recruitment-4374277913?utm_campaign=google_jobs_apply&amp;utm_source=google_jobs_apply&amp;utm_medium=organic</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>2026-02-26</t>
+          <t>2026-02-23</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Chef Executive - Manager</t>
+          <t>HR specialist</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Il casale di Roma</t>
+          <t>HOLDING LAVORO</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>indeed</t>
+          <t>google</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Roma, LAZ, IT</t>
+          <t>Rome, Metropolitan City of Rome Capital, Italy</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -3031,34 +2943,34 @@
       <c r="G69" t="inlineStr"/>
       <c r="H69" s="2" t="inlineStr">
         <is>
-          <t>https://it.indeed.com/viewjob?jk=32784129972ad937</t>
+          <t>https://www.applavoro.it/annuncio-holding-lavoro-ricerca-hr-spec-25956?utm_campaign=google_jobs_apply&amp;utm_source=google_jobs_apply&amp;utm_medium=organic</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>2026-02-26</t>
+          <t>2026-02-23</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Impiegato/a Tecnico - Roma</t>
+          <t>Direttore Risorse Umane Retail Roma (Italia)</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Arriva Italia</t>
+          <t>SGB Humangest Holding</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>indeed</t>
+          <t>google</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Roma, LAZ, IT</t>
+          <t>Rome, Metropolitan City of Rome Capital, Italy</t>
         </is>
       </c>
       <c r="E70" t="inlineStr"/>
@@ -3066,34 +2978,34 @@
       <c r="G70" t="inlineStr"/>
       <c r="H70" s="2" t="inlineStr">
         <is>
-          <t>https://it.indeed.com/viewjob?jk=f00454a8c0f02188</t>
+          <t>https://www.jobijoba.it/annunci-di-lavoro/13/a385df95cd756fabb68fd01a351e63b8?utm_campaign=google_jobs_apply&amp;utm_source=google_jobs_apply&amp;utm_medium=organic</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>2026-02-26</t>
+          <t>2026-02-24</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>OPERATORE DEL MERCATO DEL LAVORO SPECIALISTICO (OMLS)</t>
+          <t>Addetto HR - settore gestione rapporto di lavoro</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>vema e partners srl</t>
+          <t>Fondazione Policlinico Universitario Agostino Gemelli IRCCS</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>indeed</t>
+          <t>google</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Roma, LAZ, IT</t>
+          <t>Rome, Metropolitan City of Rome Capital, Italy</t>
         </is>
       </c>
       <c r="E71" t="inlineStr"/>
@@ -3101,34 +3013,34 @@
       <c r="G71" t="inlineStr"/>
       <c r="H71" s="2" t="inlineStr">
         <is>
-          <t>https://it.indeed.com/viewjob?jk=1aee5f338a2023da</t>
+          <t>https://it.linkedin.com/jobs/view/addetto-hr-settore-gestione-rapporto-di-lavoro-at-fondazione-policlinico-universitario-agostino-gemelli-irccs-4377160921?utm_campaign=google_jobs_apply&amp;utm_source=google_jobs_apply&amp;utm_medium=organic</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>2026-02-27</t>
+          <t>2026-02-24</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Operatore d’ufficio con competenze informatiche e CAD</t>
+          <t>Responsabile Payroll &amp; HR Admin – End-to-End Payroll</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>NTWK</t>
+          <t>EOLO</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>indeed</t>
+          <t>google</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Roma, LAZ, IT</t>
+          <t>Rome, Metropolitan City of Rome Capital, Italy</t>
         </is>
       </c>
       <c r="E72" t="inlineStr"/>
@@ -3136,34 +3048,34 @@
       <c r="G72" t="inlineStr"/>
       <c r="H72" s="2" t="inlineStr">
         <is>
-          <t>https://it.indeed.com/viewjob?jk=1cffe14f52c91a9e</t>
+          <t>https://it.talent.com/view?id=608048326287692797&amp;utm_campaign=google_jobs_apply&amp;utm_source=google_jobs_apply&amp;utm_medium=organic</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>2026-02-27</t>
+          <t>2026-02-24</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Architetto Infrastrutturale</t>
+          <t>Addetto Risorse Umane – Amministrazione, Formazione Continua</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>NETwk</t>
+          <t>key-absolute</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>indeed</t>
+          <t>google</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Roma, LAZ, IT</t>
+          <t>Rome, Metropolitan City of Rome Capital, Italy</t>
         </is>
       </c>
       <c r="E73" t="inlineStr"/>
@@ -3171,151 +3083,139 @@
       <c r="G73" t="inlineStr"/>
       <c r="H73" s="2" t="inlineStr">
         <is>
-          <t>https://it.indeed.com/viewjob?jk=668cfdb96527cb38</t>
+          <t>https://it.bebee.com/job/e4b8878db273f8ff2dcbc4b7c951f43a?utm_campaign=google_jobs_apply&amp;utm_source=google_jobs_apply&amp;utm_medium=organic</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>2026-02-27</t>
+          <t>2026-02-26</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Capo squadra operativa</t>
+          <t>Hr Manager Sede Puglia</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>RADIK SERVICES</t>
+          <t>Taskforce</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>indeed</t>
+          <t>google</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Roma, LAZ, IT</t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>parttime</t>
-        </is>
-      </c>
+          <t>Rome, Metropolitan City of Rome Capital, Italy</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr"/>
       <c r="F74" t="inlineStr"/>
       <c r="G74" t="inlineStr"/>
       <c r="H74" s="2" t="inlineStr">
         <is>
-          <t>https://it.indeed.com/viewjob?jk=6921e0174b79d456</t>
+          <t>https://it.jobtome.com/offertalavoro/hr-manager-sede-puglia/4c2950f9af80e1a7971160809db694a8?utm_campaign=google_jobs_apply&amp;utm_source=google_jobs_apply&amp;utm_medium=organic</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>2026-02-27</t>
+          <t>2026-02-26</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Addetta/o alle pulizie part-time, zona Villa Ada/Piazza Vescovio</t>
+          <t>Risorse umane</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>CONSORZIO STABILE LGA SERVICE</t>
+          <t>Gi Group</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>indeed</t>
+          <t>google</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Roma, LAZ, IT</t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>parttime</t>
-        </is>
-      </c>
+          <t>Rome, Metropolitan City of Rome Capital, Italy</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr"/>
       <c r="F75" t="inlineStr"/>
       <c r="G75" t="inlineStr"/>
       <c r="H75" s="2" t="inlineStr">
         <is>
-          <t>https://it.indeed.com/viewjob?jk=c1ccab0187274898</t>
+          <t>https://it.bebee.com/job/3ae61d173fc418ada1026f252496f095?utm_campaign=google_jobs_apply&amp;utm_source=google_jobs_apply&amp;utm_medium=organic</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>2026-02-27</t>
+          <t>2026-02-26</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Social Innovation Consultant</t>
+          <t>Responsabile Risorse Umane- Hr Manager - 40.000 All'Anno</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>ELIS Innovation Hub</t>
+          <t>AxL Agenzia per il Lavoro</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>indeed</t>
+          <t>google</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Roma, LAZ, IT</t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>fulltime</t>
-        </is>
-      </c>
+          <t>Rome, Metropolitan City of Rome Capital, Italy</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr"/>
       <c r="F76" t="inlineStr"/>
       <c r="G76" t="inlineStr"/>
       <c r="H76" s="2" t="inlineStr">
         <is>
-          <t>https://it.indeed.com/viewjob?jk=a1f4a086b8abadcb</t>
+          <t>https://it.bebee.com/job/2e37a634997f23d5a993e18555fc30c1?utm_campaign=google_jobs_apply&amp;utm_source=google_jobs_apply&amp;utm_medium=organic</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>2026-02-27</t>
+          <t>2026-02-26</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Animatori per bambini e ragazzi in soggiorni residenziali</t>
+          <t>Stageur risorse umane</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>DOC s.c.s.</t>
+          <t>RES</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>indeed</t>
+          <t>google</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Roma, LAZ, IT</t>
+          <t>Rome, Metropolitan City of Rome Capital, Italy</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -3327,7 +3227,7 @@
       <c r="G77" t="inlineStr"/>
       <c r="H77" s="2" t="inlineStr">
         <is>
-          <t>https://it.indeed.com/viewjob?jk=d69413d1559f8650</t>
+          <t>https://it.bebee.com/job/058ac8b74095985bbf74a0e0e95948a4?utm_campaign=google_jobs_apply&amp;utm_source=google_jobs_apply&amp;utm_medium=organic</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
@@ -3339,12 +3239,12 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Operatore call-center</t>
+          <t>NUOVA SELEZIONE | Inserimento FULL TIME</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>NTWK</t>
+          <t>Globe MKD</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -3357,29 +3257,33 @@
           <t>Roma, LAZ, IT</t>
         </is>
       </c>
-      <c r="E78" t="inlineStr"/>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>fulltime</t>
+        </is>
+      </c>
       <c r="F78" t="inlineStr"/>
       <c r="G78" t="inlineStr"/>
       <c r="H78" s="2" t="inlineStr">
         <is>
-          <t>https://it.indeed.com/viewjob?jk=19ed019ac7932d01</t>
+          <t>https://it.indeed.com/viewjob?jk=9e5330e635ff16f6</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>2026-02-27</t>
+          <t>2026-02-28</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Addetto/a vendite part time - Roma Tiburtina (RM)</t>
+          <t>Responsabile Ufficio Acquisti, Roma</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Happy Casa Store</t>
+          <t>CONSORZIO STABILE LGA SERVICE</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -3394,31 +3298,31 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>parttime</t>
+          <t>fulltime</t>
         </is>
       </c>
       <c r="F79" t="inlineStr"/>
       <c r="G79" t="inlineStr"/>
       <c r="H79" s="2" t="inlineStr">
         <is>
-          <t>https://it.indeed.com/viewjob?jk=349e269cdedb7f6a</t>
+          <t>https://it.indeed.com/viewjob?jk=6cec135eda7cfb8a</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>2026-02-27</t>
+          <t>2026-02-28</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Assistente Commerciale</t>
+          <t>Città di ROMA // TEMPO PIENO // Disponibilità da Lunedì a Venerdì //</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>NTWK</t>
+          <t>Globe MKD</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -3428,36 +3332,36 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Frosinone, LAZ, IT</t>
+          <t>Roma, LAZ, IT</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>parttime, fulltime</t>
+          <t>fulltime, internship</t>
         </is>
       </c>
       <c r="F80" t="inlineStr"/>
       <c r="G80" t="inlineStr"/>
       <c r="H80" s="2" t="inlineStr">
         <is>
-          <t>https://it.indeed.com/viewjob?jk=625ef9bfd93eaa0e</t>
+          <t>https://it.indeed.com/viewjob?jk=2c2fa406fa491541</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>2026-02-27</t>
+          <t>2026-02-28</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Addetto/a Front Office</t>
+          <t>Area Manager, FC Operations</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>NTWK</t>
+          <t>Amazon.com</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -3467,7 +3371,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Frosinone, LAZ, IT</t>
+          <t>Passo Corese, LAZ, IT</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -3479,166 +3383,186 @@
       <c r="G81" t="inlineStr"/>
       <c r="H81" s="2" t="inlineStr">
         <is>
-          <t>https://it.indeed.com/viewjob?jk=4533719caf1f5494</t>
+          <t>https://it.indeed.com/viewjob?jk=1447bfa75bfc3058</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>2026-02-27</t>
+          <t>2026-01-28</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Human Resources Business Partner</t>
+          <t>Military - Area Manager - Italy</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>TIM</t>
+          <t>Amazon.com</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>linkedin</t>
+          <t>indeed</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Rome, Latium, Italy</t>
-        </is>
-      </c>
-      <c r="E82" t="inlineStr"/>
+          <t>Colleferro, LAZ, IT</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>fulltime</t>
+        </is>
+      </c>
       <c r="F82" t="inlineStr"/>
       <c r="G82" t="inlineStr"/>
       <c r="H82" s="2" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/4369142800</t>
-        </is>
-      </c>
-      <c r="I82" t="inlineStr"/>
+          <t>https://it.indeed.com/viewjob?jk=5bf598daeedf29dc</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>2026-02-20</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Stagista risorse umane</t>
+          <t>Account Manager – PR Agency (Roma)</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>AIR fire SpA</t>
+          <t>Spencer &amp; Lewis</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>linkedin</t>
+          <t>indeed</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Rome, Latium, Italy</t>
-        </is>
-      </c>
-      <c r="E83" t="inlineStr"/>
+          <t>Roma, LAZ, IT</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>fulltime</t>
+        </is>
+      </c>
       <c r="F83" t="inlineStr"/>
       <c r="G83" t="inlineStr"/>
       <c r="H83" s="2" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/4377126907</t>
+          <t>https://it.indeed.com/viewjob?jk=5e9f91bbcc822045</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>2026-02-24</t>
+          <t>2026-02-26</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Human Resources Representative</t>
+          <t>Account Manager – International Advertising Agency (Roma)</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>The Toro Company</t>
+          <t>Studio Futuroma</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>linkedin</t>
+          <t>indeed</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Fiano Romano, Latium, Italy</t>
-        </is>
-      </c>
-      <c r="E84" t="inlineStr"/>
+          <t>Roma, LAZ, IT</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>fulltime</t>
+        </is>
+      </c>
       <c r="F84" t="inlineStr"/>
       <c r="G84" t="inlineStr"/>
       <c r="H84" s="2" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/4374585771</t>
+          <t>https://it.indeed.com/viewjob?jk=fab2c241c5db9fcb</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>2026-02-25</t>
+          <t>2026-02-26</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Employer Branding Intern</t>
+          <t>Conferimento, per titoli e colloquio, dell'incarico quinquennale eventualmente rinnovabile di direttore della UOC Servizio igiene alimenti e nutrizione, del Dipartimento di prevenzione, a tempo determinato.</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Joinrs</t>
+          <t>AZIENDA SANITARIA LOCALE ROMA 3 DI ROMA</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>linkedin</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr"/>
+          <t>indeed</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>Roma, LAZ, IT</t>
+        </is>
+      </c>
       <c r="E85" t="inlineStr"/>
       <c r="F85" t="inlineStr"/>
       <c r="G85" t="inlineStr"/>
       <c r="H85" s="2" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/4376561301</t>
+          <t>https://it.indeed.com/viewjob?jk=1cb53341ebb8e30f</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>2026-02-26</t>
+          <t>2026-02-24</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>HR Generalist Apprentice</t>
+          <t>Conferimento dell'incarico quinquennale di direttore dell'unita' operativa complessa Ortopedia e traumatologia Ospedale Anzio-Nettuno.</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Arsenale Group</t>
+          <t>AZIENDA SANITARIA LOCALE ROMA 6 - ALBANO LAZIALE</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>linkedin</t>
+          <t>indeed</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Rome, Latium, Italy</t>
+          <t>Albano Laziale, LAZ, IT</t>
         </is>
       </c>
       <c r="E86" t="inlineStr"/>
@@ -3646,24 +3570,24 @@
       <c r="G86" t="inlineStr"/>
       <c r="H86" s="2" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/4378347176</t>
+          <t>https://it.indeed.com/viewjob?jk=6dc2741e055d401b</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>2026-02-26</t>
+          <t>2026-02-27</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Area Manager, FC Operations</t>
+          <t>Safety &amp; Security Audit Specialist - Roma</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Amazon.com</t>
+          <t>VOIhotels</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -3673,75 +3597,63 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Passo Corese, LAZ, IT</t>
-        </is>
-      </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>fulltime</t>
-        </is>
-      </c>
+          <t>Roma, LAZ, IT</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr"/>
       <c r="F87" t="inlineStr"/>
       <c r="G87" t="inlineStr"/>
       <c r="H87" s="2" t="inlineStr">
         <is>
-          <t>https://it.indeed.com/viewjob?jk=ae999046402b3483</t>
+          <t>https://it.indeed.com/viewjob?jk=20ea5a0e6f4a363f</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>2026-01-28</t>
+          <t>2026-02-23</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Military - Area Manager - Italy</t>
+          <t>Product People Partnering Trainee</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Amazon.com</t>
+          <t>Sisal</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>indeed</t>
+          <t>linkedin</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Colleferro, LAZ, IT</t>
-        </is>
-      </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>fulltime</t>
-        </is>
-      </c>
+          <t>Rome, Latium, Italy</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr"/>
       <c r="F88" t="inlineStr"/>
       <c r="G88" t="inlineStr"/>
       <c r="H88" s="2" t="inlineStr">
         <is>
-          <t>https://it.indeed.com/viewjob?jk=bfb852971c0ed1a5</t>
-        </is>
-      </c>
-      <c r="I88" t="inlineStr">
-        <is>
-          <t>2026-02-20</t>
-        </is>
-      </c>
+          <t>https://www.linkedin.com/jobs/view/4379235976</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Sales and Marketing Coordinator Italy - Shockwave IVL</t>
+          <t>Specialista paghe e contributi - Roma Tor Vergata</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Johnson &amp; Johnson</t>
+          <t>SPP Agenzia per il Lavoro</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -3751,7 +3663,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Pomezia, LAZ, IT</t>
+          <t>Roma, LAZ, IT</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -3763,7 +3675,7 @@
       <c r="G89" t="inlineStr"/>
       <c r="H89" s="2" t="inlineStr">
         <is>
-          <t>https://it.indeed.com/viewjob?jk=c32164c9002416cf</t>
+          <t>https://it.indeed.com/viewjob?jk=b458a4e356c8160f</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
@@ -3775,12 +3687,12 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Project Manager ambito OnLine Banking</t>
+          <t>CYS - GCAP Joint Venture Headquarters - Digital Adoption &amp; Capability Manager</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>BIP</t>
+          <t>Leonardo</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -3793,16 +3705,12 @@
           <t>Roma, LAZ, IT</t>
         </is>
       </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>fulltime</t>
-        </is>
-      </c>
+      <c r="E90" t="inlineStr"/>
       <c r="F90" t="inlineStr"/>
       <c r="G90" t="inlineStr"/>
       <c r="H90" s="2" t="inlineStr">
         <is>
-          <t>https://it.indeed.com/viewjob?jk=f6ea84d71caaf5fd</t>
+          <t>https://it.indeed.com/viewjob?jk=2f38080b68bca520</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
@@ -3814,12 +3722,12 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>R&amp;D Deployment Manager Consumer Science</t>
+          <t>Addetto/addetta fast food - Burger King Roma Fosso di Santa Maura</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Kenvue</t>
+          <t>QSRP</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -3829,32 +3737,36 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Pomezia, LAZ, IT</t>
-        </is>
-      </c>
-      <c r="E91" t="inlineStr"/>
+          <t>Roma, LAZ, IT</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>parttime</t>
+        </is>
+      </c>
       <c r="F91" t="inlineStr"/>
       <c r="G91" t="inlineStr"/>
       <c r="H91" s="2" t="inlineStr">
         <is>
-          <t>https://it.indeed.com/viewjob?jk=49218212a3b77442</t>
+          <t>https://it.indeed.com/viewjob?jk=13f48153cb0ddc67</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>2026-02-23</t>
+          <t>2026-01-29</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Administrative Assistant (f/m/d)</t>
+          <t>Addetto Fast Food Gran Roma</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Axpo Holding AG</t>
+          <t>QSRP</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -3867,29 +3779,33 @@
           <t>Roma, LAZ, IT</t>
         </is>
       </c>
-      <c r="E92" t="inlineStr"/>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>parttime</t>
+        </is>
+      </c>
       <c r="F92" t="inlineStr"/>
       <c r="G92" t="inlineStr"/>
       <c r="H92" s="2" t="inlineStr">
         <is>
-          <t>https://it.indeed.com/viewjob?jk=68b6606a2933e44d</t>
+          <t>https://it.indeed.com/viewjob?jk=4d62c2e98d4f826f</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>2026-02-23</t>
+          <t>2026-01-29</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Grid Connection Manager (f/m/d)</t>
+          <t>Sales Assistant WEEKENDER 12H - ROMA CC Euroma2</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Axpo group</t>
+          <t>LA CASA DE LAS CARCASAS</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -3902,29 +3818,33 @@
           <t>Roma, LAZ, IT</t>
         </is>
       </c>
-      <c r="E93" t="inlineStr"/>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>parttime</t>
+        </is>
+      </c>
       <c r="F93" t="inlineStr"/>
       <c r="G93" t="inlineStr"/>
       <c r="H93" s="2" t="inlineStr">
         <is>
-          <t>https://it.indeed.com/viewjob?jk=5ef538420a4e3017</t>
+          <t>https://it.indeed.com/viewjob?jk=40819fa2f4c14054</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>2026-02-23</t>
+          <t>2026-02-24</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Services Representative</t>
+          <t>Addetto Continuous Improvement</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Schneider Electric</t>
+          <t>Leonardo</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -3934,36 +3854,32 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Roma, LAZ, IT</t>
-        </is>
-      </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>fulltime</t>
-        </is>
-      </c>
+          <t>Cisterna di Latina, LAZ, IT</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr"/>
       <c r="F94" t="inlineStr"/>
       <c r="G94" t="inlineStr"/>
       <c r="H94" s="2" t="inlineStr">
         <is>
-          <t>https://it.indeed.com/viewjob?jk=ca70c99857d588db</t>
+          <t>https://it.indeed.com/viewjob?jk=666422e0a0697b49</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>2026-02-23</t>
+          <t>2026-02-24</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Sr Account Partner</t>
+          <t>Addetto/a all’Inventario – appartenente alle categorie protette legge 68/99</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Salesforce</t>
+          <t>RGIS</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -3976,33 +3892,29 @@
           <t>Roma, LAZ, IT</t>
         </is>
       </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>fulltime</t>
-        </is>
-      </c>
+      <c r="E95" t="inlineStr"/>
       <c r="F95" t="inlineStr"/>
       <c r="G95" t="inlineStr"/>
       <c r="H95" s="2" t="inlineStr">
         <is>
-          <t>https://it.indeed.com/viewjob?jk=41ed2dc466268d26</t>
+          <t>https://it.indeed.com/viewjob?jk=53a50102b74d168f</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>2026-02-24</t>
+          <t>2026-02-25</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Head of Communications Italy</t>
+          <t>Sales Assistant</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Ryanair</t>
+          <t>Holyart</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4012,32 +3924,36 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Ciampino, LAZ, IT</t>
-        </is>
-      </c>
-      <c r="E96" t="inlineStr"/>
+          <t>Roma, LAZ, IT</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>parttime, fulltime</t>
+        </is>
+      </c>
       <c r="F96" t="inlineStr"/>
       <c r="G96" t="inlineStr"/>
       <c r="H96" s="2" t="inlineStr">
         <is>
-          <t>https://it.indeed.com/viewjob?jk=120c0a63f837b20e</t>
+          <t>https://it.indeed.com/viewjob?jk=2403b50fdd439735</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>2026-02-24</t>
+          <t>2026-02-25</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Fleet Delivery Representative</t>
+          <t>Impiegato Amministrativo Area Formazione</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>FlexCar</t>
+          <t>Corsi Alta Formazione Italia</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4047,36 +3963,32 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Roma, LAZ, IT</t>
-        </is>
-      </c>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>fulltime</t>
-        </is>
-      </c>
+          <t>Latina, LAZ, IT</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr"/>
       <c r="F97" t="inlineStr"/>
       <c r="G97" t="inlineStr"/>
       <c r="H97" s="2" t="inlineStr">
         <is>
-          <t>https://it.indeed.com/viewjob?jk=00c3c8401ccdec88</t>
+          <t>https://it.indeed.com/viewjob?jk=480503e87c0bcf8e</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>2026-02-25</t>
+          <t>2026-02-23</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Senior Account Executive, Insurance</t>
+          <t>COMMERCIALE SENIOR – SETTORE GIOCATTOLI</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Salesforce</t>
+          <t>E-Servizi Srls</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -4086,7 +3998,7 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Roma, LAZ, IT</t>
+          <t>Ciampino, LAZ, IT</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -4098,24 +4010,24 @@
       <c r="G98" t="inlineStr"/>
       <c r="H98" s="2" t="inlineStr">
         <is>
-          <t>https://it.indeed.com/viewjob?jk=ff100926eb965ad2</t>
+          <t>https://it.indeed.com/viewjob?jk=0e5c07e2817d801f</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>2026-02-26</t>
+          <t>2026-02-23</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Republic of Korea Fundraising Coordinator - Individual Giving</t>
+          <t>LASERoma® – Cercasi Estetista di Centro epilazione (Zona San Giovanni)</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>World Food Programme</t>
+          <t>epìLate Roma San Giovanni</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -4130,31 +4042,31 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>fulltime</t>
+          <t>parttime</t>
         </is>
       </c>
       <c r="F99" t="inlineStr"/>
       <c r="G99" t="inlineStr"/>
       <c r="H99" s="2" t="inlineStr">
         <is>
-          <t>https://it.indeed.com/viewjob?jk=42a0b8f6b47040f8</t>
+          <t>https://it.indeed.com/viewjob?jk=0f955ec92444b344</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>2026-02-26</t>
+          <t>2026-02-23</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Barman Hotel di Lusso Stagionale - Roma</t>
+          <t>SETTER - In sede a Roma Prati</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Dama Recruiting</t>
+          <t>Traction</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -4167,29 +4079,33 @@
           <t>Roma, LAZ, IT</t>
         </is>
       </c>
-      <c r="E100" t="inlineStr"/>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>fulltime</t>
+        </is>
+      </c>
       <c r="F100" t="inlineStr"/>
       <c r="G100" t="inlineStr"/>
       <c r="H100" s="2" t="inlineStr">
         <is>
-          <t>https://it.indeed.com/viewjob?jk=03994d0c99b18d26</t>
+          <t>https://it.indeed.com/viewjob?jk=5825191c635aa4dd</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>2026-02-26</t>
+          <t>2026-02-23</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Chef de Rang - Roma</t>
+          <t>Guest Relations Agent</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Dama Recruiting</t>
+          <t>Masseria Torre Maizza, Rocco Forte Hotels</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -4202,29 +4118,33 @@
           <t>Roma, LAZ, IT</t>
         </is>
       </c>
-      <c r="E101" t="inlineStr"/>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>fulltime</t>
+        </is>
+      </c>
       <c r="F101" t="inlineStr"/>
       <c r="G101" t="inlineStr"/>
       <c r="H101" s="2" t="inlineStr">
         <is>
-          <t>https://it.indeed.com/viewjob?jk=2b92e11d859c8f84</t>
+          <t>https://it.indeed.com/viewjob?jk=a896c095670d4e94</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>2026-02-26</t>
+          <t>2026-02-24</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Application senior PM</t>
+          <t>Program Manager</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>DXC Technology</t>
+          <t>Leonardo</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -4237,33 +4157,29 @@
           <t>Roma, LAZ, IT</t>
         </is>
       </c>
-      <c r="E102" t="inlineStr">
-        <is>
-          <t>fulltime</t>
-        </is>
-      </c>
+      <c r="E102" t="inlineStr"/>
       <c r="F102" t="inlineStr"/>
       <c r="G102" t="inlineStr"/>
       <c r="H102" s="2" t="inlineStr">
         <is>
-          <t>https://it.indeed.com/viewjob?jk=c9090df31fbff906</t>
+          <t>https://it.indeed.com/viewjob?jk=ad16411d89ad5dbe</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>2026-02-26</t>
+          <t>2026-02-24</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Associate Manager Data Science</t>
+          <t>Addetto/a Vendite CC ROMAEST</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>DXC Technology</t>
+          <t>Hype srl</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -4285,86 +4201,102 @@
       <c r="G103" t="inlineStr"/>
       <c r="H103" s="2" t="inlineStr">
         <is>
-          <t>https://it.indeed.com/viewjob?jk=a85dcd13338520aa</t>
+          <t>https://it.indeed.com/viewjob?jk=f742cf702e7efb63</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>2026-02-27</t>
+          <t>2026-02-25</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Recruitment Day 10 Marzo 2026 - Junior Customer Expansion Specialist</t>
+          <t>Project Manager - Offerta di lavoro</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>MioDottore</t>
+          <t>SecretKey</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>linkedin</t>
+          <t>indeed</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Rome, Latium, Italy</t>
-        </is>
-      </c>
-      <c r="E104" t="inlineStr"/>
+          <t>Roma, LAZ, IT</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>fulltime</t>
+        </is>
+      </c>
       <c r="F104" t="inlineStr"/>
       <c r="G104" t="inlineStr"/>
       <c r="H104" s="2" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/4377901898</t>
-        </is>
-      </c>
-      <c r="I104" t="inlineStr"/>
+          <t>https://it.indeed.com/viewjob?jk=b9cc63ad479c945b</t>
+        </is>
+      </c>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>2026-02-25</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Recruiter Trainee</t>
+          <t>Digital Advertising Specialist</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Chaberton Professionals</t>
+          <t>SecretKey</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>linkedin</t>
-        </is>
-      </c>
-      <c r="D105" t="inlineStr"/>
-      <c r="E105" t="inlineStr"/>
+          <t>indeed</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>Roma, LAZ, IT</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>fulltime</t>
+        </is>
+      </c>
       <c r="F105" t="inlineStr"/>
       <c r="G105" t="inlineStr"/>
       <c r="H105" s="2" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/4374811915</t>
+          <t>https://it.indeed.com/viewjob?jk=a8be07d50930c780</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>2026-02-24</t>
+          <t>2026-02-25</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>FINE CHEMICALS HR PLANT MANAGER</t>
+          <t>Google AdWords e Facebook Ads - Junior Manager</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Angelini Pharma</t>
+          <t>SecretKey</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -4377,29 +4309,33 @@
           <t>Roma, LAZ, IT</t>
         </is>
       </c>
-      <c r="E106" t="inlineStr"/>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>fulltime</t>
+        </is>
+      </c>
       <c r="F106" t="inlineStr"/>
       <c r="G106" t="inlineStr"/>
       <c r="H106" s="2" t="inlineStr">
         <is>
-          <t>https://it.indeed.com/viewjob?jk=4f56c1d858399483</t>
+          <t>https://it.indeed.com/viewjob?jk=00ab154bb57b2b1e</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>2026-02-13</t>
+          <t>2026-02-25</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>HR Application Specialist – Area IT</t>
+          <t>Responsabile Customer Care</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Enav</t>
+          <t>New Energy Gas e Luce Spa</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -4412,29 +4348,33 @@
           <t>Roma, LAZ, IT</t>
         </is>
       </c>
-      <c r="E107" t="inlineStr"/>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>fulltime</t>
+        </is>
+      </c>
       <c r="F107" t="inlineStr"/>
       <c r="G107" t="inlineStr"/>
       <c r="H107" s="2" t="inlineStr">
         <is>
-          <t>https://it.indeed.com/viewjob?jk=06d2aee0d30d59ce</t>
+          <t>https://it.indeed.com/viewjob?jk=471078c961290336</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>2026-02-23</t>
+          <t>2026-02-25</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Addetto/a Ufficio Risorse Umane</t>
+          <t>Responsabile Finance &amp; Procurement</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>AIR</t>
+          <t>IMMUNI SRL</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -4447,29 +4387,33 @@
           <t>Roma, LAZ, IT</t>
         </is>
       </c>
-      <c r="E108" t="inlineStr"/>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>fulltime</t>
+        </is>
+      </c>
       <c r="F108" t="inlineStr"/>
       <c r="G108" t="inlineStr"/>
       <c r="H108" s="2" t="inlineStr">
         <is>
-          <t>https://it.indeed.com/viewjob?jk=7909a01fd583061e</t>
+          <t>https://it.indeed.com/viewjob?jk=44221aa6cbc0e687</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>2026-02-23</t>
+          <t>2026-02-27</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>WW Compensation &amp; Benefits, HR Operations and Transformation Director</t>
+          <t>Facchino ai piani</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Fendi</t>
+          <t>Masseria Torre Maizza, Rocco Forte Hotels</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -4491,63 +4435,59 @@
       <c r="G109" t="inlineStr"/>
       <c r="H109" s="2" t="inlineStr">
         <is>
-          <t>https://it.indeed.com/viewjob?jk=c13d74a7cd582ad2</t>
+          <t>https://it.indeed.com/viewjob?jk=305184b6b48de667</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>2026-02-23</t>
+          <t>2026-02-27</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>HR Manager</t>
+          <t>Impiegato/a Ufficio Risorse Umane | Gestione del personale</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Rome Business School</t>
+          <t>tecno-system</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>indeed</t>
+          <t>linkedin</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Roma, LAZ, IT</t>
-        </is>
-      </c>
-      <c r="E110" t="inlineStr">
-        <is>
-          <t>fulltime</t>
-        </is>
-      </c>
+          <t>Rome, Latium, Italy</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr"/>
       <c r="F110" t="inlineStr"/>
       <c r="G110" t="inlineStr"/>
       <c r="H110" s="2" t="inlineStr">
         <is>
-          <t>https://it.indeed.com/viewjob?jk=9e4d4e850de8c641</t>
+          <t>https://www.linkedin.com/jobs/view/4375708086</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>2026-02-24</t>
+          <t>2026-02-23</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>PRADA In Store Trainer, Roma</t>
+          <t>Addetto/a Elaborazione Paghe</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Prada</t>
+          <t>Gruppo Paoletti</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -4557,32 +4497,36 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Roma, LAZ, IT</t>
-        </is>
-      </c>
-      <c r="E111" t="inlineStr"/>
+          <t>Fiumicino, LAZ, IT</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>fulltime</t>
+        </is>
+      </c>
       <c r="F111" t="inlineStr"/>
       <c r="G111" t="inlineStr"/>
       <c r="H111" s="2" t="inlineStr">
         <is>
-          <t>https://it.indeed.com/viewjob?jk=93bf21f0c1000e62</t>
+          <t>https://it.indeed.com/viewjob?jk=aac95dc33fcb3fd0</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>2026-02-24</t>
+          <t>2026-02-21</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Global Head of Technical Training &amp; Innovation</t>
+          <t>Educatore</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>RINA</t>
+          <t>ASD Mental Games</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -4592,7 +4536,7 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Roma, LAZ, IT</t>
+          <t>Pomezia, LAZ, IT</t>
         </is>
       </c>
       <c r="E112" t="inlineStr"/>
@@ -4600,226 +4544,258 @@
       <c r="G112" t="inlineStr"/>
       <c r="H112" s="2" t="inlineStr">
         <is>
-          <t>https://it.indeed.com/viewjob?jk=9f0d4e1ee4b96f8b</t>
+          <t>https://it.indeed.com/viewjob?jk=74a25f1eb5c7d253</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>2026-02-25</t>
+          <t>2026-02-23</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Relocate to Malta and join an International Team - Recruitment Consulting</t>
+          <t>Autista di Autobus - Roma</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Archer - The IT Recruitment Consultancy (Malta)</t>
+          <t>Arriva Italia</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>linkedin</t>
+          <t>indeed</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Rome, Latium, Italy</t>
-        </is>
-      </c>
-      <c r="E113" t="inlineStr"/>
+          <t>Roma, LAZ, IT</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>parttime</t>
+        </is>
+      </c>
       <c r="F113" t="inlineStr"/>
       <c r="G113" t="inlineStr"/>
       <c r="H113" s="2" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/4377132890</t>
-        </is>
-      </c>
-      <c r="I113" t="inlineStr"/>
+          <t>https://it.indeed.com/viewjob?jk=4935a852d0b600ae</t>
+        </is>
+      </c>
+      <c r="I113" t="inlineStr">
+        <is>
+          <t>2026-02-23</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>HR / Talent Acquisition Specialist – Tutor per lezioni private</t>
+          <t>Autista Consegnatario - sede Fiano Romano</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Letuelezioni</t>
+          <t>ELIS ITALIA S.p.A.</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>linkedin</t>
-        </is>
-      </c>
-      <c r="D114" t="inlineStr"/>
-      <c r="E114" t="inlineStr"/>
+          <t>indeed</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>Fiano Romano, LAZ, IT</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>fulltime</t>
+        </is>
+      </c>
       <c r="F114" t="inlineStr"/>
       <c r="G114" t="inlineStr"/>
       <c r="H114" s="2" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/4376408804</t>
+          <t>https://it.indeed.com/viewjob?jk=8aa5fe403821aa32</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>2026-02-24</t>
+          <t>2026-02-23</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Talent Strategy Consultant</t>
+          <t>Promoter/Hostess</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Mercer</t>
+          <t>Be-Agency</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>linkedin</t>
+          <t>indeed</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Rome, Latium, Italy</t>
-        </is>
-      </c>
-      <c r="E115" t="inlineStr"/>
+          <t>Genzano di Roma, LAZ, IT</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>fulltime</t>
+        </is>
+      </c>
       <c r="F115" t="inlineStr"/>
       <c r="G115" t="inlineStr"/>
       <c r="H115" s="2" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/4368310155</t>
+          <t>https://it.indeed.com/viewjob?jk=df5eda7b5fd44b4f</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>2026-02-24</t>
+          <t>2026-02-23</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>HR Stage - Talent Acquisition</t>
+          <t>Personale di Supermercato per la zona di Monteverde/Colli Portuensi</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Multiversity Group</t>
+          <t>Service Group srls</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>linkedin</t>
+          <t>indeed</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Rome, Latium, Italy</t>
-        </is>
-      </c>
-      <c r="E116" t="inlineStr"/>
+          <t>Roma, LAZ, IT</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>fulltime</t>
+        </is>
+      </c>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
       <c r="H116" s="2" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/4374896779</t>
+          <t>https://it.indeed.com/viewjob?jk=15aee85de125b47d</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>2026-02-25</t>
+          <t>2026-02-23</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Stagista ambito Tech Head Hunting / Selezione del Personale (Roma Eur -Rif.1124)</t>
+          <t>Consulente Applicativo Zucchetti Junior- Roma Eur</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>EgoValeo | Tech Head Hunting</t>
+          <t>NHRG SRL – Agenzia per il Lavoro</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>linkedin</t>
+          <t>indeed</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Rome, Latium, Italy</t>
-        </is>
-      </c>
-      <c r="E117" t="inlineStr"/>
+          <t>Roma, LAZ, IT</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>fulltime</t>
+        </is>
+      </c>
       <c r="F117" t="inlineStr"/>
       <c r="G117" t="inlineStr"/>
       <c r="H117" s="2" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/4375547964</t>
+          <t>https://it.indeed.com/viewjob?jk=853619f64839acd6</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>2026-02-26</t>
+          <t>2026-02-23</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Talent Acquisition Associate - Maternity Leave</t>
+          <t>Marketing Automation Expert</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Fendi</t>
+          <t>Traction Group s.r.l.</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>linkedin</t>
+          <t>indeed</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Rome, Latium, Italy</t>
-        </is>
-      </c>
-      <c r="E118" t="inlineStr"/>
+          <t>Roma, LAZ, IT</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>fulltime</t>
+        </is>
+      </c>
       <c r="F118" t="inlineStr"/>
       <c r="G118" t="inlineStr"/>
       <c r="H118" s="2" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/4368728526</t>
+          <t>https://it.indeed.com/viewjob?jk=3a8a39fb67efd908</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>2026-02-26</t>
+          <t>2026-02-23</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>TALENT ACQUISITION &amp; EMPLOYER BRANDING SPECIALIST</t>
+          <t>Analista Funzionale e Tecnico</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Angelini Pharma</t>
+          <t>Data-Driven.Ai srl</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -4832,29 +4808,33 @@
           <t>Roma, LAZ, IT</t>
         </is>
       </c>
-      <c r="E119" t="inlineStr"/>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>fulltime</t>
+        </is>
+      </c>
       <c r="F119" t="inlineStr"/>
       <c r="G119" t="inlineStr"/>
       <c r="H119" s="2" t="inlineStr">
         <is>
-          <t>https://it.indeed.com/viewjob?jk=fe61a8003ba3dfe8</t>
+          <t>https://it.indeed.com/viewjob?jk=553410435a331afa</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>2026-02-20</t>
+          <t>2026-02-23</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Inside Sales Account Manager - Remoto</t>
+          <t>FRESATORE CNC SENIOR</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Hilti Group</t>
+          <t>APIS Srl Agenzia per il Lavoro</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -4864,7 +4844,7 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Roma, LAZ, IT</t>
+          <t>Palestrina, LAZ, IT</t>
         </is>
       </c>
       <c r="E120" t="inlineStr"/>
@@ -4872,7 +4852,7 @@
       <c r="G120" t="inlineStr"/>
       <c r="H120" s="2" t="inlineStr">
         <is>
-          <t>https://it.indeed.com/viewjob?jk=8a6897f86593ec78</t>
+          <t>https://it.indeed.com/viewjob?jk=563ee087c7d6974a</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
@@ -4884,12 +4864,12 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Bartender - Porto Cervo</t>
+          <t>Cluster Sales Manager Villa Agrippina &amp; Palazzo Cordusio (38442)</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Zuma</t>
+          <t>Meliá Hotels International</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -4902,33 +4882,29 @@
           <t>Roma, LAZ, IT</t>
         </is>
       </c>
-      <c r="E121" t="inlineStr">
-        <is>
-          <t>parttime</t>
-        </is>
-      </c>
+      <c r="E121" t="inlineStr"/>
       <c r="F121" t="inlineStr"/>
       <c r="G121" t="inlineStr"/>
       <c r="H121" s="2" t="inlineStr">
         <is>
-          <t>https://it.indeed.com/viewjob?jk=e5018585d4c391db</t>
+          <t>https://it.indeed.com/viewjob?jk=89628ae4238c2a11</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>2026-02-23</t>
+          <t>2026-02-24</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Quality System Specialist</t>
+          <t>Responsabile Ufficio Calibrazione</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Kraft Heinz</t>
+          <t>NETwk</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -4938,7 +4914,7 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Latina, LAZ, IT</t>
+          <t>Roma, LAZ, IT</t>
         </is>
       </c>
       <c r="E122" t="inlineStr"/>
@@ -4946,24 +4922,24 @@
       <c r="G122" t="inlineStr"/>
       <c r="H122" s="2" t="inlineStr">
         <is>
-          <t>https://it.indeed.com/viewjob?jk=ef01bc517d79ace5</t>
+          <t>https://it.indeed.com/viewjob?jk=835cd79ae499f772</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>2026-02-23</t>
+          <t>2026-02-24</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Senior Project Finance Manager - Italy</t>
+          <t>Junior Finance</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>ILOS Projects GmbH &amp; Co. KG</t>
+          <t>Data-Driven.Ai srl</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -4985,7 +4961,7 @@
       <c r="G123" t="inlineStr"/>
       <c r="H123" s="2" t="inlineStr">
         <is>
-          <t>https://it.indeed.com/viewjob?jk=6f6a95e7e76f54d0</t>
+          <t>https://it.indeed.com/viewjob?jk=02647aa62a25aafc</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
@@ -4997,12 +4973,12 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Assistant Restaurant Manager</t>
+          <t>Hostess di Sala</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Zuma</t>
+          <t>Palazzo Montemartini Rome</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -5024,24 +5000,24 @@
       <c r="G124" t="inlineStr"/>
       <c r="H124" s="2" t="inlineStr">
         <is>
-          <t>https://it.indeed.com/viewjob?jk=fb62215e0eee4ac8</t>
+          <t>https://it.indeed.com/viewjob?jk=a69dc08186fe52c7</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>2026-02-25</t>
+          <t>2026-02-24</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Sales Development Representative - (Spanish Speaking) - 100% remote - Europe</t>
+          <t>Specialista HSE</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Hostaway</t>
+          <t>NTWK</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -5054,33 +5030,29 @@
           <t>Roma, LAZ, IT</t>
         </is>
       </c>
-      <c r="E125" t="inlineStr">
-        <is>
-          <t>fulltime</t>
-        </is>
-      </c>
+      <c r="E125" t="inlineStr"/>
       <c r="F125" t="inlineStr"/>
       <c r="G125" t="inlineStr"/>
       <c r="H125" s="2" t="inlineStr">
         <is>
-          <t>https://it.indeed.com/viewjob?jk=bd13c0d9256ac7fe</t>
+          <t>https://it.indeed.com/viewjob?jk=5ade74db0f32cec0</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>2026-02-25</t>
+          <t>2026-02-24</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>People Development Intern</t>
+          <t>ASPP</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Successori Reda S.B.P.A.</t>
+          <t>NTWK</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -5093,33 +5065,29 @@
           <t>Roma, LAZ, IT</t>
         </is>
       </c>
-      <c r="E126" t="inlineStr">
-        <is>
-          <t>internship</t>
-        </is>
-      </c>
+      <c r="E126" t="inlineStr"/>
       <c r="F126" t="inlineStr"/>
       <c r="G126" t="inlineStr"/>
       <c r="H126" s="2" t="inlineStr">
         <is>
-          <t>https://it.indeed.com/viewjob?jk=4150b46b0e41e58d</t>
+          <t>https://it.indeed.com/viewjob?jk=dac0ec471436e682</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>2026-02-25</t>
+          <t>2026-02-24</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Therapeutic Area Lead (Director) - Specialty (Immunology, Ophthalmology and Neuroscience)</t>
+          <t>Food&amp;Beverage - Gestione Bar Bistrot</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>MSD</t>
+          <t>Relais Boutique Hotels srl</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -5141,24 +5109,24 @@
       <c r="G127" t="inlineStr"/>
       <c r="H127" s="2" t="inlineStr">
         <is>
-          <t>https://it.indeed.com/viewjob?jk=7f74a447c548c54a</t>
+          <t>https://it.indeed.com/viewjob?jk=5ebfc5697317bca6</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>2026-02-26</t>
+          <t>2026-02-24</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Compliance Specialist (SGI, HSE, GDPR)</t>
+          <t>ADDETTO/A PARTENZE</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Moveax</t>
+          <t>STEF</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -5168,7 +5136,7 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Roma, LAZ, IT</t>
+          <t>Santa Palomba, LAZ, IT</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
@@ -5180,24 +5148,24 @@
       <c r="G128" t="inlineStr"/>
       <c r="H128" s="2" t="inlineStr">
         <is>
-          <t>https://it.indeed.com/viewjob?jk=ed9b83172f8defb9</t>
+          <t>https://it.indeed.com/viewjob?jk=f8c88af751f6f812</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>2026-02-26</t>
+          <t>2026-02-24</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Sommelier - Capri</t>
+          <t>Addetto/a per Conteggio Merci e Inventario - Back Office per la sede di Roma</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Zuma</t>
+          <t>RGIS</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -5210,33 +5178,29 @@
           <t>Roma, LAZ, IT</t>
         </is>
       </c>
-      <c r="E129" t="inlineStr">
-        <is>
-          <t>parttime</t>
-        </is>
-      </c>
+      <c r="E129" t="inlineStr"/>
       <c r="F129" t="inlineStr"/>
       <c r="G129" t="inlineStr"/>
       <c r="H129" s="2" t="inlineStr">
         <is>
-          <t>https://it.indeed.com/viewjob?jk=3c1cb4b07950b983</t>
+          <t>https://it.indeed.com/viewjob?jk=f108027b085d6c44</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>2026-02-26</t>
+          <t>2026-02-25</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Sommelier - Porto Cervo</t>
+          <t>ADDETTO AL SERVIZIO PREVENZIONE E PROTEZIONE (ASPP)</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Zuma</t>
+          <t>Venpa Spa</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -5246,36 +5210,36 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Roma, LAZ, IT</t>
+          <t>Monterotondo, LAZ, IT</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>parttime</t>
+          <t>fulltime</t>
         </is>
       </c>
       <c r="F130" t="inlineStr"/>
       <c r="G130" t="inlineStr"/>
       <c r="H130" s="2" t="inlineStr">
         <is>
-          <t>https://it.indeed.com/viewjob?jk=6385d2a3a4e7a915</t>
+          <t>https://it.indeed.com/viewjob?jk=338094a28e3330f2</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>2026-02-26</t>
+          <t>2026-02-25</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>People Engagement, Talent Acquisition &amp; Project HR</t>
+          <t>Addetto/a Vendite profilo ESPERTO</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>B1P Group</t>
+          <t>NTWK</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -5288,29 +5252,33 @@
           <t>Roma, LAZ, IT</t>
         </is>
       </c>
-      <c r="E131" t="inlineStr"/>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>fulltime</t>
+        </is>
+      </c>
       <c r="F131" t="inlineStr"/>
       <c r="G131" t="inlineStr"/>
       <c r="H131" s="2" t="inlineStr">
         <is>
-          <t>https://it.indeed.com/viewjob?jk=33541dcf08b547a8</t>
+          <t>https://it.indeed.com/viewjob?jk=d5806b9abe71e071</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>2026-02-27</t>
+          <t>2026-02-25</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Procedura di selezione per la chiamata di un professore di prima fascia, GSD 14-GSPS-03 - Storia del pensiero e delle istituzioni politiche, per il Dipartimento di scienze politiche.</t>
+          <t>Progettista Elettronico RF junior</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>LIBERA UNIVERSITA' INTERNAZIONALE DEGLI STUDI SOCIALI GUIDO CARLI DI ROMA</t>
+          <t>NETwk</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -5328,34 +5296,34 @@
       <c r="G132" t="inlineStr"/>
       <c r="H132" s="2" t="inlineStr">
         <is>
-          <t>https://it.indeed.com/viewjob?jk=81cab064c0c5f569</t>
+          <t>https://it.indeed.com/viewjob?jk=2feda2ff286bad64</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>2026-02-17</t>
+          <t>2026-02-25</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Recruiting Marketing Campaign Analyst</t>
+          <t>System Administration specialist full remote</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Verisure</t>
+          <t>NETwk</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>linkedin</t>
+          <t>indeed</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Rome, Latium, Italy</t>
+          <t>Roma, LAZ, IT</t>
         </is>
       </c>
       <c r="E133" t="inlineStr"/>
@@ -5363,34 +5331,34 @@
       <c r="G133" t="inlineStr"/>
       <c r="H133" s="2" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/4373485128</t>
+          <t>https://it.indeed.com/viewjob?jk=618e4d647e62747d</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>2026-02-20</t>
+          <t>2026-02-25</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Talent Acquisition Specialist</t>
+          <t>International Tax Manager</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>MioDottore</t>
+          <t>Assist Digital</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>linkedin</t>
+          <t>indeed</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Rome, Latium, Italy</t>
+          <t>Roma, LAZ, IT</t>
         </is>
       </c>
       <c r="E134" t="inlineStr"/>
@@ -5398,90 +5366,102 @@
       <c r="G134" t="inlineStr"/>
       <c r="H134" s="2" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/4374991693</t>
-        </is>
-      </c>
-      <c r="I134" t="inlineStr"/>
+          <t>https://it.indeed.com/viewjob?jk=08efa856e56bbba0</t>
+        </is>
+      </c>
+      <c r="I134" t="inlineStr">
+        <is>
+          <t>2026-02-25</t>
+        </is>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Buzz Recruitment Day – Rome – 05 March 2026</t>
+          <t>Gelatiere Conista Roma Via Ottaviano</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Ryanair - Europe's Favourite Airline</t>
+          <t>GROMART SRL</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>linkedin</t>
+          <t>indeed</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Ciampino, Latium, Italy</t>
-        </is>
-      </c>
-      <c r="E135" t="inlineStr"/>
+          <t>Roma, LAZ, IT</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>parttime</t>
+        </is>
+      </c>
       <c r="F135" t="inlineStr"/>
       <c r="G135" t="inlineStr"/>
       <c r="H135" s="2" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/4374043226</t>
+          <t>https://it.indeed.com/viewjob?jk=219fb50d066dcc22</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>2026-02-19</t>
+          <t>2026-02-25</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Addetto/a Amministrazione del Personale - Ufficio Risorse Umane</t>
+          <t>Sales Assistant GROM Roma Piazzale Flaminio</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>tecno-system</t>
+          <t>GROMART SRL</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>linkedin</t>
+          <t>indeed</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Fondi, Latium, Italy</t>
-        </is>
-      </c>
-      <c r="E136" t="inlineStr"/>
+          <t>Roma, LAZ, IT</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>parttime</t>
+        </is>
+      </c>
       <c r="F136" t="inlineStr"/>
       <c r="G136" t="inlineStr"/>
       <c r="H136" s="2" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/4374014717</t>
+          <t>https://it.indeed.com/viewjob?jk=f7a72c5cfb650f5b</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>2026-02-19</t>
+          <t>2026-02-25</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Selezione ROMA CENTRO - Giornate FULL TIME</t>
+          <t>Tecnico Collaudatore</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Globe MKD</t>
+          <t>NTWK</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -5494,68 +5474,68 @@
           <t>Roma, LAZ, IT</t>
         </is>
       </c>
-      <c r="E137" t="inlineStr">
-        <is>
-          <t>fulltime</t>
-        </is>
-      </c>
+      <c r="E137" t="inlineStr"/>
       <c r="F137" t="inlineStr"/>
       <c r="G137" t="inlineStr"/>
       <c r="H137" s="2" t="inlineStr">
         <is>
-          <t>https://it.indeed.com/viewjob?jk=d58c707c78a09f94</t>
+          <t>https://it.indeed.com/viewjob?jk=7c564a443495b5a3</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>2026-02-20</t>
+          <t>2026-02-25</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Impiegato/a Risorse Umane – Servizi alle Imprese</t>
+          <t>assistente alla poltrona di Studio Odontoitrico ASO</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>tecno-system</t>
+          <t>Studio Odontoiatrico Baldinetti</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>linkedin</t>
+          <t>indeed</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Rome, Latium, Italy</t>
-        </is>
-      </c>
-      <c r="E138" t="inlineStr"/>
+          <t>Roma, LAZ, IT</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>fulltime</t>
+        </is>
+      </c>
       <c r="F138" t="inlineStr"/>
       <c r="G138" t="inlineStr"/>
       <c r="H138" s="2" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/4373323755</t>
+          <t>https://it.indeed.com/viewjob?jk=42c2ecdbcddebf5f</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>2026-02-18</t>
+          <t>2026-02-26</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Procedura di selezione per la chiamata di un professore di prima fascia, GSD 13/ECON-01 - Economia politica, per il Dipartimento di Economics and Financial Markets.</t>
+          <t>Addetto/a Vendite Pacchetti Turistici</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>LIBERA UNIVERSITA' INTERNAZIONALE DEGLI STUDI SOCIALI GUIDO CARLI DI ROMA</t>
+          <t>NTWK</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -5568,39 +5548,43 @@
           <t>Roma, LAZ, IT</t>
         </is>
       </c>
-      <c r="E139" t="inlineStr"/>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>fulltime</t>
+        </is>
+      </c>
       <c r="F139" t="inlineStr"/>
       <c r="G139" t="inlineStr"/>
       <c r="H139" s="2" t="inlineStr">
         <is>
-          <t>https://it.indeed.com/viewjob?jk=4aeb3f7015a7d6ea</t>
+          <t>https://it.indeed.com/viewjob?jk=7fec35d365af962e</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>2026-02-17</t>
+          <t>2026-02-26</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Construction Leadership Academy: Percorso di Alta Formazione e Selezione</t>
+          <t>Tecnico specializzato (CND)</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>RADAR - Academy &amp; Recruiting</t>
+          <t>NETwk</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>linkedin</t>
+          <t>indeed</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Rome, Latium, Italy</t>
+          <t>Rocca Priora, LAZ, IT</t>
         </is>
       </c>
       <c r="E140" t="inlineStr"/>
@@ -5608,69 +5592,73 @@
       <c r="G140" t="inlineStr"/>
       <c r="H140" s="2" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/4374149768</t>
+          <t>https://it.indeed.com/viewjob?jk=199364c22f265df0</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>2026-02-17</t>
+          <t>2026-02-26</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Impiegato/a Risorse Umane</t>
+          <t>Montatore/trice di arredi</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>key-absolute</t>
+          <t>NETwk</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>linkedin</t>
+          <t>indeed</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Rome, Latium, Italy</t>
-        </is>
-      </c>
-      <c r="E141" t="inlineStr"/>
+          <t>Roma, LAZ, IT</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>fulltime</t>
+        </is>
+      </c>
       <c r="F141" t="inlineStr"/>
       <c r="G141" t="inlineStr"/>
       <c r="H141" s="2" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/4373964211</t>
+          <t>https://it.indeed.com/viewjob?jk=5ffeb310666f7432</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>2026-02-17</t>
+          <t>2026-02-26</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Responsabile Risorse Umane – Prodotti per la Cura del Riposo</t>
+          <t>Ingegnere Civile</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>EmmeBi Group</t>
+          <t>NETwk</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>linkedin</t>
+          <t>indeed</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Rome, Latium, Italy</t>
+          <t>Roma, LAZ, IT</t>
         </is>
       </c>
       <c r="E142" t="inlineStr"/>
@@ -5678,34 +5666,34 @@
       <c r="G142" t="inlineStr"/>
       <c r="H142" s="2" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/4374008813</t>
+          <t>https://it.indeed.com/viewjob?jk=c0e7c275838fd873</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>2026-02-19</t>
+          <t>2026-02-26</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Recruiter freelance</t>
+          <t>Commerciali</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Edilizia Alternativa</t>
+          <t>NETwk</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>linkedin</t>
+          <t>indeed</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Rome, Latium, Italy</t>
+          <t>Roma, LAZ, IT</t>
         </is>
       </c>
       <c r="E143" t="inlineStr"/>
@@ -5713,24 +5701,24 @@
       <c r="G143" t="inlineStr"/>
       <c r="H143" s="2" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/4373106227</t>
+          <t>https://it.indeed.com/viewjob?jk=074ee49b20947514</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>2026-02-19</t>
+          <t>2026-02-26</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>HR ANALYST</t>
+          <t>Addetto Customer Care (part-time o full-time)</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>ITA airways</t>
+          <t>NETwk</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -5740,32 +5728,36 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Fiumicino, LAZ, IT</t>
-        </is>
-      </c>
-      <c r="E144" t="inlineStr"/>
+          <t>Roma, LAZ, IT</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>parttime, fulltime</t>
+        </is>
+      </c>
       <c r="F144" t="inlineStr"/>
       <c r="G144" t="inlineStr"/>
       <c r="H144" s="2" t="inlineStr">
         <is>
-          <t>https://it.indeed.com/viewjob?jk=f8588f663ab8e9fb</t>
+          <t>https://it.indeed.com/viewjob?jk=a9b7a6c984d572f5</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>2026-01-30</t>
+          <t>2026-02-26</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Operatori Recruiting (PART-TIME)</t>
+          <t>Assuntore/trice rischi assicurativi junior</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>NTWK</t>
+          <t>NETwk</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -5775,36 +5767,32 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Roma, LAZ, IT</t>
-        </is>
-      </c>
-      <c r="E145" t="inlineStr">
-        <is>
-          <t>parttime</t>
-        </is>
-      </c>
+          <t>Latina, LAZ, IT</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr"/>
       <c r="F145" t="inlineStr"/>
       <c r="G145" t="inlineStr"/>
       <c r="H145" s="2" t="inlineStr">
         <is>
-          <t>https://it.indeed.com/viewjob?jk=cc2eb24c3accfa9c</t>
+          <t>https://it.indeed.com/viewjob?jk=15768774c8118b76</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>2026-02-16</t>
+          <t>2026-02-26</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Stagista Recruiter</t>
+          <t>Impiegato/a Assicurativo</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>CONSORZIO STABILE LGA SERVICE</t>
+          <t>NETwk</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -5814,36 +5802,32 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>Roma, LAZ, IT</t>
-        </is>
-      </c>
-      <c r="E146" t="inlineStr">
-        <is>
-          <t>fulltime</t>
-        </is>
-      </c>
+          <t>Latina, LAZ, IT</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr"/>
       <c r="F146" t="inlineStr"/>
       <c r="G146" t="inlineStr"/>
       <c r="H146" s="2" t="inlineStr">
         <is>
-          <t>https://it.indeed.com/viewjob?jk=a82bcd5b613ca42a</t>
+          <t>https://it.indeed.com/viewjob?jk=9d46df4e5476d77a</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>2026-02-17</t>
+          <t>2026-02-26</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Impiegato/a Ufficio Risorse Umane – Grande Distribuzione Organizzata</t>
+          <t>Addette/i alle pulizie civili su Fiumicino</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Twins</t>
+          <t>CONSORZIO STABILE LGA SERVICE</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -5853,36 +5837,36 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Roma, LAZ, IT</t>
+          <t>Fiumicino, LAZ, IT</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>fulltime</t>
+          <t>parttime</t>
         </is>
       </c>
       <c r="F147" t="inlineStr"/>
       <c r="G147" t="inlineStr"/>
       <c r="H147" s="2" t="inlineStr">
         <is>
-          <t>https://it.indeed.com/viewjob?jk=93a5f1a7f8d894c1</t>
+          <t>https://it.indeed.com/viewjob?jk=d35fb31f1bec8b57</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>2026-02-18</t>
+          <t>2026-02-26</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>HR Specialist</t>
+          <t>RENTAL SALES AGENT - ROMA FIUMICINO</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Webgenesys S.p.A.</t>
+          <t>PLUS HOLDİNG</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -5895,29 +5879,33 @@
           <t>Roma, LAZ, IT</t>
         </is>
       </c>
-      <c r="E148" t="inlineStr"/>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>fulltime</t>
+        </is>
+      </c>
       <c r="F148" t="inlineStr"/>
       <c r="G148" t="inlineStr"/>
       <c r="H148" s="2" t="inlineStr">
         <is>
-          <t>https://it.indeed.com/viewjob?jk=07c6d28d00f459d3</t>
+          <t>https://it.indeed.com/viewjob?jk=62848cef67f19cad</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>2026-02-18</t>
+          <t>2026-02-26</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>HR Business Partner (IT - Remote)</t>
+          <t>Operatore Elettrotermico</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>ThinkingIT Corp.</t>
+          <t>NTWK</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -5930,78 +5918,78 @@
           <t>Roma, LAZ, IT</t>
         </is>
       </c>
-      <c r="E149" t="inlineStr">
-        <is>
-          <t>fulltime</t>
-        </is>
-      </c>
+      <c r="E149" t="inlineStr"/>
       <c r="F149" t="inlineStr"/>
       <c r="G149" t="inlineStr"/>
       <c r="H149" s="2" t="inlineStr">
         <is>
-          <t>https://it.indeed.com/viewjob?jk=5d54341587162f32</t>
+          <t>https://it.indeed.com/viewjob?jk=2dd2cd91026d79f1</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>2026-02-19</t>
+          <t>2026-02-26</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Pilot Recruitment Event in Rome</t>
+          <t>Chef Executive - Manager</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Wizz Air</t>
+          <t>Il casale di Roma</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>linkedin</t>
+          <t>indeed</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Rome, Latium, Italy</t>
-        </is>
-      </c>
-      <c r="E150" t="inlineStr"/>
+          <t>Roma, LAZ, IT</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>fulltime</t>
+        </is>
+      </c>
       <c r="F150" t="inlineStr"/>
       <c r="G150" t="inlineStr"/>
       <c r="H150" s="2" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/4373563095</t>
+          <t>https://it.indeed.com/viewjob?jk=32784129972ad937</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>2026-02-16</t>
+          <t>2026-02-26</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Graduate Talent Scientist</t>
+          <t>Impiegato/a Tecnico - Roma</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Canonical</t>
+          <t>Arriva Italia</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>linkedin</t>
+          <t>indeed</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>Rome, Latium, Italy</t>
+          <t>Roma, LAZ, IT</t>
         </is>
       </c>
       <c r="E151" t="inlineStr"/>
@@ -6009,34 +5997,34 @@
       <c r="G151" t="inlineStr"/>
       <c r="H151" s="2" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/4373910412</t>
+          <t>https://it.indeed.com/viewjob?jk=f00454a8c0f02188</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>2026-02-17</t>
+          <t>2026-02-26</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>HR Generalist</t>
+          <t>OPERATORE DEL MERCATO DEL LAVORO SPECIALISTICO (OMLS)</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Chaberton Professionals</t>
+          <t>vema e partners srl</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>linkedin</t>
+          <t>indeed</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Rome, Latium, Italy</t>
+          <t>Roma, LAZ, IT</t>
         </is>
       </c>
       <c r="E152" t="inlineStr"/>
@@ -6044,34 +6032,34 @@
       <c r="G152" t="inlineStr"/>
       <c r="H152" s="2" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/4371975588</t>
+          <t>https://it.indeed.com/viewjob?jk=1aee5f338a2023da</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>2026-02-17</t>
+          <t>2026-02-27</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>ADDETTO/A RICERCA E SELEZIONE DEL PERSONALE</t>
+          <t>Operatore d’ufficio con competenze informatiche e CAD</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>FONDAZIONE LAVORO</t>
+          <t>NTWK</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>linkedin</t>
+          <t>indeed</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>Rome, Latium, Italy</t>
+          <t>Roma, LAZ, IT</t>
         </is>
       </c>
       <c r="E153" t="inlineStr"/>
@@ -6079,34 +6067,34 @@
       <c r="G153" t="inlineStr"/>
       <c r="H153" s="2" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/4372870383</t>
+          <t>https://it.indeed.com/viewjob?jk=1cffe14f52c91a9e</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>2026-02-17</t>
+          <t>2026-02-27</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>CLIENT RECRUITMENT SPECIALIST ON SITE</t>
+          <t>Architetto Infrastrutturale</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Gi Group</t>
+          <t>NETwk</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>linkedin</t>
+          <t>indeed</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Rome, Latium, Italy</t>
+          <t>Roma, LAZ, IT</t>
         </is>
       </c>
       <c r="E154" t="inlineStr"/>
@@ -6114,59 +6102,63 @@
       <c r="G154" t="inlineStr"/>
       <c r="H154" s="2" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/4372463744</t>
+          <t>https://it.indeed.com/viewjob?jk=668cfdb96527cb38</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>2026-02-18</t>
+          <t>2026-02-27</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Talent Acquisition</t>
+          <t>Capo squadra operativa</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>DXC Technology</t>
+          <t>RADIK SERVICES</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>linkedin</t>
+          <t>indeed</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>Rome, Latium, Italy</t>
-        </is>
-      </c>
-      <c r="E155" t="inlineStr"/>
+          <t>Roma, LAZ, IT</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>parttime</t>
+        </is>
+      </c>
       <c r="F155" t="inlineStr"/>
       <c r="G155" t="inlineStr"/>
       <c r="H155" s="2" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/4324290308</t>
+          <t>https://it.indeed.com/viewjob?jk=6921e0174b79d456</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>2026-02-18</t>
+          <t>2026-02-27</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>HR Manager (IT - Remote)</t>
+          <t>Addetta/o alle pulizie part-time, zona Villa Ada/Piazza Vescovio</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>ThinkingIT Corp.</t>
+          <t>CONSORZIO STABILE LGA SERVICE</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -6181,96 +6173,104 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>fulltime</t>
+          <t>parttime</t>
         </is>
       </c>
       <c r="F156" t="inlineStr"/>
       <c r="G156" t="inlineStr"/>
       <c r="H156" s="2" t="inlineStr">
         <is>
-          <t>https://it.indeed.com/viewjob?jk=8435093b0586c1ab</t>
+          <t>https://it.indeed.com/viewjob?jk=c1ccab0187274898</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>2026-02-19</t>
+          <t>2026-02-27</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>HRBP RETAIL CENTRO ITALIA</t>
+          <t>Social Innovation Consultant</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>LHH</t>
+          <t>ELIS Innovation Hub</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>linkedin</t>
+          <t>indeed</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>Rome, Latium, Italy</t>
-        </is>
-      </c>
-      <c r="E157" t="inlineStr"/>
+          <t>Roma, LAZ, IT</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>fulltime</t>
+        </is>
+      </c>
       <c r="F157" t="inlineStr"/>
       <c r="G157" t="inlineStr"/>
       <c r="H157" s="2" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/4375811505</t>
+          <t>https://it.indeed.com/viewjob?jk=a1f4a086b8abadcb</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>2026-02-20</t>
+          <t>2026-02-27</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Responsabile Risorse Umane – Commerciale e Distribuzione</t>
+          <t>Animatori per bambini e ragazzi in soggiorni residenziali</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>EmmeBi Group</t>
+          <t>DOC s.c.s.</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>linkedin</t>
+          <t>indeed</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Rome, Latium, Italy</t>
-        </is>
-      </c>
-      <c r="E158" t="inlineStr"/>
+          <t>Roma, LAZ, IT</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>fulltime</t>
+        </is>
+      </c>
       <c r="F158" t="inlineStr"/>
       <c r="G158" t="inlineStr"/>
       <c r="H158" s="2" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/4374380649</t>
+          <t>https://it.indeed.com/viewjob?jk=d69413d1559f8650</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>2026-02-20</t>
+          <t>2026-02-27</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>HR Generalist</t>
+          <t>Operatore call-center</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
@@ -6293,122 +6293,3053 @@
       <c r="G159" t="inlineStr"/>
       <c r="H159" s="2" t="inlineStr">
         <is>
-          <t>https://it.indeed.com/viewjob?jk=a202633e80897c25</t>
+          <t>https://it.indeed.com/viewjob?jk=19ed019ac7932d01</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>2026-02-19</t>
+          <t>2026-02-27</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Buzz Recruitment Day – Lisbon – 09 March 2026</t>
+          <t>Addetto/a vendite part time - Roma Tiburtina (RM)</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Ryanair - Europe's Favourite Airline</t>
+          <t>Happy Casa Store</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>linkedin</t>
+          <t>indeed</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>Fiumicino, Latium, Italy</t>
-        </is>
-      </c>
-      <c r="E160" t="inlineStr"/>
+          <t>Roma, LAZ, IT</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>parttime</t>
+        </is>
+      </c>
       <c r="F160" t="inlineStr"/>
       <c r="G160" t="inlineStr"/>
       <c r="H160" s="2" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/4374083419</t>
+          <t>https://it.indeed.com/viewjob?jk=349e269cdedb7f6a</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>2026-02-19</t>
+          <t>2026-02-27</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Talent Acquisition Manager</t>
+          <t>Assistente Commerciale</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Jobbit</t>
+          <t>NTWK</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>linkedin</t>
+          <t>indeed</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>Rome, Latium, Italy</t>
-        </is>
-      </c>
-      <c r="E161" t="inlineStr"/>
+          <t>Frosinone, LAZ, IT</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>parttime, fulltime</t>
+        </is>
+      </c>
       <c r="F161" t="inlineStr"/>
       <c r="G161" t="inlineStr"/>
       <c r="H161" s="2" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/4375613154</t>
+          <t>https://it.indeed.com/viewjob?jk=625ef9bfd93eaa0e</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>2026-02-20</t>
+          <t>2026-02-27</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Talent Acquisition &amp; Employer Branding Specialist</t>
+          <t>Addetto/a Front Office</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Angelini Pharma</t>
+          <t>NTWK</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>linkedin</t>
+          <t>indeed</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>Rome, Latium, Italy</t>
-        </is>
-      </c>
-      <c r="E162" t="inlineStr"/>
+          <t>Frosinone, LAZ, IT</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>fulltime</t>
+        </is>
+      </c>
       <c r="F162" t="inlineStr"/>
       <c r="G162" t="inlineStr"/>
       <c r="H162" s="2" t="inlineStr">
         <is>
+          <t>https://it.indeed.com/viewjob?jk=4533719caf1f5494</t>
+        </is>
+      </c>
+      <c r="I162" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>Human Resources Business Partner</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>TIM</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>linkedin</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>Rome, Latium, Italy</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr"/>
+      <c r="F163" t="inlineStr"/>
+      <c r="G163" t="inlineStr"/>
+      <c r="H163" s="2" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/4369142800</t>
+        </is>
+      </c>
+      <c r="I163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>Stagista risorse umane</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>AIR fire SpA</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>linkedin</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>Rome, Latium, Italy</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr"/>
+      <c r="F164" t="inlineStr"/>
+      <c r="G164" t="inlineStr"/>
+      <c r="H164" s="2" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/4377126907</t>
+        </is>
+      </c>
+      <c r="I164" t="inlineStr">
+        <is>
+          <t>2026-02-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>Human Resources Representative</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>The Toro Company</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>linkedin</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>Fiano Romano, Latium, Italy</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr"/>
+      <c r="F165" t="inlineStr"/>
+      <c r="G165" t="inlineStr"/>
+      <c r="H165" s="2" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/4374585771</t>
+        </is>
+      </c>
+      <c r="I165" t="inlineStr">
+        <is>
+          <t>2026-02-25</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>Employer Branding Intern</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>Joinrs</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>linkedin</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr"/>
+      <c r="E166" t="inlineStr"/>
+      <c r="F166" t="inlineStr"/>
+      <c r="G166" t="inlineStr"/>
+      <c r="H166" s="2" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/4376561301</t>
+        </is>
+      </c>
+      <c r="I166" t="inlineStr">
+        <is>
+          <t>2026-02-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>HR Generalist Apprentice</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>Arsenale Group</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>linkedin</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>Rome, Latium, Italy</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr"/>
+      <c r="F167" t="inlineStr"/>
+      <c r="G167" t="inlineStr"/>
+      <c r="H167" s="2" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/4378347176</t>
+        </is>
+      </c>
+      <c r="I167" t="inlineStr">
+        <is>
+          <t>2026-02-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>Area Manager, FC Operations</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>Amazon.com</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>indeed</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>Passo Corese, LAZ, IT</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>fulltime</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr"/>
+      <c r="G168" t="inlineStr"/>
+      <c r="H168" s="2" t="inlineStr">
+        <is>
+          <t>https://it.indeed.com/viewjob?jk=ae999046402b3483</t>
+        </is>
+      </c>
+      <c r="I168" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>Military - Area Manager - Italy</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>Amazon.com</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>indeed</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>Colleferro, LAZ, IT</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>fulltime</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr"/>
+      <c r="G169" t="inlineStr"/>
+      <c r="H169" s="2" t="inlineStr">
+        <is>
+          <t>https://it.indeed.com/viewjob?jk=bfb852971c0ed1a5</t>
+        </is>
+      </c>
+      <c r="I169" t="inlineStr">
+        <is>
+          <t>2026-02-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>Sales and Marketing Coordinator Italy - Shockwave IVL</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>Johnson &amp; Johnson</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>indeed</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>Pomezia, LAZ, IT</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>fulltime</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr"/>
+      <c r="G170" t="inlineStr"/>
+      <c r="H170" s="2" t="inlineStr">
+        <is>
+          <t>https://it.indeed.com/viewjob?jk=c32164c9002416cf</t>
+        </is>
+      </c>
+      <c r="I170" t="inlineStr">
+        <is>
+          <t>2026-02-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>Project Manager ambito OnLine Banking</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>BIP</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>indeed</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>Roma, LAZ, IT</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>fulltime</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr"/>
+      <c r="G171" t="inlineStr"/>
+      <c r="H171" s="2" t="inlineStr">
+        <is>
+          <t>https://it.indeed.com/viewjob?jk=f6ea84d71caaf5fd</t>
+        </is>
+      </c>
+      <c r="I171" t="inlineStr">
+        <is>
+          <t>2026-02-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>R&amp;D Deployment Manager Consumer Science</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>Kenvue</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>indeed</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>Pomezia, LAZ, IT</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr"/>
+      <c r="F172" t="inlineStr"/>
+      <c r="G172" t="inlineStr"/>
+      <c r="H172" s="2" t="inlineStr">
+        <is>
+          <t>https://it.indeed.com/viewjob?jk=49218212a3b77442</t>
+        </is>
+      </c>
+      <c r="I172" t="inlineStr">
+        <is>
+          <t>2026-02-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>Administrative Assistant (f/m/d)</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>Axpo Holding AG</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>indeed</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>Roma, LAZ, IT</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr"/>
+      <c r="F173" t="inlineStr"/>
+      <c r="G173" t="inlineStr"/>
+      <c r="H173" s="2" t="inlineStr">
+        <is>
+          <t>https://it.indeed.com/viewjob?jk=68b6606a2933e44d</t>
+        </is>
+      </c>
+      <c r="I173" t="inlineStr">
+        <is>
+          <t>2026-02-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>Grid Connection Manager (f/m/d)</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>Axpo group</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>indeed</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>Roma, LAZ, IT</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr"/>
+      <c r="F174" t="inlineStr"/>
+      <c r="G174" t="inlineStr"/>
+      <c r="H174" s="2" t="inlineStr">
+        <is>
+          <t>https://it.indeed.com/viewjob?jk=5ef538420a4e3017</t>
+        </is>
+      </c>
+      <c r="I174" t="inlineStr">
+        <is>
+          <t>2026-02-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>Services Representative</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>Schneider Electric</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>indeed</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>Roma, LAZ, IT</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>fulltime</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr"/>
+      <c r="G175" t="inlineStr"/>
+      <c r="H175" s="2" t="inlineStr">
+        <is>
+          <t>https://it.indeed.com/viewjob?jk=ca70c99857d588db</t>
+        </is>
+      </c>
+      <c r="I175" t="inlineStr">
+        <is>
+          <t>2026-02-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>Sr Account Partner</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>Salesforce</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>indeed</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>Roma, LAZ, IT</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>fulltime</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr"/>
+      <c r="G176" t="inlineStr"/>
+      <c r="H176" s="2" t="inlineStr">
+        <is>
+          <t>https://it.indeed.com/viewjob?jk=41ed2dc466268d26</t>
+        </is>
+      </c>
+      <c r="I176" t="inlineStr">
+        <is>
+          <t>2026-02-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>Head of Communications Italy</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>Ryanair</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>indeed</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>Ciampino, LAZ, IT</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr"/>
+      <c r="F177" t="inlineStr"/>
+      <c r="G177" t="inlineStr"/>
+      <c r="H177" s="2" t="inlineStr">
+        <is>
+          <t>https://it.indeed.com/viewjob?jk=120c0a63f837b20e</t>
+        </is>
+      </c>
+      <c r="I177" t="inlineStr">
+        <is>
+          <t>2026-02-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>Fleet Delivery Representative</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>FlexCar</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>indeed</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>Roma, LAZ, IT</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>fulltime</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr"/>
+      <c r="G178" t="inlineStr"/>
+      <c r="H178" s="2" t="inlineStr">
+        <is>
+          <t>https://it.indeed.com/viewjob?jk=00c3c8401ccdec88</t>
+        </is>
+      </c>
+      <c r="I178" t="inlineStr">
+        <is>
+          <t>2026-02-25</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>Senior Account Executive, Insurance</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>Salesforce</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>indeed</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>Roma, LAZ, IT</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>fulltime</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr"/>
+      <c r="G179" t="inlineStr"/>
+      <c r="H179" s="2" t="inlineStr">
+        <is>
+          <t>https://it.indeed.com/viewjob?jk=ff100926eb965ad2</t>
+        </is>
+      </c>
+      <c r="I179" t="inlineStr">
+        <is>
+          <t>2026-02-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>Republic of Korea Fundraising Coordinator - Individual Giving</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>World Food Programme</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>indeed</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>Roma, LAZ, IT</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>fulltime</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr"/>
+      <c r="G180" t="inlineStr"/>
+      <c r="H180" s="2" t="inlineStr">
+        <is>
+          <t>https://it.indeed.com/viewjob?jk=42a0b8f6b47040f8</t>
+        </is>
+      </c>
+      <c r="I180" t="inlineStr">
+        <is>
+          <t>2026-02-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>Barman Hotel di Lusso Stagionale - Roma</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>Dama Recruiting</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>indeed</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>Roma, LAZ, IT</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr"/>
+      <c r="F181" t="inlineStr"/>
+      <c r="G181" t="inlineStr"/>
+      <c r="H181" s="2" t="inlineStr">
+        <is>
+          <t>https://it.indeed.com/viewjob?jk=03994d0c99b18d26</t>
+        </is>
+      </c>
+      <c r="I181" t="inlineStr">
+        <is>
+          <t>2026-02-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>Chef de Rang - Roma</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>Dama Recruiting</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>indeed</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>Roma, LAZ, IT</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr"/>
+      <c r="F182" t="inlineStr"/>
+      <c r="G182" t="inlineStr"/>
+      <c r="H182" s="2" t="inlineStr">
+        <is>
+          <t>https://it.indeed.com/viewjob?jk=2b92e11d859c8f84</t>
+        </is>
+      </c>
+      <c r="I182" t="inlineStr">
+        <is>
+          <t>2026-02-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>Application senior PM</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>DXC Technology</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>indeed</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>Roma, LAZ, IT</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>fulltime</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr"/>
+      <c r="G183" t="inlineStr"/>
+      <c r="H183" s="2" t="inlineStr">
+        <is>
+          <t>https://it.indeed.com/viewjob?jk=c9090df31fbff906</t>
+        </is>
+      </c>
+      <c r="I183" t="inlineStr">
+        <is>
+          <t>2026-02-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>Associate Manager Data Science</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>DXC Technology</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>indeed</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>Roma, LAZ, IT</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>fulltime</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr"/>
+      <c r="G184" t="inlineStr"/>
+      <c r="H184" s="2" t="inlineStr">
+        <is>
+          <t>https://it.indeed.com/viewjob?jk=a85dcd13338520aa</t>
+        </is>
+      </c>
+      <c r="I184" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>Recruitment Day 10 Marzo 2026 - Junior Customer Expansion Specialist</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>MioDottore</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>linkedin</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>Rome, Latium, Italy</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr"/>
+      <c r="F185" t="inlineStr"/>
+      <c r="G185" t="inlineStr"/>
+      <c r="H185" s="2" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/4377901898</t>
+        </is>
+      </c>
+      <c r="I185" t="inlineStr"/>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>Recruiter Trainee</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>Chaberton Professionals</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>linkedin</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr"/>
+      <c r="E186" t="inlineStr"/>
+      <c r="F186" t="inlineStr"/>
+      <c r="G186" t="inlineStr"/>
+      <c r="H186" s="2" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/4374811915</t>
+        </is>
+      </c>
+      <c r="I186" t="inlineStr">
+        <is>
+          <t>2026-02-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>FINE CHEMICALS HR PLANT MANAGER</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>Angelini Pharma</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>indeed</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>Roma, LAZ, IT</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr"/>
+      <c r="F187" t="inlineStr"/>
+      <c r="G187" t="inlineStr"/>
+      <c r="H187" s="2" t="inlineStr">
+        <is>
+          <t>https://it.indeed.com/viewjob?jk=4f56c1d858399483</t>
+        </is>
+      </c>
+      <c r="I187" t="inlineStr">
+        <is>
+          <t>2026-02-13</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>HR Application Specialist – Area IT</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>Enav</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>indeed</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>Roma, LAZ, IT</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr"/>
+      <c r="F188" t="inlineStr"/>
+      <c r="G188" t="inlineStr"/>
+      <c r="H188" s="2" t="inlineStr">
+        <is>
+          <t>https://it.indeed.com/viewjob?jk=06d2aee0d30d59ce</t>
+        </is>
+      </c>
+      <c r="I188" t="inlineStr">
+        <is>
+          <t>2026-02-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>Addetto/a Ufficio Risorse Umane</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>AIR</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>indeed</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>Roma, LAZ, IT</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr"/>
+      <c r="F189" t="inlineStr"/>
+      <c r="G189" t="inlineStr"/>
+      <c r="H189" s="2" t="inlineStr">
+        <is>
+          <t>https://it.indeed.com/viewjob?jk=7909a01fd583061e</t>
+        </is>
+      </c>
+      <c r="I189" t="inlineStr">
+        <is>
+          <t>2026-02-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>WW Compensation &amp; Benefits, HR Operations and Transformation Director</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>Fendi</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>indeed</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>Roma, LAZ, IT</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>fulltime</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr"/>
+      <c r="G190" t="inlineStr"/>
+      <c r="H190" s="2" t="inlineStr">
+        <is>
+          <t>https://it.indeed.com/viewjob?jk=c13d74a7cd582ad2</t>
+        </is>
+      </c>
+      <c r="I190" t="inlineStr">
+        <is>
+          <t>2026-02-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>HR Manager</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>Rome Business School</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>indeed</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>Roma, LAZ, IT</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>fulltime</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr"/>
+      <c r="G191" t="inlineStr"/>
+      <c r="H191" s="2" t="inlineStr">
+        <is>
+          <t>https://it.indeed.com/viewjob?jk=9e4d4e850de8c641</t>
+        </is>
+      </c>
+      <c r="I191" t="inlineStr">
+        <is>
+          <t>2026-02-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>PRADA In Store Trainer, Roma</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>Prada</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>indeed</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>Roma, LAZ, IT</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr"/>
+      <c r="F192" t="inlineStr"/>
+      <c r="G192" t="inlineStr"/>
+      <c r="H192" s="2" t="inlineStr">
+        <is>
+          <t>https://it.indeed.com/viewjob?jk=93bf21f0c1000e62</t>
+        </is>
+      </c>
+      <c r="I192" t="inlineStr">
+        <is>
+          <t>2026-02-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>Global Head of Technical Training &amp; Innovation</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>RINA</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>indeed</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>Roma, LAZ, IT</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr"/>
+      <c r="F193" t="inlineStr"/>
+      <c r="G193" t="inlineStr"/>
+      <c r="H193" s="2" t="inlineStr">
+        <is>
+          <t>https://it.indeed.com/viewjob?jk=9f0d4e1ee4b96f8b</t>
+        </is>
+      </c>
+      <c r="I193" t="inlineStr">
+        <is>
+          <t>2026-02-25</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>Relocate to Malta and join an International Team - Recruitment Consulting</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>Archer - The IT Recruitment Consultancy (Malta)</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>linkedin</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>Rome, Latium, Italy</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr"/>
+      <c r="F194" t="inlineStr"/>
+      <c r="G194" t="inlineStr"/>
+      <c r="H194" s="2" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/4377132890</t>
+        </is>
+      </c>
+      <c r="I194" t="inlineStr"/>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>HR / Talent Acquisition Specialist – Tutor per lezioni private</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>Letuelezioni</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>linkedin</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr"/>
+      <c r="E195" t="inlineStr"/>
+      <c r="F195" t="inlineStr"/>
+      <c r="G195" t="inlineStr"/>
+      <c r="H195" s="2" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/4376408804</t>
+        </is>
+      </c>
+      <c r="I195" t="inlineStr">
+        <is>
+          <t>2026-02-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>Talent Strategy Consultant</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>Mercer</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>linkedin</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>Rome, Latium, Italy</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr"/>
+      <c r="F196" t="inlineStr"/>
+      <c r="G196" t="inlineStr"/>
+      <c r="H196" s="2" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/4368310155</t>
+        </is>
+      </c>
+      <c r="I196" t="inlineStr">
+        <is>
+          <t>2026-02-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>HR Stage - Talent Acquisition</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>Multiversity Group</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>linkedin</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>Rome, Latium, Italy</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr"/>
+      <c r="F197" t="inlineStr"/>
+      <c r="G197" t="inlineStr"/>
+      <c r="H197" s="2" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/4374896779</t>
+        </is>
+      </c>
+      <c r="I197" t="inlineStr">
+        <is>
+          <t>2026-02-25</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>Stagista ambito Tech Head Hunting / Selezione del Personale (Roma Eur -Rif.1124)</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>EgoValeo | Tech Head Hunting</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>linkedin</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>Rome, Latium, Italy</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr"/>
+      <c r="F198" t="inlineStr"/>
+      <c r="G198" t="inlineStr"/>
+      <c r="H198" s="2" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/4375547964</t>
+        </is>
+      </c>
+      <c r="I198" t="inlineStr">
+        <is>
+          <t>2026-02-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>Talent Acquisition Associate - Maternity Leave</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>Fendi</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>linkedin</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>Rome, Latium, Italy</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr"/>
+      <c r="F199" t="inlineStr"/>
+      <c r="G199" t="inlineStr"/>
+      <c r="H199" s="2" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/4368728526</t>
+        </is>
+      </c>
+      <c r="I199" t="inlineStr">
+        <is>
+          <t>2026-02-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>TALENT ACQUISITION &amp; EMPLOYER BRANDING SPECIALIST</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>Angelini Pharma</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>indeed</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>Roma, LAZ, IT</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr"/>
+      <c r="F200" t="inlineStr"/>
+      <c r="G200" t="inlineStr"/>
+      <c r="H200" s="2" t="inlineStr">
+        <is>
+          <t>https://it.indeed.com/viewjob?jk=fe61a8003ba3dfe8</t>
+        </is>
+      </c>
+      <c r="I200" t="inlineStr">
+        <is>
+          <t>2026-02-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>Inside Sales Account Manager - Remoto</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>Hilti Group</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>indeed</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>Roma, LAZ, IT</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr"/>
+      <c r="F201" t="inlineStr"/>
+      <c r="G201" t="inlineStr"/>
+      <c r="H201" s="2" t="inlineStr">
+        <is>
+          <t>https://it.indeed.com/viewjob?jk=8a6897f86593ec78</t>
+        </is>
+      </c>
+      <c r="I201" t="inlineStr">
+        <is>
+          <t>2026-02-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>Bartender - Porto Cervo</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>Zuma</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>indeed</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>Roma, LAZ, IT</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>parttime</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr"/>
+      <c r="G202" t="inlineStr"/>
+      <c r="H202" s="2" t="inlineStr">
+        <is>
+          <t>https://it.indeed.com/viewjob?jk=e5018585d4c391db</t>
+        </is>
+      </c>
+      <c r="I202" t="inlineStr">
+        <is>
+          <t>2026-02-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>Quality System Specialist</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>Kraft Heinz</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>indeed</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>Latina, LAZ, IT</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr"/>
+      <c r="F203" t="inlineStr"/>
+      <c r="G203" t="inlineStr"/>
+      <c r="H203" s="2" t="inlineStr">
+        <is>
+          <t>https://it.indeed.com/viewjob?jk=ef01bc517d79ace5</t>
+        </is>
+      </c>
+      <c r="I203" t="inlineStr">
+        <is>
+          <t>2026-02-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>Senior Project Finance Manager - Italy</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>ILOS Projects GmbH &amp; Co. KG</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>indeed</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>Roma, LAZ, IT</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>fulltime</t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr"/>
+      <c r="G204" t="inlineStr"/>
+      <c r="H204" s="2" t="inlineStr">
+        <is>
+          <t>https://it.indeed.com/viewjob?jk=6f6a95e7e76f54d0</t>
+        </is>
+      </c>
+      <c r="I204" t="inlineStr">
+        <is>
+          <t>2026-02-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>Assistant Restaurant Manager</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>Zuma</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>indeed</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>Roma, LAZ, IT</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>fulltime</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr"/>
+      <c r="G205" t="inlineStr"/>
+      <c r="H205" s="2" t="inlineStr">
+        <is>
+          <t>https://it.indeed.com/viewjob?jk=fb62215e0eee4ac8</t>
+        </is>
+      </c>
+      <c r="I205" t="inlineStr">
+        <is>
+          <t>2026-02-25</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>Sales Development Representative - (Spanish Speaking) - 100% remote - Europe</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>Hostaway</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>indeed</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>Roma, LAZ, IT</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>fulltime</t>
+        </is>
+      </c>
+      <c r="F206" t="inlineStr"/>
+      <c r="G206" t="inlineStr"/>
+      <c r="H206" s="2" t="inlineStr">
+        <is>
+          <t>https://it.indeed.com/viewjob?jk=bd13c0d9256ac7fe</t>
+        </is>
+      </c>
+      <c r="I206" t="inlineStr">
+        <is>
+          <t>2026-02-25</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>People Development Intern</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>Successori Reda S.B.P.A.</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>indeed</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>Roma, LAZ, IT</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>internship</t>
+        </is>
+      </c>
+      <c r="F207" t="inlineStr"/>
+      <c r="G207" t="inlineStr"/>
+      <c r="H207" s="2" t="inlineStr">
+        <is>
+          <t>https://it.indeed.com/viewjob?jk=4150b46b0e41e58d</t>
+        </is>
+      </c>
+      <c r="I207" t="inlineStr">
+        <is>
+          <t>2026-02-25</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>Therapeutic Area Lead (Director) - Specialty (Immunology, Ophthalmology and Neuroscience)</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>MSD</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>indeed</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>Roma, LAZ, IT</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>fulltime</t>
+        </is>
+      </c>
+      <c r="F208" t="inlineStr"/>
+      <c r="G208" t="inlineStr"/>
+      <c r="H208" s="2" t="inlineStr">
+        <is>
+          <t>https://it.indeed.com/viewjob?jk=7f74a447c548c54a</t>
+        </is>
+      </c>
+      <c r="I208" t="inlineStr">
+        <is>
+          <t>2026-02-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>Compliance Specialist (SGI, HSE, GDPR)</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>Moveax</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>indeed</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>Roma, LAZ, IT</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>fulltime</t>
+        </is>
+      </c>
+      <c r="F209" t="inlineStr"/>
+      <c r="G209" t="inlineStr"/>
+      <c r="H209" s="2" t="inlineStr">
+        <is>
+          <t>https://it.indeed.com/viewjob?jk=ed9b83172f8defb9</t>
+        </is>
+      </c>
+      <c r="I209" t="inlineStr">
+        <is>
+          <t>2026-02-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>Sommelier - Capri</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>Zuma</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>indeed</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>Roma, LAZ, IT</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>parttime</t>
+        </is>
+      </c>
+      <c r="F210" t="inlineStr"/>
+      <c r="G210" t="inlineStr"/>
+      <c r="H210" s="2" t="inlineStr">
+        <is>
+          <t>https://it.indeed.com/viewjob?jk=3c1cb4b07950b983</t>
+        </is>
+      </c>
+      <c r="I210" t="inlineStr">
+        <is>
+          <t>2026-02-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>Sommelier - Porto Cervo</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>Zuma</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>indeed</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>Roma, LAZ, IT</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>parttime</t>
+        </is>
+      </c>
+      <c r="F211" t="inlineStr"/>
+      <c r="G211" t="inlineStr"/>
+      <c r="H211" s="2" t="inlineStr">
+        <is>
+          <t>https://it.indeed.com/viewjob?jk=6385d2a3a4e7a915</t>
+        </is>
+      </c>
+      <c r="I211" t="inlineStr">
+        <is>
+          <t>2026-02-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>People Engagement, Talent Acquisition &amp; Project HR</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>B1P Group</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>indeed</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>Roma, LAZ, IT</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr"/>
+      <c r="F212" t="inlineStr"/>
+      <c r="G212" t="inlineStr"/>
+      <c r="H212" s="2" t="inlineStr">
+        <is>
+          <t>https://it.indeed.com/viewjob?jk=33541dcf08b547a8</t>
+        </is>
+      </c>
+      <c r="I212" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>Procedura di selezione per la chiamata di un professore di prima fascia, GSD 14-GSPS-03 - Storia del pensiero e delle istituzioni politiche, per il Dipartimento di scienze politiche.</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>LIBERA UNIVERSITA' INTERNAZIONALE DEGLI STUDI SOCIALI GUIDO CARLI DI ROMA</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>indeed</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>Roma, LAZ, IT</t>
+        </is>
+      </c>
+      <c r="E213" t="inlineStr"/>
+      <c r="F213" t="inlineStr"/>
+      <c r="G213" t="inlineStr"/>
+      <c r="H213" s="2" t="inlineStr">
+        <is>
+          <t>https://it.indeed.com/viewjob?jk=81cab064c0c5f569</t>
+        </is>
+      </c>
+      <c r="I213" t="inlineStr">
+        <is>
+          <t>2026-02-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>Recruiting Marketing Campaign Analyst</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>Verisure</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>linkedin</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>Rome, Latium, Italy</t>
+        </is>
+      </c>
+      <c r="E214" t="inlineStr"/>
+      <c r="F214" t="inlineStr"/>
+      <c r="G214" t="inlineStr"/>
+      <c r="H214" s="2" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/4373485128</t>
+        </is>
+      </c>
+      <c r="I214" t="inlineStr">
+        <is>
+          <t>2026-02-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>Talent Acquisition Specialist</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>MioDottore</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>linkedin</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>Rome, Latium, Italy</t>
+        </is>
+      </c>
+      <c r="E215" t="inlineStr"/>
+      <c r="F215" t="inlineStr"/>
+      <c r="G215" t="inlineStr"/>
+      <c r="H215" s="2" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/4374991693</t>
+        </is>
+      </c>
+      <c r="I215" t="inlineStr"/>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>Buzz Recruitment Day – Rome – 05 March 2026</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>Ryanair - Europe's Favourite Airline</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>linkedin</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>Ciampino, Latium, Italy</t>
+        </is>
+      </c>
+      <c r="E216" t="inlineStr"/>
+      <c r="F216" t="inlineStr"/>
+      <c r="G216" t="inlineStr"/>
+      <c r="H216" s="2" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/4374043226</t>
+        </is>
+      </c>
+      <c r="I216" t="inlineStr">
+        <is>
+          <t>2026-02-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>Addetto/a Amministrazione del Personale - Ufficio Risorse Umane</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>tecno-system</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>linkedin</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>Fondi, Latium, Italy</t>
+        </is>
+      </c>
+      <c r="E217" t="inlineStr"/>
+      <c r="F217" t="inlineStr"/>
+      <c r="G217" t="inlineStr"/>
+      <c r="H217" s="2" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/4374014717</t>
+        </is>
+      </c>
+      <c r="I217" t="inlineStr">
+        <is>
+          <t>2026-02-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>Selezione ROMA CENTRO - Giornate FULL TIME</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>Globe MKD</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>indeed</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>Roma, LAZ, IT</t>
+        </is>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>fulltime</t>
+        </is>
+      </c>
+      <c r="F218" t="inlineStr"/>
+      <c r="G218" t="inlineStr"/>
+      <c r="H218" s="2" t="inlineStr">
+        <is>
+          <t>https://it.indeed.com/viewjob?jk=d58c707c78a09f94</t>
+        </is>
+      </c>
+      <c r="I218" t="inlineStr">
+        <is>
+          <t>2026-02-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>Impiegato/a Risorse Umane – Servizi alle Imprese</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>tecno-system</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>linkedin</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>Rome, Latium, Italy</t>
+        </is>
+      </c>
+      <c r="E219" t="inlineStr"/>
+      <c r="F219" t="inlineStr"/>
+      <c r="G219" t="inlineStr"/>
+      <c r="H219" s="2" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/4373323755</t>
+        </is>
+      </c>
+      <c r="I219" t="inlineStr">
+        <is>
+          <t>2026-02-18</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>Procedura di selezione per la chiamata di un professore di prima fascia, GSD 13/ECON-01 - Economia politica, per il Dipartimento di Economics and Financial Markets.</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>LIBERA UNIVERSITA' INTERNAZIONALE DEGLI STUDI SOCIALI GUIDO CARLI DI ROMA</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>indeed</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>Roma, LAZ, IT</t>
+        </is>
+      </c>
+      <c r="E220" t="inlineStr"/>
+      <c r="F220" t="inlineStr"/>
+      <c r="G220" t="inlineStr"/>
+      <c r="H220" s="2" t="inlineStr">
+        <is>
+          <t>https://it.indeed.com/viewjob?jk=4aeb3f7015a7d6ea</t>
+        </is>
+      </c>
+      <c r="I220" t="inlineStr">
+        <is>
+          <t>2026-02-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>Construction Leadership Academy: Percorso di Alta Formazione e Selezione</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>RADAR - Academy &amp; Recruiting</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>linkedin</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>Rome, Latium, Italy</t>
+        </is>
+      </c>
+      <c r="E221" t="inlineStr"/>
+      <c r="F221" t="inlineStr"/>
+      <c r="G221" t="inlineStr"/>
+      <c r="H221" s="2" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/4374149768</t>
+        </is>
+      </c>
+      <c r="I221" t="inlineStr">
+        <is>
+          <t>2026-02-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>Impiegato/a Risorse Umane</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>key-absolute</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>linkedin</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>Rome, Latium, Italy</t>
+        </is>
+      </c>
+      <c r="E222" t="inlineStr"/>
+      <c r="F222" t="inlineStr"/>
+      <c r="G222" t="inlineStr"/>
+      <c r="H222" s="2" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/4373964211</t>
+        </is>
+      </c>
+      <c r="I222" t="inlineStr">
+        <is>
+          <t>2026-02-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>Responsabile Risorse Umane – Prodotti per la Cura del Riposo</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>EmmeBi Group</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>linkedin</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>Rome, Latium, Italy</t>
+        </is>
+      </c>
+      <c r="E223" t="inlineStr"/>
+      <c r="F223" t="inlineStr"/>
+      <c r="G223" t="inlineStr"/>
+      <c r="H223" s="2" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/4374008813</t>
+        </is>
+      </c>
+      <c r="I223" t="inlineStr">
+        <is>
+          <t>2026-02-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>Recruiter freelance</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>Edilizia Alternativa</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>linkedin</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>Rome, Latium, Italy</t>
+        </is>
+      </c>
+      <c r="E224" t="inlineStr"/>
+      <c r="F224" t="inlineStr"/>
+      <c r="G224" t="inlineStr"/>
+      <c r="H224" s="2" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/4373106227</t>
+        </is>
+      </c>
+      <c r="I224" t="inlineStr">
+        <is>
+          <t>2026-02-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>HR ANALYST</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>ITA airways</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>indeed</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>Fiumicino, LAZ, IT</t>
+        </is>
+      </c>
+      <c r="E225" t="inlineStr"/>
+      <c r="F225" t="inlineStr"/>
+      <c r="G225" t="inlineStr"/>
+      <c r="H225" s="2" t="inlineStr">
+        <is>
+          <t>https://it.indeed.com/viewjob?jk=f8588f663ab8e9fb</t>
+        </is>
+      </c>
+      <c r="I225" t="inlineStr">
+        <is>
+          <t>2026-01-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>Operatori Recruiting (PART-TIME)</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>NTWK</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>indeed</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>Roma, LAZ, IT</t>
+        </is>
+      </c>
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>parttime</t>
+        </is>
+      </c>
+      <c r="F226" t="inlineStr"/>
+      <c r="G226" t="inlineStr"/>
+      <c r="H226" s="2" t="inlineStr">
+        <is>
+          <t>https://it.indeed.com/viewjob?jk=cc2eb24c3accfa9c</t>
+        </is>
+      </c>
+      <c r="I226" t="inlineStr">
+        <is>
+          <t>2026-02-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>Stagista Recruiter</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>CONSORZIO STABILE LGA SERVICE</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>indeed</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>Roma, LAZ, IT</t>
+        </is>
+      </c>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>fulltime</t>
+        </is>
+      </c>
+      <c r="F227" t="inlineStr"/>
+      <c r="G227" t="inlineStr"/>
+      <c r="H227" s="2" t="inlineStr">
+        <is>
+          <t>https://it.indeed.com/viewjob?jk=a82bcd5b613ca42a</t>
+        </is>
+      </c>
+      <c r="I227" t="inlineStr">
+        <is>
+          <t>2026-02-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>Impiegato/a Ufficio Risorse Umane – Grande Distribuzione Organizzata</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>Twins</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>indeed</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>Roma, LAZ, IT</t>
+        </is>
+      </c>
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>fulltime</t>
+        </is>
+      </c>
+      <c r="F228" t="inlineStr"/>
+      <c r="G228" t="inlineStr"/>
+      <c r="H228" s="2" t="inlineStr">
+        <is>
+          <t>https://it.indeed.com/viewjob?jk=93a5f1a7f8d894c1</t>
+        </is>
+      </c>
+      <c r="I228" t="inlineStr">
+        <is>
+          <t>2026-02-18</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>HR Specialist</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>Webgenesys S.p.A.</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>indeed</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>Roma, LAZ, IT</t>
+        </is>
+      </c>
+      <c r="E229" t="inlineStr"/>
+      <c r="F229" t="inlineStr"/>
+      <c r="G229" t="inlineStr"/>
+      <c r="H229" s="2" t="inlineStr">
+        <is>
+          <t>https://it.indeed.com/viewjob?jk=07c6d28d00f459d3</t>
+        </is>
+      </c>
+      <c r="I229" t="inlineStr">
+        <is>
+          <t>2026-02-18</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>HR Business Partner (IT - Remote)</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>ThinkingIT Corp.</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>indeed</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>Roma, LAZ, IT</t>
+        </is>
+      </c>
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>fulltime</t>
+        </is>
+      </c>
+      <c r="F230" t="inlineStr"/>
+      <c r="G230" t="inlineStr"/>
+      <c r="H230" s="2" t="inlineStr">
+        <is>
+          <t>https://it.indeed.com/viewjob?jk=5d54341587162f32</t>
+        </is>
+      </c>
+      <c r="I230" t="inlineStr">
+        <is>
+          <t>2026-02-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>Pilot Recruitment Event in Rome</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>Wizz Air</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>linkedin</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>Rome, Latium, Italy</t>
+        </is>
+      </c>
+      <c r="E231" t="inlineStr"/>
+      <c r="F231" t="inlineStr"/>
+      <c r="G231" t="inlineStr"/>
+      <c r="H231" s="2" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/4373563095</t>
+        </is>
+      </c>
+      <c r="I231" t="inlineStr">
+        <is>
+          <t>2026-02-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>Graduate Talent Scientist</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>Canonical</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>linkedin</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>Rome, Latium, Italy</t>
+        </is>
+      </c>
+      <c r="E232" t="inlineStr"/>
+      <c r="F232" t="inlineStr"/>
+      <c r="G232" t="inlineStr"/>
+      <c r="H232" s="2" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/4373910412</t>
+        </is>
+      </c>
+      <c r="I232" t="inlineStr">
+        <is>
+          <t>2026-02-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>HR Generalist</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>Chaberton Professionals</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>linkedin</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>Rome, Latium, Italy</t>
+        </is>
+      </c>
+      <c r="E233" t="inlineStr"/>
+      <c r="F233" t="inlineStr"/>
+      <c r="G233" t="inlineStr"/>
+      <c r="H233" s="2" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/4371975588</t>
+        </is>
+      </c>
+      <c r="I233" t="inlineStr">
+        <is>
+          <t>2026-02-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>ADDETTO/A RICERCA E SELEZIONE DEL PERSONALE</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>FONDAZIONE LAVORO</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>linkedin</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>Rome, Latium, Italy</t>
+        </is>
+      </c>
+      <c r="E234" t="inlineStr"/>
+      <c r="F234" t="inlineStr"/>
+      <c r="G234" t="inlineStr"/>
+      <c r="H234" s="2" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/4372870383</t>
+        </is>
+      </c>
+      <c r="I234" t="inlineStr">
+        <is>
+          <t>2026-02-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>CLIENT RECRUITMENT SPECIALIST ON SITE</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>Gi Group</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>linkedin</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>Rome, Latium, Italy</t>
+        </is>
+      </c>
+      <c r="E235" t="inlineStr"/>
+      <c r="F235" t="inlineStr"/>
+      <c r="G235" t="inlineStr"/>
+      <c r="H235" s="2" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/4372463744</t>
+        </is>
+      </c>
+      <c r="I235" t="inlineStr">
+        <is>
+          <t>2026-02-18</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>Talent Acquisition</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>DXC Technology</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>linkedin</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>Rome, Latium, Italy</t>
+        </is>
+      </c>
+      <c r="E236" t="inlineStr"/>
+      <c r="F236" t="inlineStr"/>
+      <c r="G236" t="inlineStr"/>
+      <c r="H236" s="2" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/4324290308</t>
+        </is>
+      </c>
+      <c r="I236" t="inlineStr">
+        <is>
+          <t>2026-02-18</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>HR Manager (IT - Remote)</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>ThinkingIT Corp.</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>indeed</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>Roma, LAZ, IT</t>
+        </is>
+      </c>
+      <c r="E237" t="inlineStr">
+        <is>
+          <t>fulltime</t>
+        </is>
+      </c>
+      <c r="F237" t="inlineStr"/>
+      <c r="G237" t="inlineStr"/>
+      <c r="H237" s="2" t="inlineStr">
+        <is>
+          <t>https://it.indeed.com/viewjob?jk=8435093b0586c1ab</t>
+        </is>
+      </c>
+      <c r="I237" t="inlineStr">
+        <is>
+          <t>2026-02-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>HRBP RETAIL CENTRO ITALIA</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>LHH</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>linkedin</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>Rome, Latium, Italy</t>
+        </is>
+      </c>
+      <c r="E238" t="inlineStr"/>
+      <c r="F238" t="inlineStr"/>
+      <c r="G238" t="inlineStr"/>
+      <c r="H238" s="2" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/4375811505</t>
+        </is>
+      </c>
+      <c r="I238" t="inlineStr">
+        <is>
+          <t>2026-02-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>Responsabile Risorse Umane – Commerciale e Distribuzione</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>EmmeBi Group</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>linkedin</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>Rome, Latium, Italy</t>
+        </is>
+      </c>
+      <c r="E239" t="inlineStr"/>
+      <c r="F239" t="inlineStr"/>
+      <c r="G239" t="inlineStr"/>
+      <c r="H239" s="2" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/4374380649</t>
+        </is>
+      </c>
+      <c r="I239" t="inlineStr">
+        <is>
+          <t>2026-02-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>HR Generalist</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>NTWK</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>indeed</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>Roma, LAZ, IT</t>
+        </is>
+      </c>
+      <c r="E240" t="inlineStr"/>
+      <c r="F240" t="inlineStr"/>
+      <c r="G240" t="inlineStr"/>
+      <c r="H240" s="2" t="inlineStr">
+        <is>
+          <t>https://it.indeed.com/viewjob?jk=a202633e80897c25</t>
+        </is>
+      </c>
+      <c r="I240" t="inlineStr">
+        <is>
+          <t>2026-02-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>Buzz Recruitment Day – Lisbon – 09 March 2026</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>Ryanair - Europe's Favourite Airline</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>linkedin</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>Fiumicino, Latium, Italy</t>
+        </is>
+      </c>
+      <c r="E241" t="inlineStr"/>
+      <c r="F241" t="inlineStr"/>
+      <c r="G241" t="inlineStr"/>
+      <c r="H241" s="2" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/4374083419</t>
+        </is>
+      </c>
+      <c r="I241" t="inlineStr">
+        <is>
+          <t>2026-02-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>Talent Acquisition Manager</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>Jobbit</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>linkedin</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>Rome, Latium, Italy</t>
+        </is>
+      </c>
+      <c r="E242" t="inlineStr"/>
+      <c r="F242" t="inlineStr"/>
+      <c r="G242" t="inlineStr"/>
+      <c r="H242" s="2" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/4375613154</t>
+        </is>
+      </c>
+      <c r="I242" t="inlineStr">
+        <is>
+          <t>2026-02-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>Talent Acquisition &amp; Employer Branding Specialist</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>Angelini Pharma</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>linkedin</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>Rome, Latium, Italy</t>
+        </is>
+      </c>
+      <c r="E243" t="inlineStr"/>
+      <c r="F243" t="inlineStr"/>
+      <c r="G243" t="inlineStr"/>
+      <c r="H243" s="2" t="inlineStr">
+        <is>
           <t>https://www.linkedin.com/jobs/view/4375809486</t>
         </is>
       </c>
-      <c r="I162" t="inlineStr">
+      <c r="I243" t="inlineStr">
         <is>
           <t>2026-02-20</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I162"/>
+  <autoFilter ref="A1:I243"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/output/TA_Monitor_2026-02-28.xlsx
+++ b/output/TA_Monitor_2026-02-28.xlsx
@@ -10,7 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Posizioni" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Posizioni'!$A$1:$I$243</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Posizioni'!$A$1:$I$244</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I243"/>
+  <dimension ref="A1:I244"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -503,22 +503,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Addetto/a Risorse Umane – Selezione e inserimento personale</t>
+          <t>CLIENT RECRUITMENT SPECIALIST ON SITE</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Passyer web</t>
+          <t>Gi Group Holding</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>google</t>
+          <t>linkedin</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Rome, Metropolitan City of Rome Capital, Italy</t>
+          <t>Pomezia, Latium, Italy</t>
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
@@ -526,20 +526,24 @@
       <c r="G2" t="inlineStr"/>
       <c r="H2" s="2" t="inlineStr">
         <is>
-          <t>https://it.bebee.com/job/2cb37fa3b265e6e22611b123f64fd30b?utm_campaign=google_jobs_apply&amp;utm_source=google_jobs_apply&amp;utm_medium=organic</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr"/>
+          <t>https://www.linkedin.com/jobs/view/4375219457</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>2026-02-25</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Senior Human Resources Manager</t>
+          <t>Addetto/a Risorse Umane – Selezione e inserimento personale</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Marriott Hotels Resorts</t>
+          <t>Passyer web</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -552,16 +556,12 @@
           <t>Rome, Metropolitan City of Rome Capital, Italy</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>contract</t>
-        </is>
-      </c>
+      <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
       <c r="H3" s="2" t="inlineStr">
         <is>
-          <t>https://it.jooble.org/rjdp/-5822958054213240275?utm_campaign=google_jobs_apply&amp;utm_source=google_jobs_apply&amp;utm_medium=organic</t>
+          <t>https://it.bebee.com/job/2cb37fa3b265e6e22611b123f64fd30b?utm_campaign=google_jobs_apply&amp;utm_source=google_jobs_apply&amp;utm_medium=organic</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -569,12 +569,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Senior HR Transformation Manager</t>
+          <t>Senior Human Resources Manager</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Leonardo SpA</t>
+          <t>Marriott Hotels Resorts</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -596,7 +596,7 @@
       <c r="G4" t="inlineStr"/>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>https://www.simplyhired.it/job/iViFJhzzcnWMhmGs6ynh8jCpkjaMA413jHVUsvuphhZ9bsg_EdCLZA?utm_campaign=google_jobs_apply&amp;utm_source=google_jobs_apply&amp;utm_medium=organic</t>
+          <t>https://it.jooble.org/rjdp/-5822958054213240275?utm_campaign=google_jobs_apply&amp;utm_source=google_jobs_apply&amp;utm_medium=organic</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -604,12 +604,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>RISORSE UMANE/ADDETTO AL PERSONALE</t>
+          <t>Senior HR Transformation Manager</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cinecittà World S.p.A</t>
+          <t>Leonardo SpA</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -624,14 +624,14 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>fulltime</t>
+          <t>contract</t>
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>https://it.jooble.org/rjdp/-2175985008483393345?utm_campaign=google_jobs_apply&amp;utm_source=google_jobs_apply&amp;utm_medium=organic</t>
+          <t>https://www.simplyhired.it/job/iViFJhzzcnWMhmGs6ynh8jCpkjaMA413jHVUsvuphhZ9bsg_EdCLZA?utm_campaign=google_jobs_apply&amp;utm_source=google_jobs_apply&amp;utm_medium=organic</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -639,12 +639,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Responsabile Risorse Umane, Amministrazione e Finanza</t>
+          <t>RISORSE UMANE/ADDETTO AL PERSONALE</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>WiseGlow</t>
+          <t>Cinecittà World S.p.A</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -657,12 +657,16 @@
           <t>Rome, Metropolitan City of Rome Capital, Italy</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr"/>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>fulltime</t>
+        </is>
+      </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>https://it.bebee.com/job/1b1ad39c5510361057dd08565c3c8842?utm_campaign=google_jobs_apply&amp;utm_source=google_jobs_apply&amp;utm_medium=organic</t>
+          <t>https://it.jooble.org/rjdp/-2175985008483393345?utm_campaign=google_jobs_apply&amp;utm_source=google_jobs_apply&amp;utm_medium=organic</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -670,12 +674,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>responsabile del personale</t>
+          <t>Responsabile Risorse Umane, Amministrazione e Finanza</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Noi srl</t>
+          <t>WiseGlow</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -693,24 +697,20 @@
       <c r="G7" t="inlineStr"/>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>https://it.jooble.org/jdp/-1671671881287850035?utm_campaign=google_jobs_apply&amp;utm_source=google_jobs_apply&amp;utm_medium=organic</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>2026-01-29</t>
-        </is>
-      </c>
+          <t>https://it.bebee.com/job/1b1ad39c5510361057dd08565c3c8842?utm_campaign=google_jobs_apply&amp;utm_source=google_jobs_apply&amp;utm_medium=organic</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Addetto / a Risorse Umane - Settore Benessere Idrico (27041)</t>
+          <t>responsabile del personale</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Impiegando.com</t>
+          <t>Noi srl</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -723,33 +723,29 @@
           <t>Rome, Metropolitan City of Rome Capital, Italy</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>fulltime</t>
-        </is>
-      </c>
+      <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>https://it.talent.com/view?id=74689963d947&amp;utm_campaign=google_jobs_apply&amp;utm_source=google_jobs_apply&amp;utm_medium=organic</t>
+          <t>https://it.jooble.org/jdp/-1671671881287850035?utm_campaign=google_jobs_apply&amp;utm_source=google_jobs_apply&amp;utm_medium=organic</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>2026-02-03</t>
+          <t>2026-01-29</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Assistente paghe e contributi risorse umane</t>
+          <t>Addetto / a Risorse Umane - Settore Benessere Idrico (27041)</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Studio Saperessere SRL</t>
+          <t>Impiegando.com</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -762,29 +758,33 @@
           <t>Rome, Metropolitan City of Rome Capital, Italy</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr"/>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>fulltime</t>
+        </is>
+      </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>https://it.bebee.com/job/5bf5984da7e8913c61cbaa4452a90111?utm_campaign=google_jobs_apply&amp;utm_source=google_jobs_apply&amp;utm_medium=organic</t>
+          <t>https://it.talent.com/view?id=74689963d947&amp;utm_campaign=google_jobs_apply&amp;utm_source=google_jobs_apply&amp;utm_medium=organic</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>2026-02-06</t>
+          <t>2026-02-03</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Addetto/a alle Risorse Umane</t>
+          <t>Assistente paghe e contributi risorse umane</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>key-absolute</t>
+          <t>Studio Saperessere SRL</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -797,16 +797,12 @@
           <t>Rome, Metropolitan City of Rome Capital, Italy</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>fulltime</t>
-        </is>
-      </c>
+      <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>https://it.bebee.com/job/90cd0164a85b2551e3c80ec7557b4a2b?utm_campaign=google_jobs_apply&amp;utm_source=google_jobs_apply&amp;utm_medium=organic</t>
+          <t>https://it.bebee.com/job/5bf5984da7e8913c61cbaa4452a90111?utm_campaign=google_jobs_apply&amp;utm_source=google_jobs_apply&amp;utm_medium=organic</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -818,12 +814,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>HR Director | Rome, IT</t>
+          <t>Addetto/a alle Risorse Umane</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Wehunt</t>
+          <t>key-absolute</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -836,29 +832,33 @@
           <t>Rome, Metropolitan City of Rome Capital, Italy</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr"/>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>fulltime</t>
+        </is>
+      </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>https://www.efinancialcareers.it/jobs-Italy-Rome-HR_Director.id23799657?utm_campaign=google_jobs_apply&amp;utm_source=google_jobs_apply&amp;utm_medium=organic</t>
+          <t>https://it.bebee.com/job/90cd0164a85b2551e3c80ec7557b4a2b?utm_campaign=google_jobs_apply&amp;utm_source=google_jobs_apply&amp;utm_medium=organic</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>2026-02-07</t>
+          <t>2026-02-06</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>HR Generalist - Guidonia (RM)</t>
+          <t>HR Director | Rome, IT</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Number1 Logistics Group</t>
+          <t>Wehunt</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -868,36 +868,32 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Guidonia, Metropolitan City of Rome Capital, Italy</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>fulltime</t>
-        </is>
-      </c>
+          <t>Rome, Metropolitan City of Rome Capital, Italy</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>https://it.linkedin.com/jobs/view/hr-generalist-guidonia-rm-at-number1-logistics-group-4370455565?utm_campaign=google_jobs_apply&amp;utm_source=google_jobs_apply&amp;utm_medium=organic</t>
+          <t>https://www.efinancialcareers.it/jobs-Italy-Rome-HR_Director.id23799657?utm_campaign=google_jobs_apply&amp;utm_source=google_jobs_apply&amp;utm_medium=organic</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>2026-02-08</t>
+          <t>2026-02-07</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Hr Business Partner - Settore Bancario</t>
+          <t>HR Generalist - Guidonia (RM)</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>S&amp;you Italia</t>
+          <t>Number1 Logistics Group</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -907,7 +903,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Rome, Metropolitan City of Rome Capital, Italy</t>
+          <t>Guidonia, Metropolitan City of Rome Capital, Italy</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -919,24 +915,24 @@
       <c r="G13" t="inlineStr"/>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>https://it.jobtome.com/offertalavoro/hr-business-partner-settore-bancario/1abfacc682effea87c5bbe9a4b11288e?utm_campaign=google_jobs_apply&amp;utm_source=google_jobs_apply&amp;utm_medium=organic</t>
+          <t>https://it.linkedin.com/jobs/view/hr-generalist-guidonia-rm-at-number1-logistics-group-4370455565?utm_campaign=google_jobs_apply&amp;utm_source=google_jobs_apply&amp;utm_medium=organic</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>2026-02-10</t>
+          <t>2026-02-08</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Responsabile Risorse Umane - Beni di Largo Consumo</t>
+          <t>Hr Business Partner - Settore Bancario</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>SH</t>
+          <t>S&amp;you Italia</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -946,15 +942,19 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Colleferro, Metropolitan City of Rome Capital, Italy</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr"/>
+          <t>Rome, Metropolitan City of Rome Capital, Italy</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>fulltime</t>
+        </is>
+      </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>https://it.talent.com/view?id=9b9707e4a457&amp;utm_campaign=google_jobs_apply&amp;utm_source=google_jobs_apply&amp;utm_medium=organic</t>
+          <t>https://it.jobtome.com/offertalavoro/hr-business-partner-settore-bancario/1abfacc682effea87c5bbe9a4b11288e?utm_campaign=google_jobs_apply&amp;utm_source=google_jobs_apply&amp;utm_medium=organic</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -966,7 +966,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Responsabile Risorse Umane</t>
+          <t>Responsabile Risorse Umane - Beni di Largo Consumo</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -984,16 +984,12 @@
           <t>Colleferro, Metropolitan City of Rome Capital, Italy</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>fulltime</t>
-        </is>
-      </c>
+      <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>https://it.talent.com/view?id=4fba08b5c9b0&amp;utm_campaign=google_jobs_apply&amp;utm_source=google_jobs_apply&amp;utm_medium=organic</t>
+          <t>https://it.talent.com/view?id=9b9707e4a457&amp;utm_campaign=google_jobs_apply&amp;utm_source=google_jobs_apply&amp;utm_medium=organic</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1005,12 +1001,12 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Bilingual Office Manager (Italian/English)</t>
+          <t>Responsabile Risorse Umane</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Gi Group</t>
+          <t>SH</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1020,32 +1016,36 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Rome, Metropolitan City of Rome Capital, Italy</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr"/>
+          <t>Colleferro, Metropolitan City of Rome Capital, Italy</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>fulltime</t>
+        </is>
+      </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>https://www.sercanto.it/detail/a/bilingual-office-manager-italian-english_roma_464188789?utm_campaign=google_jobs_apply&amp;utm_source=google_jobs_apply&amp;utm_medium=organic</t>
+          <t>https://it.talent.com/view?id=4fba08b5c9b0&amp;utm_campaign=google_jobs_apply&amp;utm_source=google_jobs_apply&amp;utm_medium=organic</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>2026-02-11</t>
+          <t>2026-02-10</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Plant Human Resources Manager</t>
+          <t>Bilingual Office Manager (Italian/English)</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Allison Off-Highway Drive &amp; Motion Systems</t>
+          <t>Gi Group</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1063,7 +1063,7 @@
       <c r="G17" t="inlineStr"/>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>https://it.talent.com/view?id=689620d9aa90&amp;utm_campaign=google_jobs_apply&amp;utm_source=google_jobs_apply&amp;utm_medium=organic</t>
+          <t>https://www.sercanto.it/detail/a/bilingual-office-manager-italian-english_roma_464188789?utm_campaign=google_jobs_apply&amp;utm_source=google_jobs_apply&amp;utm_medium=organic</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1075,12 +1075,12 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Direttore del Personale e Organizzazione</t>
+          <t>Plant Human Resources Manager</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Intermedia Selection</t>
+          <t>Allison Off-Highway Drive &amp; Motion Systems</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1090,7 +1090,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Rome, Metropolitan City of Rome Capital, Italy</t>
         </is>
       </c>
       <c r="E18" t="inlineStr"/>
@@ -1098,24 +1098,24 @@
       <c r="G18" t="inlineStr"/>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>https://it.bebee.com/job/dd2bea88834d625490ede74d18154ec9?utm_campaign=google_jobs_apply&amp;utm_source=google_jobs_apply&amp;utm_medium=organic</t>
+          <t>https://it.talent.com/view?id=689620d9aa90&amp;utm_campaign=google_jobs_apply&amp;utm_source=google_jobs_apply&amp;utm_medium=organic</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>2026-02-14</t>
+          <t>2026-02-11</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Specialista Risorse Umane – Turni</t>
+          <t>Direttore del Personale e Organizzazione</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Impiegando.Com</t>
+          <t>Intermedia Selection</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1125,19 +1125,15 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Rome, Metropolitan City of Rome Capital, Italy</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>fulltime</t>
-        </is>
-      </c>
+          <t>Italy</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>https://it.trabajo.org/offerta-3189-8fe162ef1018130fd14beee703067e90?utm_campaign=google_jobs_apply&amp;utm_source=google_jobs_apply&amp;utm_medium=organic</t>
+          <t>https://it.bebee.com/job/dd2bea88834d625490ede74d18154ec9?utm_campaign=google_jobs_apply&amp;utm_source=google_jobs_apply&amp;utm_medium=organic</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1149,7 +1145,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Assistente Risorse Umane – Amministrazione &amp; Selezione</t>
+          <t>Specialista Risorse Umane – Turni</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1176,7 +1172,7 @@
       <c r="G20" t="inlineStr"/>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>https://it.talent.com/view?id=2d7a5b88e645&amp;utm_campaign=google_jobs_apply&amp;utm_source=google_jobs_apply&amp;utm_medium=organic</t>
+          <t>https://it.trabajo.org/offerta-3189-8fe162ef1018130fd14beee703067e90?utm_campaign=google_jobs_apply&amp;utm_source=google_jobs_apply&amp;utm_medium=organic</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1188,7 +1184,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>HR Manager: Coordinamento Risorse</t>
+          <t>Assistente Risorse Umane – Amministrazione &amp; Selezione</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1215,7 +1211,7 @@
       <c r="G21" t="inlineStr"/>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>https://it.trabajo.org/offerta-1906-e63717c3aec84a4b6b0ccc1c8aa3528d?utm_campaign=google_jobs_apply&amp;utm_source=google_jobs_apply&amp;utm_medium=organic</t>
+          <t>https://it.talent.com/view?id=2d7a5b88e645&amp;utm_campaign=google_jobs_apply&amp;utm_source=google_jobs_apply&amp;utm_medium=organic</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1227,12 +1223,12 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>RESPONSABILE DELLE RISORSE UMANE PART TIME</t>
+          <t>HR Manager: Coordinamento Risorse</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Lattanzio KIBS Benefit Corporation</t>
+          <t>Impiegando.Com</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1245,12 +1241,16 @@
           <t>Rome, Metropolitan City of Rome Capital, Italy</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr"/>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>fulltime</t>
+        </is>
+      </c>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr"/>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>https://it.trabajo.org/offerta-1389-7ef8a86d6d7383e913d03bcfc93eb263?utm_campaign=google_jobs_apply&amp;utm_source=google_jobs_apply&amp;utm_medium=organic</t>
+          <t>https://it.trabajo.org/offerta-1906-e63717c3aec84a4b6b0ccc1c8aa3528d?utm_campaign=google_jobs_apply&amp;utm_source=google_jobs_apply&amp;utm_medium=organic</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1262,12 +1262,12 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Capo Risorse Umane Negozio | Sviluppo Persone</t>
+          <t>RESPONSABILE DELLE RISORSE UMANE PART TIME</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Altro</t>
+          <t>Lattanzio KIBS Benefit Corporation</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1285,7 +1285,7 @@
       <c r="G23" t="inlineStr"/>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>https://it.trabajo.org/offerta-3189-4b59930540f11622a6266fee7a94d721?utm_campaign=google_jobs_apply&amp;utm_source=google_jobs_apply&amp;utm_medium=organic</t>
+          <t>https://it.trabajo.org/offerta-1389-7ef8a86d6d7383e913d03bcfc93eb263?utm_campaign=google_jobs_apply&amp;utm_source=google_jobs_apply&amp;utm_medium=organic</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -1297,12 +1297,12 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>HR MANAGER RESPONSABILE DEL PERSONALE</t>
+          <t>Capo Risorse Umane Negozio | Sviluppo Persone</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>ManpowerGroup</t>
+          <t>Altro</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1320,7 +1320,7 @@
       <c r="G24" t="inlineStr"/>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>https://it.jooble.org/rjdp/-4132777169967100505?utm_campaign=google_jobs_apply&amp;utm_source=google_jobs_apply&amp;utm_medium=organic</t>
+          <t>https://it.trabajo.org/offerta-3189-4b59930540f11622a6266fee7a94d721?utm_campaign=google_jobs_apply&amp;utm_source=google_jobs_apply&amp;utm_medium=organic</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -1332,12 +1332,12 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Controller Area Risorse Umane</t>
+          <t>HR MANAGER RESPONSABILE DEL PERSONALE</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Altro</t>
+          <t>ManpowerGroup</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1350,33 +1350,29 @@
           <t>Rome, Metropolitan City of Rome Capital, Italy</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>fulltime</t>
-        </is>
-      </c>
+      <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>https://it.trabajo.org/offerta-3189-03a31d2ef0de976a4b189080f97dac99?utm_campaign=google_jobs_apply&amp;utm_source=google_jobs_apply&amp;utm_medium=organic</t>
+          <t>https://it.jooble.org/rjdp/-4132777169967100505?utm_campaign=google_jobs_apply&amp;utm_source=google_jobs_apply&amp;utm_medium=organic</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>2026-02-15</t>
+          <t>2026-02-14</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Assistente d'ufficio e supporto reparto risorse umane</t>
+          <t>Controller Area Risorse Umane</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Mercury Events srl</t>
+          <t>Altro</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1398,7 +1394,7 @@
       <c r="G26" t="inlineStr"/>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>https://it.bebee.com/job/9da80c84fd43a259daac9fb856be5a32?utm_campaign=google_jobs_apply&amp;utm_source=google_jobs_apply&amp;utm_medium=organic</t>
+          <t>https://it.trabajo.org/offerta-3189-03a31d2ef0de976a4b189080f97dac99?utm_campaign=google_jobs_apply&amp;utm_source=google_jobs_apply&amp;utm_medium=organic</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -1410,12 +1406,12 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>HR Manager GDO/Retail – Sardegna Itinerante</t>
+          <t>Assistente d'ufficio e supporto reparto risorse umane</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Gi Group SpA Filiale di Cagliari</t>
+          <t>Mercury Events srl</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1428,12 +1424,16 @@
           <t>Rome, Metropolitan City of Rome Capital, Italy</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr"/>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>fulltime</t>
+        </is>
+      </c>
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr"/>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>https://it.trabajo.org/offerta-1906-568a7175216a4497c52e535888f6de54?utm_campaign=google_jobs_apply&amp;utm_source=google_jobs_apply&amp;utm_medium=organic</t>
+          <t>https://it.bebee.com/job/9da80c84fd43a259daac9fb856be5a32?utm_campaign=google_jobs_apply&amp;utm_source=google_jobs_apply&amp;utm_medium=organic</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -1445,12 +1445,12 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Responsabile HR e Ammnistrazione(Richiesta lingua cinese)</t>
+          <t>HR Manager GDO/Retail – Sardegna Itinerante</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Kngloo Italy</t>
+          <t>Gi Group SpA Filiale di Cagliari</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1460,7 +1460,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Rome, Metropolitan City of Rome Capital, Italy</t>
         </is>
       </c>
       <c r="E28" t="inlineStr"/>
@@ -1468,7 +1468,7 @@
       <c r="G28" t="inlineStr"/>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>https://it.trabajo.org/offerta-3815-aafd63ab233e9b14b4d3772e13794440?utm_campaign=google_jobs_apply&amp;utm_source=google_jobs_apply&amp;utm_medium=organic</t>
+          <t>https://it.trabajo.org/offerta-1906-568a7175216a4497c52e535888f6de54?utm_campaign=google_jobs_apply&amp;utm_source=google_jobs_apply&amp;utm_medium=organic</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -1480,12 +1480,12 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Capo Hr Negozio: Sviluppa Persone E Performance</t>
+          <t>Responsabile HR e Ammnistrazione(Richiesta lingua cinese)</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Altro</t>
+          <t>Kngloo Italy</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1503,7 +1503,7 @@
       <c r="G29" t="inlineStr"/>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>https://it.trabajo.org/offerta-3189-a76dc8f72b4f88ab99976506266549f1?utm_campaign=google_jobs_apply&amp;utm_source=google_jobs_apply&amp;utm_medium=organic</t>
+          <t>https://it.trabajo.org/offerta-3815-aafd63ab233e9b14b4d3772e13794440?utm_campaign=google_jobs_apply&amp;utm_source=google_jobs_apply&amp;utm_medium=organic</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -1515,7 +1515,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Direttore Risorse Umane: Leadership e Sviluppo</t>
+          <t>Capo Hr Negozio: Sviluppa Persone E Performance</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1530,7 +1530,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Rome, Metropolitan City of Rome Capital, Italy</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="E30" t="inlineStr"/>
@@ -1538,7 +1538,7 @@
       <c r="G30" t="inlineStr"/>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>https://it.trabajo.org/offerta-1906-b276ab1d0f72ebccb88b05a2d2937cba?utm_campaign=google_jobs_apply&amp;utm_source=google_jobs_apply&amp;utm_medium=organic</t>
+          <t>https://it.trabajo.org/offerta-3189-a76dc8f72b4f88ab99976506266549f1?utm_campaign=google_jobs_apply&amp;utm_source=google_jobs_apply&amp;utm_medium=organic</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -1550,12 +1550,12 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Responsabile Hr: Amministrazione, Payroll</t>
+          <t>Direttore Risorse Umane: Leadership e Sviluppo</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Bebee*Gestionerisorsaumana*</t>
+          <t>Altro</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1573,7 +1573,7 @@
       <c r="G31" t="inlineStr"/>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>https://it.trabajo.org/offerta-1906-493079d94eb2c0b99e1d2de703259e9e?utm_campaign=google_jobs_apply&amp;utm_source=google_jobs_apply&amp;utm_medium=organic</t>
+          <t>https://it.trabajo.org/offerta-1906-b276ab1d0f72ebccb88b05a2d2937cba?utm_campaign=google_jobs_apply&amp;utm_source=google_jobs_apply&amp;utm_medium=organic</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -1585,12 +1585,12 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Responsabile Hr E Amministrazione – Manifatturiero</t>
+          <t>Responsabile Hr: Amministrazione, Payroll</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Ali Professional</t>
+          <t>Bebee*Gestionerisorsaumana*</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1600,7 +1600,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Rome, Metropolitan City of Rome Capital, Italy</t>
         </is>
       </c>
       <c r="E32" t="inlineStr"/>
@@ -1608,24 +1608,24 @@
       <c r="G32" t="inlineStr"/>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>https://it.trabajo.org/offerta-3189-da6c705d7d954df608007bfdd7a25762?utm_campaign=google_jobs_apply&amp;utm_source=google_jobs_apply&amp;utm_medium=organic</t>
+          <t>https://it.trabajo.org/offerta-1906-493079d94eb2c0b99e1d2de703259e9e?utm_campaign=google_jobs_apply&amp;utm_source=google_jobs_apply&amp;utm_medium=organic</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>2026-02-16</t>
+          <t>2026-02-15</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Bilingual HR Ops Partner - Contracts &amp; Data</t>
+          <t>Responsabile Hr E Amministrazione – Manifatturiero</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Sisal</t>
+          <t>Ali Professional</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1635,36 +1635,32 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Rome, Metropolitan City of Rome Capital, Italy</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>contract</t>
-        </is>
-      </c>
+          <t>Italy</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr"/>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>https://www.sercanto.it/detail/a/bilingual-hr-ops-partner-contracts-data_roma_468134512?utm_campaign=google_jobs_apply&amp;utm_source=google_jobs_apply&amp;utm_medium=organic</t>
+          <t>https://it.trabajo.org/offerta-3189-da6c705d7d954df608007bfdd7a25762?utm_campaign=google_jobs_apply&amp;utm_source=google_jobs_apply&amp;utm_medium=organic</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>2026-02-18</t>
+          <t>2026-02-16</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>MASTER GESTIONE E AMMINISTRAZIONE DELLE RISORSE UMANE</t>
+          <t>Bilingual HR Ops Partner - Contracts &amp; Data</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Job Farm</t>
+          <t>Sisal</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1677,29 +1673,33 @@
           <t>Rome, Metropolitan City of Rome Capital, Italy</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr"/>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>contract</t>
+        </is>
+      </c>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>https://it.trabajo.org/offerta-1389-2def3ac2b1c792b8e99cac848d20062a?utm_campaign=google_jobs_apply&amp;utm_source=google_jobs_apply&amp;utm_medium=organic</t>
+          <t>https://www.sercanto.it/detail/a/bilingual-hr-ops-partner-contracts-data_roma_468134512?utm_campaign=google_jobs_apply&amp;utm_source=google_jobs_apply&amp;utm_medium=organic</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>2026-02-19</t>
+          <t>2026-02-18</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Human Resource - Gestione e Amministrazione Personale</t>
+          <t>MASTER GESTIONE E AMMINISTRAZIONE DELLE RISORSE UMANE</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Grafton Recruitment</t>
+          <t>Job Farm</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1717,7 +1717,7 @@
       <c r="G35" t="inlineStr"/>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>https://it.talent.com/view?id=607351704898447227&amp;utm_campaign=google_jobs_apply&amp;utm_source=google_jobs_apply&amp;utm_medium=organic</t>
+          <t>https://it.trabajo.org/offerta-1389-2def3ac2b1c792b8e99cac848d20062a?utm_campaign=google_jobs_apply&amp;utm_source=google_jobs_apply&amp;utm_medium=organic</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -1729,12 +1729,12 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Responsabile Risorse Umane – Prodotti per la Cura del Riposo</t>
+          <t>Human Resource - Gestione e Amministrazione Personale</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>EmmeBi Group</t>
+          <t>Grafton Recruitment</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1747,16 +1747,12 @@
           <t>Rome, Metropolitan City of Rome Capital, Italy</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>fulltime</t>
-        </is>
-      </c>
+      <c r="E36" t="inlineStr"/>
       <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr"/>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>https://it.bebee.com/job/4c6087ca49fb045dbba9e92622d0f441?utm_campaign=google_jobs_apply&amp;utm_source=google_jobs_apply&amp;utm_medium=organic</t>
+          <t>https://it.talent.com/view?id=607351704898447227&amp;utm_campaign=google_jobs_apply&amp;utm_source=google_jobs_apply&amp;utm_medium=organic</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -1768,12 +1764,12 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>HR Account Manager : Grow Clients &amp; Build Talent</t>
+          <t>Responsabile Risorse Umane – Prodotti per la Cura del Riposo</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Randstad Group Italia spa</t>
+          <t>EmmeBi Group</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1786,29 +1782,33 @@
           <t>Rome, Metropolitan City of Rome Capital, Italy</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr"/>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>fulltime</t>
+        </is>
+      </c>
       <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr"/>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>https://it.talent.com/view?id=607442414764888210&amp;utm_campaign=google_jobs_apply&amp;utm_source=google_jobs_apply&amp;utm_medium=organic</t>
+          <t>https://it.bebee.com/job/4c6087ca49fb045dbba9e92622d0f441?utm_campaign=google_jobs_apply&amp;utm_source=google_jobs_apply&amp;utm_medium=organic</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>2026-02-20</t>
+          <t>2026-02-19</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Group HR Director — Strategy, M&amp;A &amp; Talent</t>
+          <t>HR Account Manager : Grow Clients &amp; Build Talent</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>InPost Italy</t>
+          <t>Randstad Group Italia spa</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1826,7 +1826,7 @@
       <c r="G38" t="inlineStr"/>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>https://it.talent.com/view?id=607335043766234231&amp;utm_campaign=google_jobs_apply&amp;utm_source=google_jobs_apply&amp;utm_medium=organic</t>
+          <t>https://it.talent.com/view?id=607442414764888210&amp;utm_campaign=google_jobs_apply&amp;utm_source=google_jobs_apply&amp;utm_medium=organic</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -1838,12 +1838,12 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Borgo Pignano Florence Human Resources Supervisor- Borgo Pignano Florence Firenze Borgo Pignano[...]</t>
+          <t>Group HR Director — Strategy, M&amp;A &amp; Talent</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Relais &amp; Châteaux</t>
+          <t>InPost Italy</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1861,7 +1861,7 @@
       <c r="G39" t="inlineStr"/>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>https://it.talent.com/view?id=607374474007488379&amp;utm_campaign=google_jobs_apply&amp;utm_source=google_jobs_apply&amp;utm_medium=organic</t>
+          <t>https://it.talent.com/view?id=607335043766234231&amp;utm_campaign=google_jobs_apply&amp;utm_source=google_jobs_apply&amp;utm_medium=organic</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -1873,12 +1873,12 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Franchise HR Director – Avvia Nuovi Uffici &amp; Crescita</t>
+          <t>Borgo Pignano Florence Human Resources Supervisor- Borgo Pignano Florence Firenze Borgo Pignano[...]</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Altro</t>
+          <t>Relais &amp; Châteaux</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1896,7 +1896,7 @@
       <c r="G40" t="inlineStr"/>
       <c r="H40" s="2" t="inlineStr">
         <is>
-          <t>https://it.talent.com/view?id=607442470975901842&amp;utm_campaign=google_jobs_apply&amp;utm_source=google_jobs_apply&amp;utm_medium=organic</t>
+          <t>https://it.talent.com/view?id=607374474007488379&amp;utm_campaign=google_jobs_apply&amp;utm_source=google_jobs_apply&amp;utm_medium=organic</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -1908,7 +1908,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Stage Risorse Umane Healthcare : Selezione &amp; Onboarding</t>
+          <t>Franchise HR Director – Avvia Nuovi Uffici &amp; Crescita</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1931,7 +1931,7 @@
       <c r="G41" t="inlineStr"/>
       <c r="H41" s="2" t="inlineStr">
         <is>
-          <t>https://it.talent.com/view?id=607373979488687569&amp;utm_campaign=google_jobs_apply&amp;utm_source=google_jobs_apply&amp;utm_medium=organic</t>
+          <t>https://it.talent.com/view?id=607442470975901842&amp;utm_campaign=google_jobs_apply&amp;utm_source=google_jobs_apply&amp;utm_medium=organic</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -1943,12 +1943,12 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Assistente HR : Onboarding e Admin, Tempo pieno</t>
+          <t>Stage Risorse Umane Healthcare : Selezione &amp; Onboarding</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>F.F. Group</t>
+          <t>Altro</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1966,7 +1966,7 @@
       <c r="G42" t="inlineStr"/>
       <c r="H42" s="2" t="inlineStr">
         <is>
-          <t>https://it.talent.com/view?id=607444714606177399&amp;utm_campaign=google_jobs_apply&amp;utm_source=google_jobs_apply&amp;utm_medium=organic</t>
+          <t>https://it.talent.com/view?id=607373979488687569&amp;utm_campaign=google_jobs_apply&amp;utm_source=google_jobs_apply&amp;utm_medium=organic</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -1978,12 +1978,12 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Specialista HR — Recruiting &amp; Formazione (Somministrazione)</t>
+          <t>Assistente HR : Onboarding e Admin, Tempo pieno</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Altro</t>
+          <t>F.F. Group</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2001,7 +2001,7 @@
       <c r="G43" t="inlineStr"/>
       <c r="H43" s="2" t="inlineStr">
         <is>
-          <t>https://it.talent.com/view?id=607442465261162642&amp;utm_campaign=google_jobs_apply&amp;utm_source=google_jobs_apply&amp;utm_medium=organic</t>
+          <t>https://it.talent.com/view?id=607444714606177399&amp;utm_campaign=google_jobs_apply&amp;utm_source=google_jobs_apply&amp;utm_medium=organic</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -2013,7 +2013,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Junior Impiegata Risorse Umane – Amministrazione</t>
+          <t>Specialista HR — Recruiting &amp; Formazione (Somministrazione)</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -2036,7 +2036,7 @@
       <c r="G44" t="inlineStr"/>
       <c r="H44" s="2" t="inlineStr">
         <is>
-          <t>https://it.talent.com/view?id=607479690392442321&amp;utm_campaign=google_jobs_apply&amp;utm_source=google_jobs_apply&amp;utm_medium=organic</t>
+          <t>https://it.talent.com/view?id=607442465261162642&amp;utm_campaign=google_jobs_apply&amp;utm_source=google_jobs_apply&amp;utm_medium=organic</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -2048,12 +2048,12 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Impiegato / a Risorse Umane – Gestione e Sviluppo del Personale</t>
+          <t>Junior Impiegata Risorse Umane – Amministrazione</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Silver</t>
+          <t>Altro</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2066,16 +2066,12 @@
           <t>Rome, Metropolitan City of Rome Capital, Italy</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>fulltime</t>
-        </is>
-      </c>
+      <c r="E45" t="inlineStr"/>
       <c r="F45" t="inlineStr"/>
       <c r="G45" t="inlineStr"/>
       <c r="H45" s="2" t="inlineStr">
         <is>
-          <t>https://it.talent.com/view?id=607374424189708155&amp;utm_campaign=google_jobs_apply&amp;utm_source=google_jobs_apply&amp;utm_medium=organic</t>
+          <t>https://it.talent.com/view?id=607479690392442321&amp;utm_campaign=google_jobs_apply&amp;utm_source=google_jobs_apply&amp;utm_medium=organic</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -2087,12 +2083,12 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Responsabile HR: Sviluppo Talent, Formazione</t>
+          <t>Impiegato / a Risorse Umane – Gestione e Sviluppo del Personale</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>SH</t>
+          <t>Silver</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2105,12 +2101,16 @@
           <t>Rome, Metropolitan City of Rome Capital, Italy</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr"/>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>fulltime</t>
+        </is>
+      </c>
       <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr"/>
       <c r="H46" s="2" t="inlineStr">
         <is>
-          <t>https://it.trabajo.org/offerta-1906-83dc836da756f2e1b32b28843444fb16?utm_campaign=google_jobs_apply&amp;utm_source=google_jobs_apply&amp;utm_medium=organic</t>
+          <t>https://it.talent.com/view?id=607374424189708155&amp;utm_campaign=google_jobs_apply&amp;utm_source=google_jobs_apply&amp;utm_medium=organic</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -2122,12 +2122,12 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Impiegato HR – Amministrazione Risorse Umane &amp; Recruiting</t>
+          <t>Responsabile HR: Sviluppo Talent, Formazione</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Altro</t>
+          <t>SH</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2145,7 +2145,7 @@
       <c r="G47" t="inlineStr"/>
       <c r="H47" s="2" t="inlineStr">
         <is>
-          <t>https://it.talent.com/view?id=607479665061926353&amp;utm_campaign=google_jobs_apply&amp;utm_source=google_jobs_apply&amp;utm_medium=organic</t>
+          <t>https://it.trabajo.org/offerta-1906-83dc836da756f2e1b32b28843444fb16?utm_campaign=google_jobs_apply&amp;utm_source=google_jobs_apply&amp;utm_medium=organic</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -2157,12 +2157,12 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Impiegata Risorse Umane</t>
+          <t>Impiegato HR – Amministrazione Risorse Umane &amp; Recruiting</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Cies</t>
+          <t>Altro</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2180,7 +2180,7 @@
       <c r="G48" t="inlineStr"/>
       <c r="H48" s="2" t="inlineStr">
         <is>
-          <t>https://www.sercanto.it/detail/a/impiegata-risorse-umane_roma_468310701?utm_campaign=google_jobs_apply&amp;utm_source=google_jobs_apply&amp;utm_medium=organic</t>
+          <t>https://it.talent.com/view?id=607479665061926353&amp;utm_campaign=google_jobs_apply&amp;utm_source=google_jobs_apply&amp;utm_medium=organic</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -2192,12 +2192,12 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Responsabile HR in sede – sviluppo talento</t>
+          <t>Impiegata Risorse Umane</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Marco Ronci</t>
+          <t>Cies</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2215,7 +2215,7 @@
       <c r="G49" t="inlineStr"/>
       <c r="H49" s="2" t="inlineStr">
         <is>
-          <t>https://it.trabajo.org/offerta-1941-bae1078dbb28f248d3dba7c818a9d336?utm_campaign=google_jobs_apply&amp;utm_source=google_jobs_apply&amp;utm_medium=organic</t>
+          <t>https://www.sercanto.it/detail/a/impiegata-risorse-umane_roma_468310701?utm_campaign=google_jobs_apply&amp;utm_source=google_jobs_apply&amp;utm_medium=organic</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -2227,12 +2227,12 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Assistente HR : Selezione e Inserimento Risorse</t>
+          <t>Responsabile HR in sede – sviluppo talento</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Altro</t>
+          <t>Marco Ronci</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2245,16 +2245,12 @@
           <t>Rome, Metropolitan City of Rome Capital, Italy</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>fulltime</t>
-        </is>
-      </c>
+      <c r="E50" t="inlineStr"/>
       <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr"/>
       <c r="H50" s="2" t="inlineStr">
         <is>
-          <t>https://it.talent.com/view?id=607442463424909458&amp;utm_campaign=google_jobs_apply&amp;utm_source=google_jobs_apply&amp;utm_medium=organic</t>
+          <t>https://it.trabajo.org/offerta-1941-bae1078dbb28f248d3dba7c818a9d336?utm_campaign=google_jobs_apply&amp;utm_source=google_jobs_apply&amp;utm_medium=organic</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -2266,7 +2262,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>ID : P978C10 - 1 Addetti alla gestione del personale</t>
+          <t>Assistente HR : Selezione e Inserimento Risorse</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2284,12 +2280,16 @@
           <t>Rome, Metropolitan City of Rome Capital, Italy</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr"/>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>fulltime</t>
+        </is>
+      </c>
       <c r="F51" t="inlineStr"/>
       <c r="G51" t="inlineStr"/>
       <c r="H51" s="2" t="inlineStr">
         <is>
-          <t>https://it.talent.com/view?id=607442459318816914&amp;utm_campaign=google_jobs_apply&amp;utm_source=google_jobs_apply&amp;utm_medium=organic</t>
+          <t>https://it.talent.com/view?id=607442463424909458&amp;utm_campaign=google_jobs_apply&amp;utm_source=google_jobs_apply&amp;utm_medium=organic</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -2301,12 +2301,12 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Responsabile HR – Supporto alle Imprese</t>
+          <t>ID : P978C10 - 1 Addetti alla gestione del personale</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Con-way</t>
+          <t>Altro</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2319,16 +2319,12 @@
           <t>Rome, Metropolitan City of Rome Capital, Italy</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>fulltime</t>
-        </is>
-      </c>
+      <c r="E52" t="inlineStr"/>
       <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr"/>
       <c r="H52" s="2" t="inlineStr">
         <is>
-          <t>https://it.trabajo.org/offerta-1906-87df0134a7ebe58f60167de6f980eb49?utm_campaign=google_jobs_apply&amp;utm_source=google_jobs_apply&amp;utm_medium=organic</t>
+          <t>https://it.talent.com/view?id=607442459318816914&amp;utm_campaign=google_jobs_apply&amp;utm_source=google_jobs_apply&amp;utm_medium=organic</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -2340,12 +2336,12 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Responsabile HR nel GDO - Tempo Pieno, Ticket</t>
+          <t>Responsabile HR – Supporto alle Imprese</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Impiegando.com</t>
+          <t>Con-way</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2358,12 +2354,16 @@
           <t>Rome, Metropolitan City of Rome Capital, Italy</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr"/>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>fulltime</t>
+        </is>
+      </c>
       <c r="F53" t="inlineStr"/>
       <c r="G53" t="inlineStr"/>
       <c r="H53" s="2" t="inlineStr">
         <is>
-          <t>https://it.talent.com/view?id=607479672187917777&amp;utm_campaign=google_jobs_apply&amp;utm_source=google_jobs_apply&amp;utm_medium=organic</t>
+          <t>https://it.trabajo.org/offerta-1906-87df0134a7ebe58f60167de6f980eb49?utm_campaign=google_jobs_apply&amp;utm_source=google_jobs_apply&amp;utm_medium=organic</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -2375,12 +2375,12 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Specialist HR Services (m / f / x)</t>
+          <t>Responsabile HR nel GDO - Tempo Pieno, Ticket</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Roechling Industrial (Singapore) Pte Ltd</t>
+          <t>Impiegando.com</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2398,24 +2398,24 @@
       <c r="G54" t="inlineStr"/>
       <c r="H54" s="2" t="inlineStr">
         <is>
-          <t>https://it.talent.com/view?id=607476489936381819&amp;utm_campaign=google_jobs_apply&amp;utm_source=google_jobs_apply&amp;utm_medium=organic</t>
+          <t>https://it.talent.com/view?id=607479672187917777&amp;utm_campaign=google_jobs_apply&amp;utm_source=google_jobs_apply&amp;utm_medium=organic</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>2026-02-21</t>
+          <t>2026-02-20</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>stage commerciale ambito risorse umane</t>
+          <t>Specialist HR Services (m / f / x)</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>AxL Agenzia per il Lavoro</t>
+          <t>Roechling Industrial (Singapore) Pte Ltd</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2433,7 +2433,7 @@
       <c r="G55" t="inlineStr"/>
       <c r="H55" s="2" t="inlineStr">
         <is>
-          <t>https://it.bebee.com/job/391cbdc48b94462e85288152ff459300?utm_campaign=google_jobs_apply&amp;utm_source=google_jobs_apply&amp;utm_medium=organic</t>
+          <t>https://it.talent.com/view?id=607476489936381819&amp;utm_campaign=google_jobs_apply&amp;utm_source=google_jobs_apply&amp;utm_medium=organic</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -2445,12 +2445,12 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Specialista Risorse Umane: Recruiting e Formazione</t>
+          <t>stage commerciale ambito risorse umane</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Adecco filiale di cantù</t>
+          <t>AxL Agenzia per il Lavoro</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -2468,7 +2468,7 @@
       <c r="G56" t="inlineStr"/>
       <c r="H56" s="2" t="inlineStr">
         <is>
-          <t>https://it.bebee.com/job/d847c0f3bc0a0fac8ed00e506d190d97?utm_campaign=google_jobs_apply&amp;utm_source=google_jobs_apply&amp;utm_medium=organic</t>
+          <t>https://it.bebee.com/job/391cbdc48b94462e85288152ff459300?utm_campaign=google_jobs_apply&amp;utm_source=google_jobs_apply&amp;utm_medium=organic</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
@@ -2480,12 +2480,12 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Stage HR Retail: Crescita Professionale e Benessere</t>
+          <t>Specialista Risorse Umane: Recruiting e Formazione</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Leroy Merlin Italia</t>
+          <t>Adecco filiale di cantù</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -2503,7 +2503,7 @@
       <c r="G57" t="inlineStr"/>
       <c r="H57" s="2" t="inlineStr">
         <is>
-          <t>https://it.jooble.org/jdp/-4206049375996661611?utm_campaign=google_jobs_apply&amp;utm_source=google_jobs_apply&amp;utm_medium=organic</t>
+          <t>https://it.bebee.com/job/d847c0f3bc0a0fac8ed00e506d190d97?utm_campaign=google_jobs_apply&amp;utm_source=google_jobs_apply&amp;utm_medium=organic</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
@@ -2515,12 +2515,12 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Addetto / a Area Risorse Umane – Settore Beni a Largo Consumo</t>
+          <t>Stage HR Retail: Crescita Professionale e Benessere</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>C.S.S. Group</t>
+          <t>Leroy Merlin Italia</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -2538,7 +2538,7 @@
       <c r="G58" t="inlineStr"/>
       <c r="H58" s="2" t="inlineStr">
         <is>
-          <t>https://it.talent.com/view?id=607479664643347921&amp;utm_campaign=google_jobs_apply&amp;utm_source=google_jobs_apply&amp;utm_medium=organic</t>
+          <t>https://it.jooble.org/jdp/-4206049375996661611?utm_campaign=google_jobs_apply&amp;utm_source=google_jobs_apply&amp;utm_medium=organic</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -2550,12 +2550,12 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Impiegato / a gestione del personale | Settore Alimentare</t>
+          <t>Addetto / a Area Risorse Umane – Settore Beni a Largo Consumo</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Altro</t>
+          <t>C.S.S. Group</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -2568,16 +2568,12 @@
           <t>Rome, Metropolitan City of Rome Capital, Italy</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>fulltime</t>
-        </is>
-      </c>
+      <c r="E59" t="inlineStr"/>
       <c r="F59" t="inlineStr"/>
       <c r="G59" t="inlineStr"/>
       <c r="H59" s="2" t="inlineStr">
         <is>
-          <t>https://it.talent.com/view?id=607476474198697851&amp;utm_campaign=google_jobs_apply&amp;utm_source=google_jobs_apply&amp;utm_medium=organic</t>
+          <t>https://it.talent.com/view?id=607479664643347921&amp;utm_campaign=google_jobs_apply&amp;utm_source=google_jobs_apply&amp;utm_medium=organic</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
@@ -2589,12 +2585,12 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Stage Risorse Umane: Formazione, Crescita e Impatto</t>
+          <t>Impiegato / a gestione del personale | Settore Alimentare</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Clayton Italia</t>
+          <t>Altro</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -2607,12 +2603,16 @@
           <t>Rome, Metropolitan City of Rome Capital, Italy</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr"/>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>fulltime</t>
+        </is>
+      </c>
       <c r="F60" t="inlineStr"/>
       <c r="G60" t="inlineStr"/>
       <c r="H60" s="2" t="inlineStr">
         <is>
-          <t>https://it.bebee.com/job/6928d09e5c357d17576521b1c92e0643?utm_campaign=google_jobs_apply&amp;utm_source=google_jobs_apply&amp;utm_medium=organic</t>
+          <t>https://it.talent.com/view?id=607476474198697851&amp;utm_campaign=google_jobs_apply&amp;utm_source=google_jobs_apply&amp;utm_medium=organic</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
@@ -2624,12 +2624,12 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>HR Specialist Finanza – Amministrazione Risorse Umane</t>
+          <t>Stage Risorse Umane: Formazione, Crescita e Impatto</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>key-absolute</t>
+          <t>Clayton Italia</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -2647,7 +2647,7 @@
       <c r="G61" t="inlineStr"/>
       <c r="H61" s="2" t="inlineStr">
         <is>
-          <t>https://it.talent.com/view?id=607543948907719799&amp;utm_campaign=google_jobs_apply&amp;utm_source=google_jobs_apply&amp;utm_medium=organic</t>
+          <t>https://it.bebee.com/job/6928d09e5c357d17576521b1c92e0643?utm_campaign=google_jobs_apply&amp;utm_source=google_jobs_apply&amp;utm_medium=organic</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
@@ -2659,12 +2659,12 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Addetto / a Risorse Umane – Struttura GDO</t>
+          <t>HR Specialist Finanza – Amministrazione Risorse Umane</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Team opportunity</t>
+          <t>key-absolute</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -2677,16 +2677,12 @@
           <t>Rome, Metropolitan City of Rome Capital, Italy</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>fulltime</t>
-        </is>
-      </c>
+      <c r="E62" t="inlineStr"/>
       <c r="F62" t="inlineStr"/>
       <c r="G62" t="inlineStr"/>
       <c r="H62" s="2" t="inlineStr">
         <is>
-          <t>https://it.talent.com/view?id=607545779113562258&amp;utm_campaign=google_jobs_apply&amp;utm_source=google_jobs_apply&amp;utm_medium=organic</t>
+          <t>https://it.talent.com/view?id=607543948907719799&amp;utm_campaign=google_jobs_apply&amp;utm_source=google_jobs_apply&amp;utm_medium=organic</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
@@ -2698,12 +2694,12 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Responsabile HR - Settore Benessere</t>
+          <t>Addetto / a Risorse Umane – Struttura GDO</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Mcc service</t>
+          <t>Team opportunity</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -2716,12 +2712,16 @@
           <t>Rome, Metropolitan City of Rome Capital, Italy</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr"/>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>fulltime</t>
+        </is>
+      </c>
       <c r="F63" t="inlineStr"/>
       <c r="G63" t="inlineStr"/>
       <c r="H63" s="2" t="inlineStr">
         <is>
-          <t>https://it.talent.com/view?id=607544007413804151&amp;utm_campaign=google_jobs_apply&amp;utm_source=google_jobs_apply&amp;utm_medium=organic</t>
+          <t>https://it.talent.com/view?id=607545779113562258&amp;utm_campaign=google_jobs_apply&amp;utm_source=google_jobs_apply&amp;utm_medium=organic</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
@@ -2733,12 +2733,12 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Verona Hr Recruiter – Full‑time Talent Acquisition</t>
+          <t>Responsabile HR - Settore Benessere</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>SPP S.r.l.</t>
+          <t>Mcc service</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -2756,24 +2756,24 @@
       <c r="G64" t="inlineStr"/>
       <c r="H64" s="2" t="inlineStr">
         <is>
-          <t>https://it.jobtome.com/offertalavoro/verona-hr-recruiter-fulltime-talent-acquisition/24cb5836e437882f5369cbc4537d1a90?utm_campaign=google_jobs_apply&amp;utm_source=google_jobs_apply&amp;utm_medium=organic</t>
+          <t>https://it.talent.com/view?id=607544007413804151&amp;utm_campaign=google_jobs_apply&amp;utm_source=google_jobs_apply&amp;utm_medium=organic</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>2026-02-22</t>
+          <t>2026-02-21</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Human Resources Generalist</t>
+          <t>Verona Hr Recruiter – Full‑time Talent Acquisition</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>CATL</t>
+          <t>SPP S.r.l.</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -2791,24 +2791,24 @@
       <c r="G65" t="inlineStr"/>
       <c r="H65" s="2" t="inlineStr">
         <is>
-          <t>https://it.jooble.org/jdp/-5790017912814719256?utm_campaign=google_jobs_apply&amp;utm_source=google_jobs_apply&amp;utm_medium=organic</t>
+          <t>https://it.jobtome.com/offertalavoro/verona-hr-recruiter-fulltime-talent-acquisition/24cb5836e437882f5369cbc4537d1a90?utm_campaign=google_jobs_apply&amp;utm_source=google_jobs_apply&amp;utm_medium=organic</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>2026-02-23</t>
+          <t>2026-02-22</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Talent Acquisition Specialist - Fixed Term (Maternity Cover)</t>
+          <t>Human Resources Generalist</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Human Value</t>
+          <t>CATL</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -2826,7 +2826,7 @@
       <c r="G66" t="inlineStr"/>
       <c r="H66" s="2" t="inlineStr">
         <is>
-          <t>https://it.talent.com/view?id=607936996473373928&amp;utm_campaign=google_jobs_apply&amp;utm_source=google_jobs_apply&amp;utm_medium=organic</t>
+          <t>https://it.jooble.org/jdp/-5790017912814719256?utm_campaign=google_jobs_apply&amp;utm_source=google_jobs_apply&amp;utm_medium=organic</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
@@ -2838,12 +2838,12 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Addetta Per Ufficio Risorse Umane Full Time</t>
+          <t>Talent Acquisition Specialist - Fixed Term (Maternity Cover)</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Impiegando.com</t>
+          <t>Human Value</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -2856,16 +2856,12 @@
           <t>Rome, Metropolitan City of Rome Capital, Italy</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>fulltime</t>
-        </is>
-      </c>
+      <c r="E67" t="inlineStr"/>
       <c r="F67" t="inlineStr"/>
       <c r="G67" t="inlineStr"/>
       <c r="H67" s="2" t="inlineStr">
         <is>
-          <t>https://it.jooble.org/rjdp/1146021212775634036?utm_campaign=google_jobs_apply&amp;utm_source=google_jobs_apply&amp;utm_medium=organic</t>
+          <t>https://it.talent.com/view?id=607936996473373928&amp;utm_campaign=google_jobs_apply&amp;utm_source=google_jobs_apply&amp;utm_medium=organic</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
@@ -2877,12 +2873,12 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>HR Controller (P.iva - Full remote)</t>
+          <t>Addetta Per Ufficio Risorse Umane Full Time</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Grafton Recruitment</t>
+          <t>Impiegando.com</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -2897,14 +2893,14 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>contract</t>
+          <t>fulltime</t>
         </is>
       </c>
       <c r="F68" t="inlineStr"/>
       <c r="G68" t="inlineStr"/>
       <c r="H68" s="2" t="inlineStr">
         <is>
-          <t>https://it.linkedin.com/jobs/view/hr-controller-p-iva-full-remote-at-grafton-recruitment-4374277913?utm_campaign=google_jobs_apply&amp;utm_source=google_jobs_apply&amp;utm_medium=organic</t>
+          <t>https://it.jooble.org/rjdp/1146021212775634036?utm_campaign=google_jobs_apply&amp;utm_source=google_jobs_apply&amp;utm_medium=organic</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
@@ -2916,12 +2912,12 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>HR specialist</t>
+          <t>HR Controller (P.iva - Full remote)</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>HOLDING LAVORO</t>
+          <t>Grafton Recruitment</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -2936,14 +2932,14 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>fulltime</t>
+          <t>contract</t>
         </is>
       </c>
       <c r="F69" t="inlineStr"/>
       <c r="G69" t="inlineStr"/>
       <c r="H69" s="2" t="inlineStr">
         <is>
-          <t>https://www.applavoro.it/annuncio-holding-lavoro-ricerca-hr-spec-25956?utm_campaign=google_jobs_apply&amp;utm_source=google_jobs_apply&amp;utm_medium=organic</t>
+          <t>https://it.linkedin.com/jobs/view/hr-controller-p-iva-full-remote-at-grafton-recruitment-4374277913?utm_campaign=google_jobs_apply&amp;utm_source=google_jobs_apply&amp;utm_medium=organic</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
@@ -2955,12 +2951,12 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Direttore Risorse Umane Retail Roma (Italia)</t>
+          <t>HR specialist</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>SGB Humangest Holding</t>
+          <t>HOLDING LAVORO</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -2973,29 +2969,33 @@
           <t>Rome, Metropolitan City of Rome Capital, Italy</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr"/>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>fulltime</t>
+        </is>
+      </c>
       <c r="F70" t="inlineStr"/>
       <c r="G70" t="inlineStr"/>
       <c r="H70" s="2" t="inlineStr">
         <is>
-          <t>https://www.jobijoba.it/annunci-di-lavoro/13/a385df95cd756fabb68fd01a351e63b8?utm_campaign=google_jobs_apply&amp;utm_source=google_jobs_apply&amp;utm_medium=organic</t>
+          <t>https://www.applavoro.it/annuncio-holding-lavoro-ricerca-hr-spec-25956?utm_campaign=google_jobs_apply&amp;utm_source=google_jobs_apply&amp;utm_medium=organic</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>2026-02-24</t>
+          <t>2026-02-23</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Addetto HR - settore gestione rapporto di lavoro</t>
+          <t>Direttore Risorse Umane Retail Roma (Italia)</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Fondazione Policlinico Universitario Agostino Gemelli IRCCS</t>
+          <t>SGB Humangest Holding</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3013,7 +3013,7 @@
       <c r="G71" t="inlineStr"/>
       <c r="H71" s="2" t="inlineStr">
         <is>
-          <t>https://it.linkedin.com/jobs/view/addetto-hr-settore-gestione-rapporto-di-lavoro-at-fondazione-policlinico-universitario-agostino-gemelli-irccs-4377160921?utm_campaign=google_jobs_apply&amp;utm_source=google_jobs_apply&amp;utm_medium=organic</t>
+          <t>https://www.jobijoba.it/annunci-di-lavoro/13/a385df95cd756fabb68fd01a351e63b8?utm_campaign=google_jobs_apply&amp;utm_source=google_jobs_apply&amp;utm_medium=organic</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
@@ -3025,12 +3025,12 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Responsabile Payroll &amp; HR Admin – End-to-End Payroll</t>
+          <t>Addetto HR - settore gestione rapporto di lavoro</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>EOLO</t>
+          <t>Fondazione Policlinico Universitario Agostino Gemelli IRCCS</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3048,7 +3048,7 @@
       <c r="G72" t="inlineStr"/>
       <c r="H72" s="2" t="inlineStr">
         <is>
-          <t>https://it.talent.com/view?id=608048326287692797&amp;utm_campaign=google_jobs_apply&amp;utm_source=google_jobs_apply&amp;utm_medium=organic</t>
+          <t>https://it.linkedin.com/jobs/view/addetto-hr-settore-gestione-rapporto-di-lavoro-at-fondazione-policlinico-universitario-agostino-gemelli-irccs-4377160921?utm_campaign=google_jobs_apply&amp;utm_source=google_jobs_apply&amp;utm_medium=organic</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
@@ -3060,12 +3060,12 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Addetto Risorse Umane – Amministrazione, Formazione Continua</t>
+          <t>Responsabile Payroll &amp; HR Admin – End-to-End Payroll</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>key-absolute</t>
+          <t>EOLO</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3083,24 +3083,24 @@
       <c r="G73" t="inlineStr"/>
       <c r="H73" s="2" t="inlineStr">
         <is>
-          <t>https://it.bebee.com/job/e4b8878db273f8ff2dcbc4b7c951f43a?utm_campaign=google_jobs_apply&amp;utm_source=google_jobs_apply&amp;utm_medium=organic</t>
+          <t>https://it.talent.com/view?id=608048326287692797&amp;utm_campaign=google_jobs_apply&amp;utm_source=google_jobs_apply&amp;utm_medium=organic</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>2026-02-26</t>
+          <t>2026-02-24</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Hr Manager Sede Puglia</t>
+          <t>Addetto Risorse Umane – Amministrazione, Formazione Continua</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Taskforce</t>
+          <t>key-absolute</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3118,7 +3118,7 @@
       <c r="G74" t="inlineStr"/>
       <c r="H74" s="2" t="inlineStr">
         <is>
-          <t>https://it.jobtome.com/offertalavoro/hr-manager-sede-puglia/4c2950f9af80e1a7971160809db694a8?utm_campaign=google_jobs_apply&amp;utm_source=google_jobs_apply&amp;utm_medium=organic</t>
+          <t>https://it.bebee.com/job/e4b8878db273f8ff2dcbc4b7c951f43a?utm_campaign=google_jobs_apply&amp;utm_source=google_jobs_apply&amp;utm_medium=organic</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
@@ -3130,12 +3130,12 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Risorse umane</t>
+          <t>Hr Manager Sede Puglia</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Gi Group</t>
+          <t>Taskforce</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3153,7 +3153,7 @@
       <c r="G75" t="inlineStr"/>
       <c r="H75" s="2" t="inlineStr">
         <is>
-          <t>https://it.bebee.com/job/3ae61d173fc418ada1026f252496f095?utm_campaign=google_jobs_apply&amp;utm_source=google_jobs_apply&amp;utm_medium=organic</t>
+          <t>https://it.jobtome.com/offertalavoro/hr-manager-sede-puglia/4c2950f9af80e1a7971160809db694a8?utm_campaign=google_jobs_apply&amp;utm_source=google_jobs_apply&amp;utm_medium=organic</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
@@ -3165,12 +3165,12 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Responsabile Risorse Umane- Hr Manager - 40.000 All'Anno</t>
+          <t>Risorse umane</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>AxL Agenzia per il Lavoro</t>
+          <t>Gi Group</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3188,7 +3188,7 @@
       <c r="G76" t="inlineStr"/>
       <c r="H76" s="2" t="inlineStr">
         <is>
-          <t>https://it.bebee.com/job/2e37a634997f23d5a993e18555fc30c1?utm_campaign=google_jobs_apply&amp;utm_source=google_jobs_apply&amp;utm_medium=organic</t>
+          <t>https://it.bebee.com/job/3ae61d173fc418ada1026f252496f095?utm_campaign=google_jobs_apply&amp;utm_source=google_jobs_apply&amp;utm_medium=organic</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
@@ -3200,12 +3200,12 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Stageur risorse umane</t>
+          <t>Responsabile Risorse Umane- Hr Manager - 40.000 All'Anno</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>RES</t>
+          <t>AxL Agenzia per il Lavoro</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -3218,43 +3218,39 @@
           <t>Rome, Metropolitan City of Rome Capital, Italy</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>fulltime</t>
-        </is>
-      </c>
+      <c r="E77" t="inlineStr"/>
       <c r="F77" t="inlineStr"/>
       <c r="G77" t="inlineStr"/>
       <c r="H77" s="2" t="inlineStr">
         <is>
-          <t>https://it.bebee.com/job/058ac8b74095985bbf74a0e0e95948a4?utm_campaign=google_jobs_apply&amp;utm_source=google_jobs_apply&amp;utm_medium=organic</t>
+          <t>https://it.bebee.com/job/2e37a634997f23d5a993e18555fc30c1?utm_campaign=google_jobs_apply&amp;utm_source=google_jobs_apply&amp;utm_medium=organic</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>2026-02-27</t>
+          <t>2026-02-26</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>NUOVA SELEZIONE | Inserimento FULL TIME</t>
+          <t>Stageur risorse umane</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Globe MKD</t>
+          <t>RES</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>indeed</t>
+          <t>google</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Roma, LAZ, IT</t>
+          <t>Rome, Metropolitan City of Rome Capital, Italy</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -3266,24 +3262,24 @@
       <c r="G78" t="inlineStr"/>
       <c r="H78" s="2" t="inlineStr">
         <is>
-          <t>https://it.indeed.com/viewjob?jk=9e5330e635ff16f6</t>
+          <t>https://it.bebee.com/job/058ac8b74095985bbf74a0e0e95948a4?utm_campaign=google_jobs_apply&amp;utm_source=google_jobs_apply&amp;utm_medium=organic</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>2026-02-28</t>
+          <t>2026-02-27</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Responsabile Ufficio Acquisti, Roma</t>
+          <t>NUOVA SELEZIONE | Inserimento FULL TIME</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>CONSORZIO STABILE LGA SERVICE</t>
+          <t>Globe MKD</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -3305,7 +3301,7 @@
       <c r="G79" t="inlineStr"/>
       <c r="H79" s="2" t="inlineStr">
         <is>
-          <t>https://it.indeed.com/viewjob?jk=6cec135eda7cfb8a</t>
+          <t>https://it.indeed.com/viewjob?jk=9e5330e635ff16f6</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
@@ -3317,12 +3313,12 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Città di ROMA // TEMPO PIENO // Disponibilità da Lunedì a Venerdì //</t>
+          <t>Responsabile Ufficio Acquisti, Roma</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Globe MKD</t>
+          <t>CONSORZIO STABILE LGA SERVICE</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -3337,14 +3333,14 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>fulltime, internship</t>
+          <t>fulltime</t>
         </is>
       </c>
       <c r="F80" t="inlineStr"/>
       <c r="G80" t="inlineStr"/>
       <c r="H80" s="2" t="inlineStr">
         <is>
-          <t>https://it.indeed.com/viewjob?jk=2c2fa406fa491541</t>
+          <t>https://it.indeed.com/viewjob?jk=6cec135eda7cfb8a</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
@@ -3356,12 +3352,12 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Area Manager, FC Operations</t>
+          <t>Città di ROMA // TEMPO PIENO // Disponibilità da Lunedì a Venerdì //</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Amazon.com</t>
+          <t>Globe MKD</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -3371,31 +3367,31 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Passo Corese, LAZ, IT</t>
+          <t>Roma, LAZ, IT</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>fulltime</t>
+          <t>fulltime, internship</t>
         </is>
       </c>
       <c r="F81" t="inlineStr"/>
       <c r="G81" t="inlineStr"/>
       <c r="H81" s="2" t="inlineStr">
         <is>
-          <t>https://it.indeed.com/viewjob?jk=1447bfa75bfc3058</t>
+          <t>https://it.indeed.com/viewjob?jk=2c2fa406fa491541</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>2026-01-28</t>
+          <t>2026-02-28</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Military - Area Manager - Italy</t>
+          <t>Area Manager, FC Operations</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -3410,7 +3406,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Colleferro, LAZ, IT</t>
+          <t>Passo Corese, LAZ, IT</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -3422,24 +3418,24 @@
       <c r="G82" t="inlineStr"/>
       <c r="H82" s="2" t="inlineStr">
         <is>
-          <t>https://it.indeed.com/viewjob?jk=5bf598daeedf29dc</t>
+          <t>https://it.indeed.com/viewjob?jk=1447bfa75bfc3058</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>2026-02-20</t>
+          <t>2026-01-28</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Account Manager – PR Agency (Roma)</t>
+          <t>Military - Area Manager - Italy</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Spencer &amp; Lewis</t>
+          <t>Amazon.com</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -3449,7 +3445,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Roma, LAZ, IT</t>
+          <t>Colleferro, LAZ, IT</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -3461,24 +3457,24 @@
       <c r="G83" t="inlineStr"/>
       <c r="H83" s="2" t="inlineStr">
         <is>
-          <t>https://it.indeed.com/viewjob?jk=5e9f91bbcc822045</t>
+          <t>https://it.indeed.com/viewjob?jk=5bf598daeedf29dc</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>2026-02-26</t>
+          <t>2026-02-20</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Account Manager – International Advertising Agency (Roma)</t>
+          <t>Account Manager – PR Agency (Roma)</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Studio Futuroma</t>
+          <t>Spencer &amp; Lewis</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -3500,7 +3496,7 @@
       <c r="G84" t="inlineStr"/>
       <c r="H84" s="2" t="inlineStr">
         <is>
-          <t>https://it.indeed.com/viewjob?jk=fab2c241c5db9fcb</t>
+          <t>https://it.indeed.com/viewjob?jk=5e9f91bbcc822045</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
@@ -3512,12 +3508,12 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Conferimento, per titoli e colloquio, dell'incarico quinquennale eventualmente rinnovabile di direttore della UOC Servizio igiene alimenti e nutrizione, del Dipartimento di prevenzione, a tempo determinato.</t>
+          <t>Account Manager – International Advertising Agency (Roma)</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>AZIENDA SANITARIA LOCALE ROMA 3 DI ROMA</t>
+          <t>Studio Futuroma</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -3530,29 +3526,33 @@
           <t>Roma, LAZ, IT</t>
         </is>
       </c>
-      <c r="E85" t="inlineStr"/>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>fulltime</t>
+        </is>
+      </c>
       <c r="F85" t="inlineStr"/>
       <c r="G85" t="inlineStr"/>
       <c r="H85" s="2" t="inlineStr">
         <is>
-          <t>https://it.indeed.com/viewjob?jk=1cb53341ebb8e30f</t>
+          <t>https://it.indeed.com/viewjob?jk=fab2c241c5db9fcb</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>2026-02-24</t>
+          <t>2026-02-26</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Conferimento dell'incarico quinquennale di direttore dell'unita' operativa complessa Ortopedia e traumatologia Ospedale Anzio-Nettuno.</t>
+          <t>Conferimento, per titoli e colloquio, dell'incarico quinquennale eventualmente rinnovabile di direttore della UOC Servizio igiene alimenti e nutrizione, del Dipartimento di prevenzione, a tempo determinato.</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>AZIENDA SANITARIA LOCALE ROMA 6 - ALBANO LAZIALE</t>
+          <t>AZIENDA SANITARIA LOCALE ROMA 3 DI ROMA</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -3562,7 +3562,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Albano Laziale, LAZ, IT</t>
+          <t>Roma, LAZ, IT</t>
         </is>
       </c>
       <c r="E86" t="inlineStr"/>
@@ -3570,24 +3570,24 @@
       <c r="G86" t="inlineStr"/>
       <c r="H86" s="2" t="inlineStr">
         <is>
-          <t>https://it.indeed.com/viewjob?jk=6dc2741e055d401b</t>
+          <t>https://it.indeed.com/viewjob?jk=1cb53341ebb8e30f</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>2026-02-27</t>
+          <t>2026-02-24</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Safety &amp; Security Audit Specialist - Roma</t>
+          <t>Conferimento dell'incarico quinquennale di direttore dell'unita' operativa complessa Ortopedia e traumatologia Ospedale Anzio-Nettuno.</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>VOIhotels</t>
+          <t>AZIENDA SANITARIA LOCALE ROMA 6 - ALBANO LAZIALE</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -3597,7 +3597,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Roma, LAZ, IT</t>
+          <t>Albano Laziale, LAZ, IT</t>
         </is>
       </c>
       <c r="E87" t="inlineStr"/>
@@ -3605,34 +3605,34 @@
       <c r="G87" t="inlineStr"/>
       <c r="H87" s="2" t="inlineStr">
         <is>
-          <t>https://it.indeed.com/viewjob?jk=20ea5a0e6f4a363f</t>
+          <t>https://it.indeed.com/viewjob?jk=6dc2741e055d401b</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>2026-02-23</t>
+          <t>2026-02-27</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Product People Partnering Trainee</t>
+          <t>Safety &amp; Security Audit Specialist - Roma</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Sisal</t>
+          <t>VOIhotels</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>linkedin</t>
+          <t>indeed</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Rome, Latium, Italy</t>
+          <t>Roma, LAZ, IT</t>
         </is>
       </c>
       <c r="E88" t="inlineStr"/>
@@ -3640,59 +3640,55 @@
       <c r="G88" t="inlineStr"/>
       <c r="H88" s="2" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/4379235976</t>
-        </is>
-      </c>
-      <c r="I88" t="inlineStr"/>
+          <t>https://it.indeed.com/viewjob?jk=20ea5a0e6f4a363f</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>2026-02-23</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Specialista paghe e contributi - Roma Tor Vergata</t>
+          <t>Product People Partnering Trainee</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>SPP Agenzia per il Lavoro</t>
+          <t>Sisal</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>indeed</t>
+          <t>linkedin</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Roma, LAZ, IT</t>
-        </is>
-      </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>fulltime</t>
-        </is>
-      </c>
+          <t>Rome, Latium, Italy</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr"/>
       <c r="F89" t="inlineStr"/>
       <c r="G89" t="inlineStr"/>
       <c r="H89" s="2" t="inlineStr">
         <is>
-          <t>https://it.indeed.com/viewjob?jk=b458a4e356c8160f</t>
-        </is>
-      </c>
-      <c r="I89" t="inlineStr">
-        <is>
-          <t>2026-02-23</t>
-        </is>
-      </c>
+          <t>https://www.linkedin.com/jobs/view/4379235976</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>CYS - GCAP Joint Venture Headquarters - Digital Adoption &amp; Capability Manager</t>
+          <t>Specialista paghe e contributi - Roma Tor Vergata</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Leonardo</t>
+          <t>SPP Agenzia per il Lavoro</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -3705,12 +3701,16 @@
           <t>Roma, LAZ, IT</t>
         </is>
       </c>
-      <c r="E90" t="inlineStr"/>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>fulltime</t>
+        </is>
+      </c>
       <c r="F90" t="inlineStr"/>
       <c r="G90" t="inlineStr"/>
       <c r="H90" s="2" t="inlineStr">
         <is>
-          <t>https://it.indeed.com/viewjob?jk=2f38080b68bca520</t>
+          <t>https://it.indeed.com/viewjob?jk=b458a4e356c8160f</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
@@ -3722,12 +3722,12 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Addetto/addetta fast food - Burger King Roma Fosso di Santa Maura</t>
+          <t>CYS - GCAP Joint Venture Headquarters - Digital Adoption &amp; Capability Manager</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>QSRP</t>
+          <t>Leonardo</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -3740,28 +3740,24 @@
           <t>Roma, LAZ, IT</t>
         </is>
       </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>parttime</t>
-        </is>
-      </c>
+      <c r="E91" t="inlineStr"/>
       <c r="F91" t="inlineStr"/>
       <c r="G91" t="inlineStr"/>
       <c r="H91" s="2" t="inlineStr">
         <is>
-          <t>https://it.indeed.com/viewjob?jk=13f48153cb0ddc67</t>
+          <t>https://it.indeed.com/viewjob?jk=2f38080b68bca520</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>2026-01-29</t>
+          <t>2026-02-23</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Addetto Fast Food Gran Roma</t>
+          <t>Addetto/addetta fast food - Burger King Roma Fosso di Santa Maura</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -3788,7 +3784,7 @@
       <c r="G92" t="inlineStr"/>
       <c r="H92" s="2" t="inlineStr">
         <is>
-          <t>https://it.indeed.com/viewjob?jk=4d62c2e98d4f826f</t>
+          <t>https://it.indeed.com/viewjob?jk=13f48153cb0ddc67</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
@@ -3800,12 +3796,12 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Sales Assistant WEEKENDER 12H - ROMA CC Euroma2</t>
+          <t>Addetto Fast Food Gran Roma</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>LA CASA DE LAS CARCASAS</t>
+          <t>QSRP</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -3827,24 +3823,24 @@
       <c r="G93" t="inlineStr"/>
       <c r="H93" s="2" t="inlineStr">
         <is>
-          <t>https://it.indeed.com/viewjob?jk=40819fa2f4c14054</t>
+          <t>https://it.indeed.com/viewjob?jk=4d62c2e98d4f826f</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>2026-02-24</t>
+          <t>2026-01-29</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Addetto Continuous Improvement</t>
+          <t>Sales Assistant WEEKENDER 12H - ROMA CC Euroma2</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Leonardo</t>
+          <t>LA CASA DE LAS CARCASAS</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -3854,15 +3850,19 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Cisterna di Latina, LAZ, IT</t>
-        </is>
-      </c>
-      <c r="E94" t="inlineStr"/>
+          <t>Roma, LAZ, IT</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>parttime</t>
+        </is>
+      </c>
       <c r="F94" t="inlineStr"/>
       <c r="G94" t="inlineStr"/>
       <c r="H94" s="2" t="inlineStr">
         <is>
-          <t>https://it.indeed.com/viewjob?jk=666422e0a0697b49</t>
+          <t>https://it.indeed.com/viewjob?jk=40819fa2f4c14054</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
@@ -3874,12 +3874,12 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Addetto/a all’Inventario – appartenente alle categorie protette legge 68/99</t>
+          <t>Addetto Continuous Improvement</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>RGIS</t>
+          <t>Leonardo</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -3889,7 +3889,7 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Roma, LAZ, IT</t>
+          <t>Cisterna di Latina, LAZ, IT</t>
         </is>
       </c>
       <c r="E95" t="inlineStr"/>
@@ -3897,24 +3897,24 @@
       <c r="G95" t="inlineStr"/>
       <c r="H95" s="2" t="inlineStr">
         <is>
-          <t>https://it.indeed.com/viewjob?jk=53a50102b74d168f</t>
+          <t>https://it.indeed.com/viewjob?jk=666422e0a0697b49</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>2026-02-25</t>
+          <t>2026-02-24</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Sales Assistant</t>
+          <t>Addetto/a all’Inventario – appartenente alle categorie protette legge 68/99</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Holyart</t>
+          <t>RGIS</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -3927,16 +3927,12 @@
           <t>Roma, LAZ, IT</t>
         </is>
       </c>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>parttime, fulltime</t>
-        </is>
-      </c>
+      <c r="E96" t="inlineStr"/>
       <c r="F96" t="inlineStr"/>
       <c r="G96" t="inlineStr"/>
       <c r="H96" s="2" t="inlineStr">
         <is>
-          <t>https://it.indeed.com/viewjob?jk=2403b50fdd439735</t>
+          <t>https://it.indeed.com/viewjob?jk=53a50102b74d168f</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
@@ -3948,12 +3944,12 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Impiegato Amministrativo Area Formazione</t>
+          <t>Sales Assistant</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Corsi Alta Formazione Italia</t>
+          <t>Holyart</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -3963,32 +3959,36 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Latina, LAZ, IT</t>
-        </is>
-      </c>
-      <c r="E97" t="inlineStr"/>
+          <t>Roma, LAZ, IT</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>parttime, fulltime</t>
+        </is>
+      </c>
       <c r="F97" t="inlineStr"/>
       <c r="G97" t="inlineStr"/>
       <c r="H97" s="2" t="inlineStr">
         <is>
-          <t>https://it.indeed.com/viewjob?jk=480503e87c0bcf8e</t>
+          <t>https://it.indeed.com/viewjob?jk=2403b50fdd439735</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>2026-02-23</t>
+          <t>2026-02-25</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>COMMERCIALE SENIOR – SETTORE GIOCATTOLI</t>
+          <t>Impiegato Amministrativo Area Formazione</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>E-Servizi Srls</t>
+          <t>Corsi Alta Formazione Italia</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -3998,19 +3998,15 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Ciampino, LAZ, IT</t>
-        </is>
-      </c>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>fulltime</t>
-        </is>
-      </c>
+          <t>Latina, LAZ, IT</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr"/>
       <c r="F98" t="inlineStr"/>
       <c r="G98" t="inlineStr"/>
       <c r="H98" s="2" t="inlineStr">
         <is>
-          <t>https://it.indeed.com/viewjob?jk=0e5c07e2817d801f</t>
+          <t>https://it.indeed.com/viewjob?jk=480503e87c0bcf8e</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
@@ -4022,12 +4018,12 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>LASERoma® – Cercasi Estetista di Centro epilazione (Zona San Giovanni)</t>
+          <t>COMMERCIALE SENIOR – SETTORE GIOCATTOLI</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>epìLate Roma San Giovanni</t>
+          <t>E-Servizi Srls</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -4037,19 +4033,19 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Roma, LAZ, IT</t>
+          <t>Ciampino, LAZ, IT</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>parttime</t>
+          <t>fulltime</t>
         </is>
       </c>
       <c r="F99" t="inlineStr"/>
       <c r="G99" t="inlineStr"/>
       <c r="H99" s="2" t="inlineStr">
         <is>
-          <t>https://it.indeed.com/viewjob?jk=0f955ec92444b344</t>
+          <t>https://it.indeed.com/viewjob?jk=0e5c07e2817d801f</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
@@ -4061,12 +4057,12 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>SETTER - In sede a Roma Prati</t>
+          <t>LASERoma® – Cercasi Estetista di Centro epilazione (Zona San Giovanni)</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Traction</t>
+          <t>epìLate Roma San Giovanni</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -4081,14 +4077,14 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>fulltime</t>
+          <t>parttime</t>
         </is>
       </c>
       <c r="F100" t="inlineStr"/>
       <c r="G100" t="inlineStr"/>
       <c r="H100" s="2" t="inlineStr">
         <is>
-          <t>https://it.indeed.com/viewjob?jk=5825191c635aa4dd</t>
+          <t>https://it.indeed.com/viewjob?jk=0f955ec92444b344</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
@@ -4100,12 +4096,12 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Guest Relations Agent</t>
+          <t>SETTER - In sede a Roma Prati</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Masseria Torre Maizza, Rocco Forte Hotels</t>
+          <t>Traction</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -4127,24 +4123,24 @@
       <c r="G101" t="inlineStr"/>
       <c r="H101" s="2" t="inlineStr">
         <is>
-          <t>https://it.indeed.com/viewjob?jk=a896c095670d4e94</t>
+          <t>https://it.indeed.com/viewjob?jk=5825191c635aa4dd</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>2026-02-24</t>
+          <t>2026-02-23</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Program Manager</t>
+          <t>Guest Relations Agent</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Leonardo</t>
+          <t>Masseria Torre Maizza, Rocco Forte Hotels</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -4157,12 +4153,16 @@
           <t>Roma, LAZ, IT</t>
         </is>
       </c>
-      <c r="E102" t="inlineStr"/>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>fulltime</t>
+        </is>
+      </c>
       <c r="F102" t="inlineStr"/>
       <c r="G102" t="inlineStr"/>
       <c r="H102" s="2" t="inlineStr">
         <is>
-          <t>https://it.indeed.com/viewjob?jk=ad16411d89ad5dbe</t>
+          <t>https://it.indeed.com/viewjob?jk=a896c095670d4e94</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
@@ -4174,12 +4174,12 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Addetto/a Vendite CC ROMAEST</t>
+          <t>Program Manager</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Hype srl</t>
+          <t>Leonardo</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -4192,33 +4192,29 @@
           <t>Roma, LAZ, IT</t>
         </is>
       </c>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t>fulltime</t>
-        </is>
-      </c>
+      <c r="E103" t="inlineStr"/>
       <c r="F103" t="inlineStr"/>
       <c r="G103" t="inlineStr"/>
       <c r="H103" s="2" t="inlineStr">
         <is>
-          <t>https://it.indeed.com/viewjob?jk=f742cf702e7efb63</t>
+          <t>https://it.indeed.com/viewjob?jk=ad16411d89ad5dbe</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>2026-02-25</t>
+          <t>2026-02-24</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Project Manager - Offerta di lavoro</t>
+          <t>Addetto/a Vendite CC ROMAEST</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>SecretKey</t>
+          <t>Hype srl</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -4240,7 +4236,7 @@
       <c r="G104" t="inlineStr"/>
       <c r="H104" s="2" t="inlineStr">
         <is>
-          <t>https://it.indeed.com/viewjob?jk=b9cc63ad479c945b</t>
+          <t>https://it.indeed.com/viewjob?jk=f742cf702e7efb63</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
@@ -4252,7 +4248,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Digital Advertising Specialist</t>
+          <t>Project Manager - Offerta di lavoro</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -4279,7 +4275,7 @@
       <c r="G105" t="inlineStr"/>
       <c r="H105" s="2" t="inlineStr">
         <is>
-          <t>https://it.indeed.com/viewjob?jk=a8be07d50930c780</t>
+          <t>https://it.indeed.com/viewjob?jk=b9cc63ad479c945b</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
@@ -4291,7 +4287,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Google AdWords e Facebook Ads - Junior Manager</t>
+          <t>Digital Advertising Specialist</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -4318,7 +4314,7 @@
       <c r="G106" t="inlineStr"/>
       <c r="H106" s="2" t="inlineStr">
         <is>
-          <t>https://it.indeed.com/viewjob?jk=00ab154bb57b2b1e</t>
+          <t>https://it.indeed.com/viewjob?jk=a8be07d50930c780</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
@@ -4330,12 +4326,12 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Responsabile Customer Care</t>
+          <t>Google AdWords e Facebook Ads - Junior Manager</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>New Energy Gas e Luce Spa</t>
+          <t>SecretKey</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -4357,7 +4353,7 @@
       <c r="G107" t="inlineStr"/>
       <c r="H107" s="2" t="inlineStr">
         <is>
-          <t>https://it.indeed.com/viewjob?jk=471078c961290336</t>
+          <t>https://it.indeed.com/viewjob?jk=00ab154bb57b2b1e</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
@@ -4369,12 +4365,12 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Responsabile Finance &amp; Procurement</t>
+          <t>Responsabile Customer Care</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>IMMUNI SRL</t>
+          <t>New Energy Gas e Luce Spa</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -4396,24 +4392,24 @@
       <c r="G108" t="inlineStr"/>
       <c r="H108" s="2" t="inlineStr">
         <is>
-          <t>https://it.indeed.com/viewjob?jk=44221aa6cbc0e687</t>
+          <t>https://it.indeed.com/viewjob?jk=471078c961290336</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>2026-02-27</t>
+          <t>2026-02-25</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Facchino ai piani</t>
+          <t>Responsabile Finance &amp; Procurement</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Masseria Torre Maizza, Rocco Forte Hotels</t>
+          <t>IMMUNI SRL</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -4435,7 +4431,7 @@
       <c r="G109" t="inlineStr"/>
       <c r="H109" s="2" t="inlineStr">
         <is>
-          <t>https://it.indeed.com/viewjob?jk=305184b6b48de667</t>
+          <t>https://it.indeed.com/viewjob?jk=44221aa6cbc0e687</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
@@ -4447,86 +4443,86 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Impiegato/a Ufficio Risorse Umane | Gestione del personale</t>
+          <t>Facchino ai piani</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>tecno-system</t>
+          <t>Masseria Torre Maizza, Rocco Forte Hotels</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>linkedin</t>
+          <t>indeed</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Rome, Latium, Italy</t>
-        </is>
-      </c>
-      <c r="E110" t="inlineStr"/>
+          <t>Roma, LAZ, IT</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>fulltime</t>
+        </is>
+      </c>
       <c r="F110" t="inlineStr"/>
       <c r="G110" t="inlineStr"/>
       <c r="H110" s="2" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/4375708086</t>
+          <t>https://it.indeed.com/viewjob?jk=305184b6b48de667</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>2026-02-23</t>
+          <t>2026-02-27</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Addetto/a Elaborazione Paghe</t>
+          <t>Impiegato/a Ufficio Risorse Umane | Gestione del personale</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Gruppo Paoletti</t>
+          <t>tecno-system</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>indeed</t>
+          <t>linkedin</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Fiumicino, LAZ, IT</t>
-        </is>
-      </c>
-      <c r="E111" t="inlineStr">
-        <is>
-          <t>fulltime</t>
-        </is>
-      </c>
+          <t>Rome, Latium, Italy</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr"/>
       <c r="F111" t="inlineStr"/>
       <c r="G111" t="inlineStr"/>
       <c r="H111" s="2" t="inlineStr">
         <is>
-          <t>https://it.indeed.com/viewjob?jk=aac95dc33fcb3fd0</t>
+          <t>https://www.linkedin.com/jobs/view/4375708086</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>2026-02-21</t>
+          <t>2026-02-23</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Educatore</t>
+          <t>Addetto/a Elaborazione Paghe</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>ASD Mental Games</t>
+          <t>Gruppo Paoletti</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -4536,32 +4532,36 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Pomezia, LAZ, IT</t>
-        </is>
-      </c>
-      <c r="E112" t="inlineStr"/>
+          <t>Fiumicino, LAZ, IT</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>fulltime</t>
+        </is>
+      </c>
       <c r="F112" t="inlineStr"/>
       <c r="G112" t="inlineStr"/>
       <c r="H112" s="2" t="inlineStr">
         <is>
-          <t>https://it.indeed.com/viewjob?jk=74a25f1eb5c7d253</t>
+          <t>https://it.indeed.com/viewjob?jk=aac95dc33fcb3fd0</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>2026-02-23</t>
+          <t>2026-02-21</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Autista di Autobus - Roma</t>
+          <t>Educatore</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Arriva Italia</t>
+          <t>ASD Mental Games</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -4571,19 +4571,15 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Roma, LAZ, IT</t>
-        </is>
-      </c>
-      <c r="E113" t="inlineStr">
-        <is>
-          <t>parttime</t>
-        </is>
-      </c>
+          <t>Pomezia, LAZ, IT</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr"/>
       <c r="F113" t="inlineStr"/>
       <c r="G113" t="inlineStr"/>
       <c r="H113" s="2" t="inlineStr">
         <is>
-          <t>https://it.indeed.com/viewjob?jk=4935a852d0b600ae</t>
+          <t>https://it.indeed.com/viewjob?jk=74a25f1eb5c7d253</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
@@ -4595,12 +4591,12 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Autista Consegnatario - sede Fiano Romano</t>
+          <t>Autista di Autobus - Roma</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>ELIS ITALIA S.p.A.</t>
+          <t>Arriva Italia</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -4610,19 +4606,19 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Fiano Romano, LAZ, IT</t>
+          <t>Roma, LAZ, IT</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>fulltime</t>
+          <t>parttime</t>
         </is>
       </c>
       <c r="F114" t="inlineStr"/>
       <c r="G114" t="inlineStr"/>
       <c r="H114" s="2" t="inlineStr">
         <is>
-          <t>https://it.indeed.com/viewjob?jk=8aa5fe403821aa32</t>
+          <t>https://it.indeed.com/viewjob?jk=4935a852d0b600ae</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
@@ -4634,12 +4630,12 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Promoter/Hostess</t>
+          <t>Autista Consegnatario - sede Fiano Romano</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Be-Agency</t>
+          <t>ELIS ITALIA S.p.A.</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -4649,7 +4645,7 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Genzano di Roma, LAZ, IT</t>
+          <t>Fiano Romano, LAZ, IT</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
@@ -4661,7 +4657,7 @@
       <c r="G115" t="inlineStr"/>
       <c r="H115" s="2" t="inlineStr">
         <is>
-          <t>https://it.indeed.com/viewjob?jk=df5eda7b5fd44b4f</t>
+          <t>https://it.indeed.com/viewjob?jk=8aa5fe403821aa32</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
@@ -4673,12 +4669,12 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Personale di Supermercato per la zona di Monteverde/Colli Portuensi</t>
+          <t>Promoter/Hostess</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Service Group srls</t>
+          <t>Be-Agency</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -4688,7 +4684,7 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Roma, LAZ, IT</t>
+          <t>Genzano di Roma, LAZ, IT</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
@@ -4700,7 +4696,7 @@
       <c r="G116" t="inlineStr"/>
       <c r="H116" s="2" t="inlineStr">
         <is>
-          <t>https://it.indeed.com/viewjob?jk=15aee85de125b47d</t>
+          <t>https://it.indeed.com/viewjob?jk=df5eda7b5fd44b4f</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
@@ -4712,12 +4708,12 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Consulente Applicativo Zucchetti Junior- Roma Eur</t>
+          <t>Personale di Supermercato per la zona di Monteverde/Colli Portuensi</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>NHRG SRL – Agenzia per il Lavoro</t>
+          <t>Service Group srls</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -4739,7 +4735,7 @@
       <c r="G117" t="inlineStr"/>
       <c r="H117" s="2" t="inlineStr">
         <is>
-          <t>https://it.indeed.com/viewjob?jk=853619f64839acd6</t>
+          <t>https://it.indeed.com/viewjob?jk=15aee85de125b47d</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
@@ -4751,12 +4747,12 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Marketing Automation Expert</t>
+          <t>Consulente Applicativo Zucchetti Junior- Roma Eur</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Traction Group s.r.l.</t>
+          <t>NHRG SRL – Agenzia per il Lavoro</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -4778,7 +4774,7 @@
       <c r="G118" t="inlineStr"/>
       <c r="H118" s="2" t="inlineStr">
         <is>
-          <t>https://it.indeed.com/viewjob?jk=3a8a39fb67efd908</t>
+          <t>https://it.indeed.com/viewjob?jk=853619f64839acd6</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
@@ -4790,12 +4786,12 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Analista Funzionale e Tecnico</t>
+          <t>Marketing Automation Expert</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Data-Driven.Ai srl</t>
+          <t>Traction Group s.r.l.</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -4817,7 +4813,7 @@
       <c r="G119" t="inlineStr"/>
       <c r="H119" s="2" t="inlineStr">
         <is>
-          <t>https://it.indeed.com/viewjob?jk=553410435a331afa</t>
+          <t>https://it.indeed.com/viewjob?jk=3a8a39fb67efd908</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
@@ -4829,12 +4825,12 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>FRESATORE CNC SENIOR</t>
+          <t>Analista Funzionale e Tecnico</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>APIS Srl Agenzia per il Lavoro</t>
+          <t>Data-Driven.Ai srl</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -4844,15 +4840,19 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Palestrina, LAZ, IT</t>
-        </is>
-      </c>
-      <c r="E120" t="inlineStr"/>
+          <t>Roma, LAZ, IT</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>fulltime</t>
+        </is>
+      </c>
       <c r="F120" t="inlineStr"/>
       <c r="G120" t="inlineStr"/>
       <c r="H120" s="2" t="inlineStr">
         <is>
-          <t>https://it.indeed.com/viewjob?jk=563ee087c7d6974a</t>
+          <t>https://it.indeed.com/viewjob?jk=553410435a331afa</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
@@ -4864,12 +4864,12 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Cluster Sales Manager Villa Agrippina &amp; Palazzo Cordusio (38442)</t>
+          <t>FRESATORE CNC SENIOR</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Meliá Hotels International</t>
+          <t>APIS Srl Agenzia per il Lavoro</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -4879,7 +4879,7 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Roma, LAZ, IT</t>
+          <t>Palestrina, LAZ, IT</t>
         </is>
       </c>
       <c r="E121" t="inlineStr"/>
@@ -4887,24 +4887,24 @@
       <c r="G121" t="inlineStr"/>
       <c r="H121" s="2" t="inlineStr">
         <is>
-          <t>https://it.indeed.com/viewjob?jk=89628ae4238c2a11</t>
+          <t>https://it.indeed.com/viewjob?jk=563ee087c7d6974a</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>2026-02-24</t>
+          <t>2026-02-23</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Responsabile Ufficio Calibrazione</t>
+          <t>Cluster Sales Manager Villa Agrippina &amp; Palazzo Cordusio (38442)</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>NETwk</t>
+          <t>Meliá Hotels International</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -4922,7 +4922,7 @@
       <c r="G122" t="inlineStr"/>
       <c r="H122" s="2" t="inlineStr">
         <is>
-          <t>https://it.indeed.com/viewjob?jk=835cd79ae499f772</t>
+          <t>https://it.indeed.com/viewjob?jk=89628ae4238c2a11</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
@@ -4934,12 +4934,12 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Junior Finance</t>
+          <t>Responsabile Ufficio Calibrazione</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Data-Driven.Ai srl</t>
+          <t>NETwk</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -4952,16 +4952,12 @@
           <t>Roma, LAZ, IT</t>
         </is>
       </c>
-      <c r="E123" t="inlineStr">
-        <is>
-          <t>fulltime</t>
-        </is>
-      </c>
+      <c r="E123" t="inlineStr"/>
       <c r="F123" t="inlineStr"/>
       <c r="G123" t="inlineStr"/>
       <c r="H123" s="2" t="inlineStr">
         <is>
-          <t>https://it.indeed.com/viewjob?jk=02647aa62a25aafc</t>
+          <t>https://it.indeed.com/viewjob?jk=835cd79ae499f772</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
@@ -4973,12 +4969,12 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Hostess di Sala</t>
+          <t>Junior Finance</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Palazzo Montemartini Rome</t>
+          <t>Data-Driven.Ai srl</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -5000,7 +4996,7 @@
       <c r="G124" t="inlineStr"/>
       <c r="H124" s="2" t="inlineStr">
         <is>
-          <t>https://it.indeed.com/viewjob?jk=a69dc08186fe52c7</t>
+          <t>https://it.indeed.com/viewjob?jk=02647aa62a25aafc</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
@@ -5012,12 +5008,12 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Specialista HSE</t>
+          <t>Hostess di Sala</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>NTWK</t>
+          <t>Palazzo Montemartini Rome</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -5030,12 +5026,16 @@
           <t>Roma, LAZ, IT</t>
         </is>
       </c>
-      <c r="E125" t="inlineStr"/>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>fulltime</t>
+        </is>
+      </c>
       <c r="F125" t="inlineStr"/>
       <c r="G125" t="inlineStr"/>
       <c r="H125" s="2" t="inlineStr">
         <is>
-          <t>https://it.indeed.com/viewjob?jk=5ade74db0f32cec0</t>
+          <t>https://it.indeed.com/viewjob?jk=a69dc08186fe52c7</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
@@ -5047,7 +5047,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>ASPP</t>
+          <t>Specialista HSE</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -5070,7 +5070,7 @@
       <c r="G126" t="inlineStr"/>
       <c r="H126" s="2" t="inlineStr">
         <is>
-          <t>https://it.indeed.com/viewjob?jk=dac0ec471436e682</t>
+          <t>https://it.indeed.com/viewjob?jk=5ade74db0f32cec0</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
@@ -5082,12 +5082,12 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Food&amp;Beverage - Gestione Bar Bistrot</t>
+          <t>ASPP</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Relais Boutique Hotels srl</t>
+          <t>NTWK</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -5100,16 +5100,12 @@
           <t>Roma, LAZ, IT</t>
         </is>
       </c>
-      <c r="E127" t="inlineStr">
-        <is>
-          <t>fulltime</t>
-        </is>
-      </c>
+      <c r="E127" t="inlineStr"/>
       <c r="F127" t="inlineStr"/>
       <c r="G127" t="inlineStr"/>
       <c r="H127" s="2" t="inlineStr">
         <is>
-          <t>https://it.indeed.com/viewjob?jk=5ebfc5697317bca6</t>
+          <t>https://it.indeed.com/viewjob?jk=dac0ec471436e682</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
@@ -5121,12 +5117,12 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>ADDETTO/A PARTENZE</t>
+          <t>Food&amp;Beverage - Gestione Bar Bistrot</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>STEF</t>
+          <t>Relais Boutique Hotels srl</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -5136,7 +5132,7 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Santa Palomba, LAZ, IT</t>
+          <t>Roma, LAZ, IT</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
@@ -5148,7 +5144,7 @@
       <c r="G128" t="inlineStr"/>
       <c r="H128" s="2" t="inlineStr">
         <is>
-          <t>https://it.indeed.com/viewjob?jk=f8c88af751f6f812</t>
+          <t>https://it.indeed.com/viewjob?jk=5ebfc5697317bca6</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
@@ -5160,12 +5156,12 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Addetto/a per Conteggio Merci e Inventario - Back Office per la sede di Roma</t>
+          <t>ADDETTO/A PARTENZE</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>RGIS</t>
+          <t>STEF</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -5175,32 +5171,36 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Roma, LAZ, IT</t>
-        </is>
-      </c>
-      <c r="E129" t="inlineStr"/>
+          <t>Santa Palomba, LAZ, IT</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>fulltime</t>
+        </is>
+      </c>
       <c r="F129" t="inlineStr"/>
       <c r="G129" t="inlineStr"/>
       <c r="H129" s="2" t="inlineStr">
         <is>
-          <t>https://it.indeed.com/viewjob?jk=f108027b085d6c44</t>
+          <t>https://it.indeed.com/viewjob?jk=f8c88af751f6f812</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>2026-02-25</t>
+          <t>2026-02-24</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>ADDETTO AL SERVIZIO PREVENZIONE E PROTEZIONE (ASPP)</t>
+          <t>Addetto/a per Conteggio Merci e Inventario - Back Office per la sede di Roma</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Venpa Spa</t>
+          <t>RGIS</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -5210,19 +5210,15 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Monterotondo, LAZ, IT</t>
-        </is>
-      </c>
-      <c r="E130" t="inlineStr">
-        <is>
-          <t>fulltime</t>
-        </is>
-      </c>
+          <t>Roma, LAZ, IT</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr"/>
       <c r="F130" t="inlineStr"/>
       <c r="G130" t="inlineStr"/>
       <c r="H130" s="2" t="inlineStr">
         <is>
-          <t>https://it.indeed.com/viewjob?jk=338094a28e3330f2</t>
+          <t>https://it.indeed.com/viewjob?jk=f108027b085d6c44</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
@@ -5234,12 +5230,12 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Addetto/a Vendite profilo ESPERTO</t>
+          <t>ADDETTO AL SERVIZIO PREVENZIONE E PROTEZIONE (ASPP)</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>NTWK</t>
+          <t>Venpa Spa</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -5249,7 +5245,7 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Roma, LAZ, IT</t>
+          <t>Monterotondo, LAZ, IT</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
@@ -5261,7 +5257,7 @@
       <c r="G131" t="inlineStr"/>
       <c r="H131" s="2" t="inlineStr">
         <is>
-          <t>https://it.indeed.com/viewjob?jk=d5806b9abe71e071</t>
+          <t>https://it.indeed.com/viewjob?jk=338094a28e3330f2</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
@@ -5273,12 +5269,12 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Progettista Elettronico RF junior</t>
+          <t>Addetto/a Vendite profilo ESPERTO</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>NETwk</t>
+          <t>NTWK</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -5291,12 +5287,16 @@
           <t>Roma, LAZ, IT</t>
         </is>
       </c>
-      <c r="E132" t="inlineStr"/>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>fulltime</t>
+        </is>
+      </c>
       <c r="F132" t="inlineStr"/>
       <c r="G132" t="inlineStr"/>
       <c r="H132" s="2" t="inlineStr">
         <is>
-          <t>https://it.indeed.com/viewjob?jk=2feda2ff286bad64</t>
+          <t>https://it.indeed.com/viewjob?jk=d5806b9abe71e071</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
@@ -5308,7 +5308,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>System Administration specialist full remote</t>
+          <t>Progettista Elettronico RF junior</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -5331,7 +5331,7 @@
       <c r="G133" t="inlineStr"/>
       <c r="H133" s="2" t="inlineStr">
         <is>
-          <t>https://it.indeed.com/viewjob?jk=618e4d647e62747d</t>
+          <t>https://it.indeed.com/viewjob?jk=2feda2ff286bad64</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
@@ -5343,12 +5343,12 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>International Tax Manager</t>
+          <t>System Administration specialist full remote</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Assist Digital</t>
+          <t>NETwk</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -5366,7 +5366,7 @@
       <c r="G134" t="inlineStr"/>
       <c r="H134" s="2" t="inlineStr">
         <is>
-          <t>https://it.indeed.com/viewjob?jk=08efa856e56bbba0</t>
+          <t>https://it.indeed.com/viewjob?jk=618e4d647e62747d</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
@@ -5378,12 +5378,12 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Gelatiere Conista Roma Via Ottaviano</t>
+          <t>International Tax Manager</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>GROMART SRL</t>
+          <t>Assist Digital</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -5396,16 +5396,12 @@
           <t>Roma, LAZ, IT</t>
         </is>
       </c>
-      <c r="E135" t="inlineStr">
-        <is>
-          <t>parttime</t>
-        </is>
-      </c>
+      <c r="E135" t="inlineStr"/>
       <c r="F135" t="inlineStr"/>
       <c r="G135" t="inlineStr"/>
       <c r="H135" s="2" t="inlineStr">
         <is>
-          <t>https://it.indeed.com/viewjob?jk=219fb50d066dcc22</t>
+          <t>https://it.indeed.com/viewjob?jk=08efa856e56bbba0</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
@@ -5417,7 +5413,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Sales Assistant GROM Roma Piazzale Flaminio</t>
+          <t>Gelatiere Conista Roma Via Ottaviano</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -5444,7 +5440,7 @@
       <c r="G136" t="inlineStr"/>
       <c r="H136" s="2" t="inlineStr">
         <is>
-          <t>https://it.indeed.com/viewjob?jk=f7a72c5cfb650f5b</t>
+          <t>https://it.indeed.com/viewjob?jk=219fb50d066dcc22</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
@@ -5456,12 +5452,12 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Tecnico Collaudatore</t>
+          <t>Sales Assistant GROM Roma Piazzale Flaminio</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>NTWK</t>
+          <t>GROMART SRL</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -5474,12 +5470,16 @@
           <t>Roma, LAZ, IT</t>
         </is>
       </c>
-      <c r="E137" t="inlineStr"/>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>parttime</t>
+        </is>
+      </c>
       <c r="F137" t="inlineStr"/>
       <c r="G137" t="inlineStr"/>
       <c r="H137" s="2" t="inlineStr">
         <is>
-          <t>https://it.indeed.com/viewjob?jk=7c564a443495b5a3</t>
+          <t>https://it.indeed.com/viewjob?jk=f7a72c5cfb650f5b</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
@@ -5491,12 +5491,12 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>assistente alla poltrona di Studio Odontoitrico ASO</t>
+          <t>Tecnico Collaudatore</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Studio Odontoiatrico Baldinetti</t>
+          <t>NTWK</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -5509,33 +5509,29 @@
           <t>Roma, LAZ, IT</t>
         </is>
       </c>
-      <c r="E138" t="inlineStr">
-        <is>
-          <t>fulltime</t>
-        </is>
-      </c>
+      <c r="E138" t="inlineStr"/>
       <c r="F138" t="inlineStr"/>
       <c r="G138" t="inlineStr"/>
       <c r="H138" s="2" t="inlineStr">
         <is>
-          <t>https://it.indeed.com/viewjob?jk=42c2ecdbcddebf5f</t>
+          <t>https://it.indeed.com/viewjob?jk=7c564a443495b5a3</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>2026-02-26</t>
+          <t>2026-02-25</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Addetto/a Vendite Pacchetti Turistici</t>
+          <t>assistente alla poltrona di Studio Odontoitrico ASO</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>NTWK</t>
+          <t>Studio Odontoiatrico Baldinetti</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -5557,7 +5553,7 @@
       <c r="G139" t="inlineStr"/>
       <c r="H139" s="2" t="inlineStr">
         <is>
-          <t>https://it.indeed.com/viewjob?jk=7fec35d365af962e</t>
+          <t>https://it.indeed.com/viewjob?jk=42c2ecdbcddebf5f</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
@@ -5569,12 +5565,12 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Tecnico specializzato (CND)</t>
+          <t>Addetto/a Vendite Pacchetti Turistici</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>NETwk</t>
+          <t>NTWK</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -5584,15 +5580,19 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Rocca Priora, LAZ, IT</t>
-        </is>
-      </c>
-      <c r="E140" t="inlineStr"/>
+          <t>Roma, LAZ, IT</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>fulltime</t>
+        </is>
+      </c>
       <c r="F140" t="inlineStr"/>
       <c r="G140" t="inlineStr"/>
       <c r="H140" s="2" t="inlineStr">
         <is>
-          <t>https://it.indeed.com/viewjob?jk=199364c22f265df0</t>
+          <t>https://it.indeed.com/viewjob?jk=7fec35d365af962e</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
@@ -5604,7 +5604,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Montatore/trice di arredi</t>
+          <t>Tecnico specializzato (CND)</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -5619,19 +5619,15 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Roma, LAZ, IT</t>
-        </is>
-      </c>
-      <c r="E141" t="inlineStr">
-        <is>
-          <t>fulltime</t>
-        </is>
-      </c>
+          <t>Rocca Priora, LAZ, IT</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr"/>
       <c r="F141" t="inlineStr"/>
       <c r="G141" t="inlineStr"/>
       <c r="H141" s="2" t="inlineStr">
         <is>
-          <t>https://it.indeed.com/viewjob?jk=5ffeb310666f7432</t>
+          <t>https://it.indeed.com/viewjob?jk=199364c22f265df0</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
@@ -5643,7 +5639,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Ingegnere Civile</t>
+          <t>Montatore/trice di arredi</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -5661,12 +5657,16 @@
           <t>Roma, LAZ, IT</t>
         </is>
       </c>
-      <c r="E142" t="inlineStr"/>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>fulltime</t>
+        </is>
+      </c>
       <c r="F142" t="inlineStr"/>
       <c r="G142" t="inlineStr"/>
       <c r="H142" s="2" t="inlineStr">
         <is>
-          <t>https://it.indeed.com/viewjob?jk=c0e7c275838fd873</t>
+          <t>https://it.indeed.com/viewjob?jk=5ffeb310666f7432</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
@@ -5678,7 +5678,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Commerciali</t>
+          <t>Ingegnere Civile</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -5701,7 +5701,7 @@
       <c r="G143" t="inlineStr"/>
       <c r="H143" s="2" t="inlineStr">
         <is>
-          <t>https://it.indeed.com/viewjob?jk=074ee49b20947514</t>
+          <t>https://it.indeed.com/viewjob?jk=c0e7c275838fd873</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
@@ -5713,7 +5713,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Addetto Customer Care (part-time o full-time)</t>
+          <t>Commerciali</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -5731,16 +5731,12 @@
           <t>Roma, LAZ, IT</t>
         </is>
       </c>
-      <c r="E144" t="inlineStr">
-        <is>
-          <t>parttime, fulltime</t>
-        </is>
-      </c>
+      <c r="E144" t="inlineStr"/>
       <c r="F144" t="inlineStr"/>
       <c r="G144" t="inlineStr"/>
       <c r="H144" s="2" t="inlineStr">
         <is>
-          <t>https://it.indeed.com/viewjob?jk=a9b7a6c984d572f5</t>
+          <t>https://it.indeed.com/viewjob?jk=074ee49b20947514</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
@@ -5752,7 +5748,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Assuntore/trice rischi assicurativi junior</t>
+          <t>Addetto Customer Care (part-time o full-time)</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -5767,15 +5763,19 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Latina, LAZ, IT</t>
-        </is>
-      </c>
-      <c r="E145" t="inlineStr"/>
+          <t>Roma, LAZ, IT</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>parttime, fulltime</t>
+        </is>
+      </c>
       <c r="F145" t="inlineStr"/>
       <c r="G145" t="inlineStr"/>
       <c r="H145" s="2" t="inlineStr">
         <is>
-          <t>https://it.indeed.com/viewjob?jk=15768774c8118b76</t>
+          <t>https://it.indeed.com/viewjob?jk=a9b7a6c984d572f5</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
@@ -5787,7 +5787,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Impiegato/a Assicurativo</t>
+          <t>Assuntore/trice rischi assicurativi junior</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -5810,7 +5810,7 @@
       <c r="G146" t="inlineStr"/>
       <c r="H146" s="2" t="inlineStr">
         <is>
-          <t>https://it.indeed.com/viewjob?jk=9d46df4e5476d77a</t>
+          <t>https://it.indeed.com/viewjob?jk=15768774c8118b76</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
@@ -5822,12 +5822,12 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Addette/i alle pulizie civili su Fiumicino</t>
+          <t>Impiegato/a Assicurativo</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>CONSORZIO STABILE LGA SERVICE</t>
+          <t>NETwk</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -5837,19 +5837,15 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Fiumicino, LAZ, IT</t>
-        </is>
-      </c>
-      <c r="E147" t="inlineStr">
-        <is>
-          <t>parttime</t>
-        </is>
-      </c>
+          <t>Latina, LAZ, IT</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr"/>
       <c r="F147" t="inlineStr"/>
       <c r="G147" t="inlineStr"/>
       <c r="H147" s="2" t="inlineStr">
         <is>
-          <t>https://it.indeed.com/viewjob?jk=d35fb31f1bec8b57</t>
+          <t>https://it.indeed.com/viewjob?jk=9d46df4e5476d77a</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
@@ -5861,12 +5857,12 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>RENTAL SALES AGENT - ROMA FIUMICINO</t>
+          <t>Addette/i alle pulizie civili su Fiumicino</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>PLUS HOLDİNG</t>
+          <t>CONSORZIO STABILE LGA SERVICE</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -5876,19 +5872,19 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>Roma, LAZ, IT</t>
+          <t>Fiumicino, LAZ, IT</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>fulltime</t>
+          <t>parttime</t>
         </is>
       </c>
       <c r="F148" t="inlineStr"/>
       <c r="G148" t="inlineStr"/>
       <c r="H148" s="2" t="inlineStr">
         <is>
-          <t>https://it.indeed.com/viewjob?jk=62848cef67f19cad</t>
+          <t>https://it.indeed.com/viewjob?jk=d35fb31f1bec8b57</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
@@ -5900,12 +5896,12 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Operatore Elettrotermico</t>
+          <t>RENTAL SALES AGENT - ROMA FIUMICINO</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>NTWK</t>
+          <t>PLUS HOLDİNG</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -5918,12 +5914,16 @@
           <t>Roma, LAZ, IT</t>
         </is>
       </c>
-      <c r="E149" t="inlineStr"/>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>fulltime</t>
+        </is>
+      </c>
       <c r="F149" t="inlineStr"/>
       <c r="G149" t="inlineStr"/>
       <c r="H149" s="2" t="inlineStr">
         <is>
-          <t>https://it.indeed.com/viewjob?jk=2dd2cd91026d79f1</t>
+          <t>https://it.indeed.com/viewjob?jk=62848cef67f19cad</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
@@ -5935,12 +5935,12 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Chef Executive - Manager</t>
+          <t>Operatore Elettrotermico</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Il casale di Roma</t>
+          <t>NTWK</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -5953,16 +5953,12 @@
           <t>Roma, LAZ, IT</t>
         </is>
       </c>
-      <c r="E150" t="inlineStr">
-        <is>
-          <t>fulltime</t>
-        </is>
-      </c>
+      <c r="E150" t="inlineStr"/>
       <c r="F150" t="inlineStr"/>
       <c r="G150" t="inlineStr"/>
       <c r="H150" s="2" t="inlineStr">
         <is>
-          <t>https://it.indeed.com/viewjob?jk=32784129972ad937</t>
+          <t>https://it.indeed.com/viewjob?jk=2dd2cd91026d79f1</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
@@ -5974,12 +5970,12 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Impiegato/a Tecnico - Roma</t>
+          <t>Chef Executive - Manager</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Arriva Italia</t>
+          <t>Il casale di Roma</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -5992,12 +5988,16 @@
           <t>Roma, LAZ, IT</t>
         </is>
       </c>
-      <c r="E151" t="inlineStr"/>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>fulltime</t>
+        </is>
+      </c>
       <c r="F151" t="inlineStr"/>
       <c r="G151" t="inlineStr"/>
       <c r="H151" s="2" t="inlineStr">
         <is>
-          <t>https://it.indeed.com/viewjob?jk=f00454a8c0f02188</t>
+          <t>https://it.indeed.com/viewjob?jk=32784129972ad937</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
@@ -6009,12 +6009,12 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>OPERATORE DEL MERCATO DEL LAVORO SPECIALISTICO (OMLS)</t>
+          <t>Impiegato/a Tecnico - Roma</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>vema e partners srl</t>
+          <t>Arriva Italia</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -6032,24 +6032,24 @@
       <c r="G152" t="inlineStr"/>
       <c r="H152" s="2" t="inlineStr">
         <is>
-          <t>https://it.indeed.com/viewjob?jk=1aee5f338a2023da</t>
+          <t>https://it.indeed.com/viewjob?jk=f00454a8c0f02188</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>2026-02-27</t>
+          <t>2026-02-26</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Operatore d’ufficio con competenze informatiche e CAD</t>
+          <t>OPERATORE DEL MERCATO DEL LAVORO SPECIALISTICO (OMLS)</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>NTWK</t>
+          <t>vema e partners srl</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -6067,7 +6067,7 @@
       <c r="G153" t="inlineStr"/>
       <c r="H153" s="2" t="inlineStr">
         <is>
-          <t>https://it.indeed.com/viewjob?jk=1cffe14f52c91a9e</t>
+          <t>https://it.indeed.com/viewjob?jk=1aee5f338a2023da</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
@@ -6079,12 +6079,12 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Architetto Infrastrutturale</t>
+          <t>Operatore d’ufficio con competenze informatiche e CAD</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>NETwk</t>
+          <t>NTWK</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -6102,7 +6102,7 @@
       <c r="G154" t="inlineStr"/>
       <c r="H154" s="2" t="inlineStr">
         <is>
-          <t>https://it.indeed.com/viewjob?jk=668cfdb96527cb38</t>
+          <t>https://it.indeed.com/viewjob?jk=1cffe14f52c91a9e</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
@@ -6114,12 +6114,12 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Capo squadra operativa</t>
+          <t>Architetto Infrastrutturale</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>RADIK SERVICES</t>
+          <t>NETwk</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -6132,16 +6132,12 @@
           <t>Roma, LAZ, IT</t>
         </is>
       </c>
-      <c r="E155" t="inlineStr">
-        <is>
-          <t>parttime</t>
-        </is>
-      </c>
+      <c r="E155" t="inlineStr"/>
       <c r="F155" t="inlineStr"/>
       <c r="G155" t="inlineStr"/>
       <c r="H155" s="2" t="inlineStr">
         <is>
-          <t>https://it.indeed.com/viewjob?jk=6921e0174b79d456</t>
+          <t>https://it.indeed.com/viewjob?jk=668cfdb96527cb38</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
@@ -6153,12 +6149,12 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Addetta/o alle pulizie part-time, zona Villa Ada/Piazza Vescovio</t>
+          <t>Capo squadra operativa</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>CONSORZIO STABILE LGA SERVICE</t>
+          <t>RADIK SERVICES</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -6180,7 +6176,7 @@
       <c r="G156" t="inlineStr"/>
       <c r="H156" s="2" t="inlineStr">
         <is>
-          <t>https://it.indeed.com/viewjob?jk=c1ccab0187274898</t>
+          <t>https://it.indeed.com/viewjob?jk=6921e0174b79d456</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
@@ -6192,12 +6188,12 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Social Innovation Consultant</t>
+          <t>Addetta/o alle pulizie part-time, zona Villa Ada/Piazza Vescovio</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>ELIS Innovation Hub</t>
+          <t>CONSORZIO STABILE LGA SERVICE</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -6212,14 +6208,14 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>fulltime</t>
+          <t>parttime</t>
         </is>
       </c>
       <c r="F157" t="inlineStr"/>
       <c r="G157" t="inlineStr"/>
       <c r="H157" s="2" t="inlineStr">
         <is>
-          <t>https://it.indeed.com/viewjob?jk=a1f4a086b8abadcb</t>
+          <t>https://it.indeed.com/viewjob?jk=c1ccab0187274898</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
@@ -6231,12 +6227,12 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Animatori per bambini e ragazzi in soggiorni residenziali</t>
+          <t>Social Innovation Consultant</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>DOC s.c.s.</t>
+          <t>ELIS Innovation Hub</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -6258,7 +6254,7 @@
       <c r="G158" t="inlineStr"/>
       <c r="H158" s="2" t="inlineStr">
         <is>
-          <t>https://it.indeed.com/viewjob?jk=d69413d1559f8650</t>
+          <t>https://it.indeed.com/viewjob?jk=a1f4a086b8abadcb</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
@@ -6270,12 +6266,12 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Operatore call-center</t>
+          <t>Animatori per bambini e ragazzi in soggiorni residenziali</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>NTWK</t>
+          <t>DOC s.c.s.</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -6288,12 +6284,16 @@
           <t>Roma, LAZ, IT</t>
         </is>
       </c>
-      <c r="E159" t="inlineStr"/>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>fulltime</t>
+        </is>
+      </c>
       <c r="F159" t="inlineStr"/>
       <c r="G159" t="inlineStr"/>
       <c r="H159" s="2" t="inlineStr">
         <is>
-          <t>https://it.indeed.com/viewjob?jk=19ed019ac7932d01</t>
+          <t>https://it.indeed.com/viewjob?jk=d69413d1559f8650</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
@@ -6305,12 +6305,12 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Addetto/a vendite part time - Roma Tiburtina (RM)</t>
+          <t>Operatore call-center</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Happy Casa Store</t>
+          <t>NTWK</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -6323,16 +6323,12 @@
           <t>Roma, LAZ, IT</t>
         </is>
       </c>
-      <c r="E160" t="inlineStr">
-        <is>
-          <t>parttime</t>
-        </is>
-      </c>
+      <c r="E160" t="inlineStr"/>
       <c r="F160" t="inlineStr"/>
       <c r="G160" t="inlineStr"/>
       <c r="H160" s="2" t="inlineStr">
         <is>
-          <t>https://it.indeed.com/viewjob?jk=349e269cdedb7f6a</t>
+          <t>https://it.indeed.com/viewjob?jk=19ed019ac7932d01</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
@@ -6344,12 +6340,12 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Assistente Commerciale</t>
+          <t>Addetto/a vendite part time - Roma Tiburtina (RM)</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>NTWK</t>
+          <t>Happy Casa Store</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -6359,19 +6355,19 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>Frosinone, LAZ, IT</t>
+          <t>Roma, LAZ, IT</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>parttime, fulltime</t>
+          <t>parttime</t>
         </is>
       </c>
       <c r="F161" t="inlineStr"/>
       <c r="G161" t="inlineStr"/>
       <c r="H161" s="2" t="inlineStr">
         <is>
-          <t>https://it.indeed.com/viewjob?jk=625ef9bfd93eaa0e</t>
+          <t>https://it.indeed.com/viewjob?jk=349e269cdedb7f6a</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
@@ -6383,7 +6379,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Addetto/a Front Office</t>
+          <t>Assistente Commerciale</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
@@ -6403,14 +6399,14 @@
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>fulltime</t>
+          <t>parttime, fulltime</t>
         </is>
       </c>
       <c r="F162" t="inlineStr"/>
       <c r="G162" t="inlineStr"/>
       <c r="H162" s="2" t="inlineStr">
         <is>
-          <t>https://it.indeed.com/viewjob?jk=4533719caf1f5494</t>
+          <t>https://it.indeed.com/viewjob?jk=625ef9bfd93eaa0e</t>
         </is>
       </c>
       <c r="I162" t="inlineStr">
@@ -6422,43 +6418,51 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Human Resources Business Partner</t>
+          <t>Addetto/a Front Office</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>TIM</t>
+          <t>NTWK</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>linkedin</t>
+          <t>indeed</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>Rome, Latium, Italy</t>
-        </is>
-      </c>
-      <c r="E163" t="inlineStr"/>
+          <t>Frosinone, LAZ, IT</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>fulltime</t>
+        </is>
+      </c>
       <c r="F163" t="inlineStr"/>
       <c r="G163" t="inlineStr"/>
       <c r="H163" s="2" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/4369142800</t>
-        </is>
-      </c>
-      <c r="I163" t="inlineStr"/>
+          <t>https://it.indeed.com/viewjob?jk=4533719caf1f5494</t>
+        </is>
+      </c>
+      <c r="I163" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Stagista risorse umane</t>
+          <t>Human Resources Business Partner</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>AIR fire SpA</t>
+          <t>TIM</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -6476,24 +6480,20 @@
       <c r="G164" t="inlineStr"/>
       <c r="H164" s="2" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/4377126907</t>
-        </is>
-      </c>
-      <c r="I164" t="inlineStr">
-        <is>
-          <t>2026-02-24</t>
-        </is>
-      </c>
+          <t>https://www.linkedin.com/jobs/view/4369142800</t>
+        </is>
+      </c>
+      <c r="I164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Human Resources Representative</t>
+          <t>Stagista risorse umane</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>The Toro Company</t>
+          <t>AIR fire SpA</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -6503,7 +6503,7 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>Fiano Romano, Latium, Italy</t>
+          <t>Rome, Latium, Italy</t>
         </is>
       </c>
       <c r="E165" t="inlineStr"/>
@@ -6511,24 +6511,24 @@
       <c r="G165" t="inlineStr"/>
       <c r="H165" s="2" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/4374585771</t>
+          <t>https://www.linkedin.com/jobs/view/4377126907</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>2026-02-25</t>
+          <t>2026-02-24</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Employer Branding Intern</t>
+          <t>Human Resources Representative</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Joinrs</t>
+          <t>The Toro Company</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -6536,30 +6536,34 @@
           <t>linkedin</t>
         </is>
       </c>
-      <c r="D166" t="inlineStr"/>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>Fiano Romano, Latium, Italy</t>
+        </is>
+      </c>
       <c r="E166" t="inlineStr"/>
       <c r="F166" t="inlineStr"/>
       <c r="G166" t="inlineStr"/>
       <c r="H166" s="2" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/4376561301</t>
+          <t>https://www.linkedin.com/jobs/view/4374585771</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>2026-02-26</t>
+          <t>2026-02-25</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>HR Generalist Apprentice</t>
+          <t>Employer Branding Intern</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Arsenale Group</t>
+          <t>Joinrs</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -6567,17 +6571,13 @@
           <t>linkedin</t>
         </is>
       </c>
-      <c r="D167" t="inlineStr">
-        <is>
-          <t>Rome, Latium, Italy</t>
-        </is>
-      </c>
+      <c r="D167" t="inlineStr"/>
       <c r="E167" t="inlineStr"/>
       <c r="F167" t="inlineStr"/>
       <c r="G167" t="inlineStr"/>
       <c r="H167" s="2" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/4378347176</t>
+          <t>https://www.linkedin.com/jobs/view/4376561301</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
@@ -6589,46 +6589,42 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Area Manager, FC Operations</t>
+          <t>HR Generalist Apprentice</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Amazon.com</t>
+          <t>Arsenale Group</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>indeed</t>
+          <t>linkedin</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>Passo Corese, LAZ, IT</t>
-        </is>
-      </c>
-      <c r="E168" t="inlineStr">
-        <is>
-          <t>fulltime</t>
-        </is>
-      </c>
+          <t>Rome, Latium, Italy</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr"/>
       <c r="F168" t="inlineStr"/>
       <c r="G168" t="inlineStr"/>
       <c r="H168" s="2" t="inlineStr">
         <is>
-          <t>https://it.indeed.com/viewjob?jk=ae999046402b3483</t>
+          <t>https://www.linkedin.com/jobs/view/4378347176</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>2026-01-28</t>
+          <t>2026-02-26</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Military - Area Manager - Italy</t>
+          <t>Area Manager, FC Operations</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
@@ -6643,7 +6639,7 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>Colleferro, LAZ, IT</t>
+          <t>Passo Corese, LAZ, IT</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
@@ -6655,24 +6651,24 @@
       <c r="G169" t="inlineStr"/>
       <c r="H169" s="2" t="inlineStr">
         <is>
-          <t>https://it.indeed.com/viewjob?jk=bfb852971c0ed1a5</t>
+          <t>https://it.indeed.com/viewjob?jk=ae999046402b3483</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>2026-02-20</t>
+          <t>2026-01-28</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Sales and Marketing Coordinator Italy - Shockwave IVL</t>
+          <t>Military - Area Manager - Italy</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Johnson &amp; Johnson</t>
+          <t>Amazon.com</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -6682,7 +6678,7 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>Pomezia, LAZ, IT</t>
+          <t>Colleferro, LAZ, IT</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
@@ -6694,24 +6690,24 @@
       <c r="G170" t="inlineStr"/>
       <c r="H170" s="2" t="inlineStr">
         <is>
-          <t>https://it.indeed.com/viewjob?jk=c32164c9002416cf</t>
+          <t>https://it.indeed.com/viewjob?jk=bfb852971c0ed1a5</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>2026-02-23</t>
+          <t>2026-02-20</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Project Manager ambito OnLine Banking</t>
+          <t>Sales and Marketing Coordinator Italy - Shockwave IVL</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>BIP</t>
+          <t>Johnson &amp; Johnson</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -6721,7 +6717,7 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>Roma, LAZ, IT</t>
+          <t>Pomezia, LAZ, IT</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
@@ -6733,7 +6729,7 @@
       <c r="G171" t="inlineStr"/>
       <c r="H171" s="2" t="inlineStr">
         <is>
-          <t>https://it.indeed.com/viewjob?jk=f6ea84d71caaf5fd</t>
+          <t>https://it.indeed.com/viewjob?jk=c32164c9002416cf</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
@@ -6745,12 +6741,12 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>R&amp;D Deployment Manager Consumer Science</t>
+          <t>Project Manager ambito OnLine Banking</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Kenvue</t>
+          <t>BIP</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -6760,15 +6756,19 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>Pomezia, LAZ, IT</t>
-        </is>
-      </c>
-      <c r="E172" t="inlineStr"/>
+          <t>Roma, LAZ, IT</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>fulltime</t>
+        </is>
+      </c>
       <c r="F172" t="inlineStr"/>
       <c r="G172" t="inlineStr"/>
       <c r="H172" s="2" t="inlineStr">
         <is>
-          <t>https://it.indeed.com/viewjob?jk=49218212a3b77442</t>
+          <t>https://it.indeed.com/viewjob?jk=f6ea84d71caaf5fd</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
@@ -6780,12 +6780,12 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Administrative Assistant (f/m/d)</t>
+          <t>R&amp;D Deployment Manager Consumer Science</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Axpo Holding AG</t>
+          <t>Kenvue</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -6795,7 +6795,7 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>Roma, LAZ, IT</t>
+          <t>Pomezia, LAZ, IT</t>
         </is>
       </c>
       <c r="E173" t="inlineStr"/>
@@ -6803,7 +6803,7 @@
       <c r="G173" t="inlineStr"/>
       <c r="H173" s="2" t="inlineStr">
         <is>
-          <t>https://it.indeed.com/viewjob?jk=68b6606a2933e44d</t>
+          <t>https://it.indeed.com/viewjob?jk=49218212a3b77442</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
@@ -6815,12 +6815,12 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Grid Connection Manager (f/m/d)</t>
+          <t>Administrative Assistant (f/m/d)</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Axpo group</t>
+          <t>Axpo Holding AG</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -6838,7 +6838,7 @@
       <c r="G174" t="inlineStr"/>
       <c r="H174" s="2" t="inlineStr">
         <is>
-          <t>https://it.indeed.com/viewjob?jk=5ef538420a4e3017</t>
+          <t>https://it.indeed.com/viewjob?jk=68b6606a2933e44d</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
@@ -6850,12 +6850,12 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Services Representative</t>
+          <t>Grid Connection Manager (f/m/d)</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Schneider Electric</t>
+          <t>Axpo group</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -6868,16 +6868,12 @@
           <t>Roma, LAZ, IT</t>
         </is>
       </c>
-      <c r="E175" t="inlineStr">
-        <is>
-          <t>fulltime</t>
-        </is>
-      </c>
+      <c r="E175" t="inlineStr"/>
       <c r="F175" t="inlineStr"/>
       <c r="G175" t="inlineStr"/>
       <c r="H175" s="2" t="inlineStr">
         <is>
-          <t>https://it.indeed.com/viewjob?jk=ca70c99857d588db</t>
+          <t>https://it.indeed.com/viewjob?jk=5ef538420a4e3017</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
@@ -6889,12 +6885,12 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Sr Account Partner</t>
+          <t>Services Representative</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Salesforce</t>
+          <t>Schneider Electric</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -6916,24 +6912,24 @@
       <c r="G176" t="inlineStr"/>
       <c r="H176" s="2" t="inlineStr">
         <is>
-          <t>https://it.indeed.com/viewjob?jk=41ed2dc466268d26</t>
+          <t>https://it.indeed.com/viewjob?jk=ca70c99857d588db</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>2026-02-24</t>
+          <t>2026-02-23</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Head of Communications Italy</t>
+          <t>Sr Account Partner</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Ryanair</t>
+          <t>Salesforce</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -6943,15 +6939,19 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>Ciampino, LAZ, IT</t>
-        </is>
-      </c>
-      <c r="E177" t="inlineStr"/>
+          <t>Roma, LAZ, IT</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>fulltime</t>
+        </is>
+      </c>
       <c r="F177" t="inlineStr"/>
       <c r="G177" t="inlineStr"/>
       <c r="H177" s="2" t="inlineStr">
         <is>
-          <t>https://it.indeed.com/viewjob?jk=120c0a63f837b20e</t>
+          <t>https://it.indeed.com/viewjob?jk=41ed2dc466268d26</t>
         </is>
       </c>
       <c r="I177" t="inlineStr">
@@ -6963,12 +6963,12 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Fleet Delivery Representative</t>
+          <t>Head of Communications Italy</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>FlexCar</t>
+          <t>Ryanair</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -6978,36 +6978,32 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>Roma, LAZ, IT</t>
-        </is>
-      </c>
-      <c r="E178" t="inlineStr">
-        <is>
-          <t>fulltime</t>
-        </is>
-      </c>
+          <t>Ciampino, LAZ, IT</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr"/>
       <c r="F178" t="inlineStr"/>
       <c r="G178" t="inlineStr"/>
       <c r="H178" s="2" t="inlineStr">
         <is>
-          <t>https://it.indeed.com/viewjob?jk=00c3c8401ccdec88</t>
+          <t>https://it.indeed.com/viewjob?jk=120c0a63f837b20e</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>2026-02-25</t>
+          <t>2026-02-24</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Senior Account Executive, Insurance</t>
+          <t>Fleet Delivery Representative</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Salesforce</t>
+          <t>FlexCar</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -7029,24 +7025,24 @@
       <c r="G179" t="inlineStr"/>
       <c r="H179" s="2" t="inlineStr">
         <is>
-          <t>https://it.indeed.com/viewjob?jk=ff100926eb965ad2</t>
+          <t>https://it.indeed.com/viewjob?jk=00c3c8401ccdec88</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>2026-02-26</t>
+          <t>2026-02-25</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Republic of Korea Fundraising Coordinator - Individual Giving</t>
+          <t>Senior Account Executive, Insurance</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>World Food Programme</t>
+          <t>Salesforce</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -7068,7 +7064,7 @@
       <c r="G180" t="inlineStr"/>
       <c r="H180" s="2" t="inlineStr">
         <is>
-          <t>https://it.indeed.com/viewjob?jk=42a0b8f6b47040f8</t>
+          <t>https://it.indeed.com/viewjob?jk=ff100926eb965ad2</t>
         </is>
       </c>
       <c r="I180" t="inlineStr">
@@ -7080,12 +7076,12 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Barman Hotel di Lusso Stagionale - Roma</t>
+          <t>Republic of Korea Fundraising Coordinator - Individual Giving</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Dama Recruiting</t>
+          <t>World Food Programme</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -7098,12 +7094,16 @@
           <t>Roma, LAZ, IT</t>
         </is>
       </c>
-      <c r="E181" t="inlineStr"/>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>fulltime</t>
+        </is>
+      </c>
       <c r="F181" t="inlineStr"/>
       <c r="G181" t="inlineStr"/>
       <c r="H181" s="2" t="inlineStr">
         <is>
-          <t>https://it.indeed.com/viewjob?jk=03994d0c99b18d26</t>
+          <t>https://it.indeed.com/viewjob?jk=42a0b8f6b47040f8</t>
         </is>
       </c>
       <c r="I181" t="inlineStr">
@@ -7115,7 +7115,7 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Chef de Rang - Roma</t>
+          <t>Barman Hotel di Lusso Stagionale - Roma</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
@@ -7138,7 +7138,7 @@
       <c r="G182" t="inlineStr"/>
       <c r="H182" s="2" t="inlineStr">
         <is>
-          <t>https://it.indeed.com/viewjob?jk=2b92e11d859c8f84</t>
+          <t>https://it.indeed.com/viewjob?jk=03994d0c99b18d26</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
@@ -7150,12 +7150,12 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Application senior PM</t>
+          <t>Chef de Rang - Roma</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>DXC Technology</t>
+          <t>Dama Recruiting</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -7168,16 +7168,12 @@
           <t>Roma, LAZ, IT</t>
         </is>
       </c>
-      <c r="E183" t="inlineStr">
-        <is>
-          <t>fulltime</t>
-        </is>
-      </c>
+      <c r="E183" t="inlineStr"/>
       <c r="F183" t="inlineStr"/>
       <c r="G183" t="inlineStr"/>
       <c r="H183" s="2" t="inlineStr">
         <is>
-          <t>https://it.indeed.com/viewjob?jk=c9090df31fbff906</t>
+          <t>https://it.indeed.com/viewjob?jk=2b92e11d859c8f84</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
@@ -7189,7 +7185,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Associate Manager Data Science</t>
+          <t>Application senior PM</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
@@ -7216,55 +7212,63 @@
       <c r="G184" t="inlineStr"/>
       <c r="H184" s="2" t="inlineStr">
         <is>
-          <t>https://it.indeed.com/viewjob?jk=a85dcd13338520aa</t>
+          <t>https://it.indeed.com/viewjob?jk=c9090df31fbff906</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>2026-02-27</t>
+          <t>2026-02-26</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Recruitment Day 10 Marzo 2026 - Junior Customer Expansion Specialist</t>
+          <t>Associate Manager Data Science</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>MioDottore</t>
+          <t>DXC Technology</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>linkedin</t>
+          <t>indeed</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>Rome, Latium, Italy</t>
-        </is>
-      </c>
-      <c r="E185" t="inlineStr"/>
+          <t>Roma, LAZ, IT</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>fulltime</t>
+        </is>
+      </c>
       <c r="F185" t="inlineStr"/>
       <c r="G185" t="inlineStr"/>
       <c r="H185" s="2" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/4377901898</t>
-        </is>
-      </c>
-      <c r="I185" t="inlineStr"/>
+          <t>https://it.indeed.com/viewjob?jk=a85dcd13338520aa</t>
+        </is>
+      </c>
+      <c r="I185" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Recruiter Trainee</t>
+          <t>Recruitment Day 10 Marzo 2026 - Junior Customer Expansion Specialist</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Chaberton Professionals</t>
+          <t>MioDottore</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -7272,65 +7276,61 @@
           <t>linkedin</t>
         </is>
       </c>
-      <c r="D186" t="inlineStr"/>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>Rome, Latium, Italy</t>
+        </is>
+      </c>
       <c r="E186" t="inlineStr"/>
       <c r="F186" t="inlineStr"/>
       <c r="G186" t="inlineStr"/>
       <c r="H186" s="2" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/4374811915</t>
-        </is>
-      </c>
-      <c r="I186" t="inlineStr">
-        <is>
-          <t>2026-02-24</t>
-        </is>
-      </c>
+          <t>https://www.linkedin.com/jobs/view/4377901898</t>
+        </is>
+      </c>
+      <c r="I186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>FINE CHEMICALS HR PLANT MANAGER</t>
+          <t>Recruiter Trainee</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Angelini Pharma</t>
+          <t>Chaberton Professionals</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>indeed</t>
-        </is>
-      </c>
-      <c r="D187" t="inlineStr">
-        <is>
-          <t>Roma, LAZ, IT</t>
-        </is>
-      </c>
+          <t>linkedin</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr"/>
       <c r="E187" t="inlineStr"/>
       <c r="F187" t="inlineStr"/>
       <c r="G187" t="inlineStr"/>
       <c r="H187" s="2" t="inlineStr">
         <is>
-          <t>https://it.indeed.com/viewjob?jk=4f56c1d858399483</t>
+          <t>https://www.linkedin.com/jobs/view/4374811915</t>
         </is>
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>2026-02-13</t>
+          <t>2026-02-24</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>HR Application Specialist – Area IT</t>
+          <t>FINE CHEMICALS HR PLANT MANAGER</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Enav</t>
+          <t>Angelini Pharma</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -7348,24 +7348,24 @@
       <c r="G188" t="inlineStr"/>
       <c r="H188" s="2" t="inlineStr">
         <is>
-          <t>https://it.indeed.com/viewjob?jk=06d2aee0d30d59ce</t>
+          <t>https://it.indeed.com/viewjob?jk=4f56c1d858399483</t>
         </is>
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>2026-02-23</t>
+          <t>2026-02-13</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Addetto/a Ufficio Risorse Umane</t>
+          <t>HR Application Specialist – Area IT</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>AIR</t>
+          <t>Enav</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -7383,7 +7383,7 @@
       <c r="G189" t="inlineStr"/>
       <c r="H189" s="2" t="inlineStr">
         <is>
-          <t>https://it.indeed.com/viewjob?jk=7909a01fd583061e</t>
+          <t>https://it.indeed.com/viewjob?jk=06d2aee0d30d59ce</t>
         </is>
       </c>
       <c r="I189" t="inlineStr">
@@ -7395,12 +7395,12 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>WW Compensation &amp; Benefits, HR Operations and Transformation Director</t>
+          <t>Addetto/a Ufficio Risorse Umane</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Fendi</t>
+          <t>AIR</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -7413,16 +7413,12 @@
           <t>Roma, LAZ, IT</t>
         </is>
       </c>
-      <c r="E190" t="inlineStr">
-        <is>
-          <t>fulltime</t>
-        </is>
-      </c>
+      <c r="E190" t="inlineStr"/>
       <c r="F190" t="inlineStr"/>
       <c r="G190" t="inlineStr"/>
       <c r="H190" s="2" t="inlineStr">
         <is>
-          <t>https://it.indeed.com/viewjob?jk=c13d74a7cd582ad2</t>
+          <t>https://it.indeed.com/viewjob?jk=7909a01fd583061e</t>
         </is>
       </c>
       <c r="I190" t="inlineStr">
@@ -7434,12 +7430,12 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>HR Manager</t>
+          <t>WW Compensation &amp; Benefits, HR Operations and Transformation Director</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Rome Business School</t>
+          <t>Fendi</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -7461,24 +7457,24 @@
       <c r="G191" t="inlineStr"/>
       <c r="H191" s="2" t="inlineStr">
         <is>
-          <t>https://it.indeed.com/viewjob?jk=9e4d4e850de8c641</t>
+          <t>https://it.indeed.com/viewjob?jk=c13d74a7cd582ad2</t>
         </is>
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>2026-02-24</t>
+          <t>2026-02-23</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>PRADA In Store Trainer, Roma</t>
+          <t>HR Manager</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Prada</t>
+          <t>Rome Business School</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -7491,12 +7487,16 @@
           <t>Roma, LAZ, IT</t>
         </is>
       </c>
-      <c r="E192" t="inlineStr"/>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>fulltime</t>
+        </is>
+      </c>
       <c r="F192" t="inlineStr"/>
       <c r="G192" t="inlineStr"/>
       <c r="H192" s="2" t="inlineStr">
         <is>
-          <t>https://it.indeed.com/viewjob?jk=93bf21f0c1000e62</t>
+          <t>https://it.indeed.com/viewjob?jk=9e4d4e850de8c641</t>
         </is>
       </c>
       <c r="I192" t="inlineStr">
@@ -7508,12 +7508,12 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Global Head of Technical Training &amp; Innovation</t>
+          <t>PRADA In Store Trainer, Roma</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>RINA</t>
+          <t>Prada</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -7531,34 +7531,34 @@
       <c r="G193" t="inlineStr"/>
       <c r="H193" s="2" t="inlineStr">
         <is>
-          <t>https://it.indeed.com/viewjob?jk=9f0d4e1ee4b96f8b</t>
+          <t>https://it.indeed.com/viewjob?jk=93bf21f0c1000e62</t>
         </is>
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>2026-02-25</t>
+          <t>2026-02-24</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Relocate to Malta and join an International Team - Recruitment Consulting</t>
+          <t>Global Head of Technical Training &amp; Innovation</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Archer - The IT Recruitment Consultancy (Malta)</t>
+          <t>RINA</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>linkedin</t>
+          <t>indeed</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>Rome, Latium, Italy</t>
+          <t>Roma, LAZ, IT</t>
         </is>
       </c>
       <c r="E194" t="inlineStr"/>
@@ -7566,20 +7566,24 @@
       <c r="G194" t="inlineStr"/>
       <c r="H194" s="2" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/4377132890</t>
-        </is>
-      </c>
-      <c r="I194" t="inlineStr"/>
+          <t>https://it.indeed.com/viewjob?jk=9f0d4e1ee4b96f8b</t>
+        </is>
+      </c>
+      <c r="I194" t="inlineStr">
+        <is>
+          <t>2026-02-25</t>
+        </is>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>HR / Talent Acquisition Specialist – Tutor per lezioni private</t>
+          <t>Relocate to Malta and join an International Team - Recruitment Consulting</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Letuelezioni</t>
+          <t>Archer - The IT Recruitment Consultancy (Malta)</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -7587,30 +7591,30 @@
           <t>linkedin</t>
         </is>
       </c>
-      <c r="D195" t="inlineStr"/>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>Rome, Latium, Italy</t>
+        </is>
+      </c>
       <c r="E195" t="inlineStr"/>
       <c r="F195" t="inlineStr"/>
       <c r="G195" t="inlineStr"/>
       <c r="H195" s="2" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/4376408804</t>
-        </is>
-      </c>
-      <c r="I195" t="inlineStr">
-        <is>
-          <t>2026-02-24</t>
-        </is>
-      </c>
+          <t>https://www.linkedin.com/jobs/view/4377132890</t>
+        </is>
+      </c>
+      <c r="I195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Talent Strategy Consultant</t>
+          <t>HR / Talent Acquisition Specialist – Tutor per lezioni private</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Mercer</t>
+          <t>Letuelezioni</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -7618,17 +7622,13 @@
           <t>linkedin</t>
         </is>
       </c>
-      <c r="D196" t="inlineStr">
-        <is>
-          <t>Rome, Latium, Italy</t>
-        </is>
-      </c>
+      <c r="D196" t="inlineStr"/>
       <c r="E196" t="inlineStr"/>
       <c r="F196" t="inlineStr"/>
       <c r="G196" t="inlineStr"/>
       <c r="H196" s="2" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/4368310155</t>
+          <t>https://www.linkedin.com/jobs/view/4376408804</t>
         </is>
       </c>
       <c r="I196" t="inlineStr">
@@ -7640,12 +7640,12 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>HR Stage - Talent Acquisition</t>
+          <t>Talent Strategy Consultant</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Multiversity Group</t>
+          <t>Mercer</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -7663,24 +7663,24 @@
       <c r="G197" t="inlineStr"/>
       <c r="H197" s="2" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/4374896779</t>
+          <t>https://www.linkedin.com/jobs/view/4368310155</t>
         </is>
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>2026-02-25</t>
+          <t>2026-02-24</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>Stagista ambito Tech Head Hunting / Selezione del Personale (Roma Eur -Rif.1124)</t>
+          <t>HR Stage - Talent Acquisition</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>EgoValeo | Tech Head Hunting</t>
+          <t>Multiversity Group</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -7698,24 +7698,24 @@
       <c r="G198" t="inlineStr"/>
       <c r="H198" s="2" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/4375547964</t>
+          <t>https://www.linkedin.com/jobs/view/4374896779</t>
         </is>
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>2026-02-26</t>
+          <t>2026-02-25</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Talent Acquisition Associate - Maternity Leave</t>
+          <t>Stagista ambito Tech Head Hunting / Selezione del Personale (Roma Eur -Rif.1124)</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Fendi</t>
+          <t>EgoValeo | Tech Head Hunting</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -7733,7 +7733,7 @@
       <c r="G199" t="inlineStr"/>
       <c r="H199" s="2" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/4368728526</t>
+          <t>https://www.linkedin.com/jobs/view/4375547964</t>
         </is>
       </c>
       <c r="I199" t="inlineStr">
@@ -7745,22 +7745,22 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>TALENT ACQUISITION &amp; EMPLOYER BRANDING SPECIALIST</t>
+          <t>Talent Acquisition Associate - Maternity Leave</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Angelini Pharma</t>
+          <t>Fendi</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>indeed</t>
+          <t>linkedin</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>Roma, LAZ, IT</t>
+          <t>Rome, Latium, Italy</t>
         </is>
       </c>
       <c r="E200" t="inlineStr"/>
@@ -7768,24 +7768,24 @@
       <c r="G200" t="inlineStr"/>
       <c r="H200" s="2" t="inlineStr">
         <is>
-          <t>https://it.indeed.com/viewjob?jk=fe61a8003ba3dfe8</t>
+          <t>https://www.linkedin.com/jobs/view/4368728526</t>
         </is>
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>2026-02-20</t>
+          <t>2026-02-26</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>Inside Sales Account Manager - Remoto</t>
+          <t>TALENT ACQUISITION &amp; EMPLOYER BRANDING SPECIALIST</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Hilti Group</t>
+          <t>Angelini Pharma</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -7803,24 +7803,24 @@
       <c r="G201" t="inlineStr"/>
       <c r="H201" s="2" t="inlineStr">
         <is>
-          <t>https://it.indeed.com/viewjob?jk=8a6897f86593ec78</t>
+          <t>https://it.indeed.com/viewjob?jk=fe61a8003ba3dfe8</t>
         </is>
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>2026-02-23</t>
+          <t>2026-02-20</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>Bartender - Porto Cervo</t>
+          <t>Inside Sales Account Manager - Remoto</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Zuma</t>
+          <t>Hilti Group</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -7833,16 +7833,12 @@
           <t>Roma, LAZ, IT</t>
         </is>
       </c>
-      <c r="E202" t="inlineStr">
-        <is>
-          <t>parttime</t>
-        </is>
-      </c>
+      <c r="E202" t="inlineStr"/>
       <c r="F202" t="inlineStr"/>
       <c r="G202" t="inlineStr"/>
       <c r="H202" s="2" t="inlineStr">
         <is>
-          <t>https://it.indeed.com/viewjob?jk=e5018585d4c391db</t>
+          <t>https://it.indeed.com/viewjob?jk=8a6897f86593ec78</t>
         </is>
       </c>
       <c r="I202" t="inlineStr">
@@ -7854,12 +7850,12 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Quality System Specialist</t>
+          <t>Bartender - Porto Cervo</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Kraft Heinz</t>
+          <t>Zuma</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -7869,15 +7865,19 @@
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>Latina, LAZ, IT</t>
-        </is>
-      </c>
-      <c r="E203" t="inlineStr"/>
+          <t>Roma, LAZ, IT</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>parttime</t>
+        </is>
+      </c>
       <c r="F203" t="inlineStr"/>
       <c r="G203" t="inlineStr"/>
       <c r="H203" s="2" t="inlineStr">
         <is>
-          <t>https://it.indeed.com/viewjob?jk=ef01bc517d79ace5</t>
+          <t>https://it.indeed.com/viewjob?jk=e5018585d4c391db</t>
         </is>
       </c>
       <c r="I203" t="inlineStr">
@@ -7889,12 +7889,12 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>Senior Project Finance Manager - Italy</t>
+          <t>Quality System Specialist</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>ILOS Projects GmbH &amp; Co. KG</t>
+          <t>Kraft Heinz</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -7904,36 +7904,32 @@
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>Roma, LAZ, IT</t>
-        </is>
-      </c>
-      <c r="E204" t="inlineStr">
-        <is>
-          <t>fulltime</t>
-        </is>
-      </c>
+          <t>Latina, LAZ, IT</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr"/>
       <c r="F204" t="inlineStr"/>
       <c r="G204" t="inlineStr"/>
       <c r="H204" s="2" t="inlineStr">
         <is>
-          <t>https://it.indeed.com/viewjob?jk=6f6a95e7e76f54d0</t>
+          <t>https://it.indeed.com/viewjob?jk=ef01bc517d79ace5</t>
         </is>
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>2026-02-24</t>
+          <t>2026-02-23</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>Assistant Restaurant Manager</t>
+          <t>Senior Project Finance Manager - Italy</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Zuma</t>
+          <t>ILOS Projects GmbH &amp; Co. KG</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -7955,24 +7951,24 @@
       <c r="G205" t="inlineStr"/>
       <c r="H205" s="2" t="inlineStr">
         <is>
-          <t>https://it.indeed.com/viewjob?jk=fb62215e0eee4ac8</t>
+          <t>https://it.indeed.com/viewjob?jk=6f6a95e7e76f54d0</t>
         </is>
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>2026-02-25</t>
+          <t>2026-02-24</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>Sales Development Representative - (Spanish Speaking) - 100% remote - Europe</t>
+          <t>Assistant Restaurant Manager</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Hostaway</t>
+          <t>Zuma</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -7994,7 +7990,7 @@
       <c r="G206" t="inlineStr"/>
       <c r="H206" s="2" t="inlineStr">
         <is>
-          <t>https://it.indeed.com/viewjob?jk=bd13c0d9256ac7fe</t>
+          <t>https://it.indeed.com/viewjob?jk=fb62215e0eee4ac8</t>
         </is>
       </c>
       <c r="I206" t="inlineStr">
@@ -8006,12 +8002,12 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>People Development Intern</t>
+          <t>Sales Development Representative - (Spanish Speaking) - 100% remote - Europe</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Successori Reda S.B.P.A.</t>
+          <t>Hostaway</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -8026,14 +8022,14 @@
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>internship</t>
+          <t>fulltime</t>
         </is>
       </c>
       <c r="F207" t="inlineStr"/>
       <c r="G207" t="inlineStr"/>
       <c r="H207" s="2" t="inlineStr">
         <is>
-          <t>https://it.indeed.com/viewjob?jk=4150b46b0e41e58d</t>
+          <t>https://it.indeed.com/viewjob?jk=bd13c0d9256ac7fe</t>
         </is>
       </c>
       <c r="I207" t="inlineStr">
@@ -8045,12 +8041,12 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>Therapeutic Area Lead (Director) - Specialty (Immunology, Ophthalmology and Neuroscience)</t>
+          <t>People Development Intern</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>MSD</t>
+          <t>Successori Reda S.B.P.A.</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -8065,31 +8061,31 @@
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>fulltime</t>
+          <t>internship</t>
         </is>
       </c>
       <c r="F208" t="inlineStr"/>
       <c r="G208" t="inlineStr"/>
       <c r="H208" s="2" t="inlineStr">
         <is>
-          <t>https://it.indeed.com/viewjob?jk=7f74a447c548c54a</t>
+          <t>https://it.indeed.com/viewjob?jk=4150b46b0e41e58d</t>
         </is>
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>2026-02-26</t>
+          <t>2026-02-25</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>Compliance Specialist (SGI, HSE, GDPR)</t>
+          <t>Therapeutic Area Lead (Director) - Specialty (Immunology, Ophthalmology and Neuroscience)</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Moveax</t>
+          <t>MSD</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -8111,7 +8107,7 @@
       <c r="G209" t="inlineStr"/>
       <c r="H209" s="2" t="inlineStr">
         <is>
-          <t>https://it.indeed.com/viewjob?jk=ed9b83172f8defb9</t>
+          <t>https://it.indeed.com/viewjob?jk=7f74a447c548c54a</t>
         </is>
       </c>
       <c r="I209" t="inlineStr">
@@ -8123,12 +8119,12 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>Sommelier - Capri</t>
+          <t>Compliance Specialist (SGI, HSE, GDPR)</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Zuma</t>
+          <t>Moveax</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -8143,14 +8139,14 @@
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>parttime</t>
+          <t>fulltime</t>
         </is>
       </c>
       <c r="F210" t="inlineStr"/>
       <c r="G210" t="inlineStr"/>
       <c r="H210" s="2" t="inlineStr">
         <is>
-          <t>https://it.indeed.com/viewjob?jk=3c1cb4b07950b983</t>
+          <t>https://it.indeed.com/viewjob?jk=ed9b83172f8defb9</t>
         </is>
       </c>
       <c r="I210" t="inlineStr">
@@ -8162,7 +8158,7 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>Sommelier - Porto Cervo</t>
+          <t>Sommelier - Capri</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
@@ -8189,7 +8185,7 @@
       <c r="G211" t="inlineStr"/>
       <c r="H211" s="2" t="inlineStr">
         <is>
-          <t>https://it.indeed.com/viewjob?jk=6385d2a3a4e7a915</t>
+          <t>https://it.indeed.com/viewjob?jk=3c1cb4b07950b983</t>
         </is>
       </c>
       <c r="I211" t="inlineStr">
@@ -8201,12 +8197,12 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>People Engagement, Talent Acquisition &amp; Project HR</t>
+          <t>Sommelier - Porto Cervo</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>B1P Group</t>
+          <t>Zuma</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -8219,29 +8215,33 @@
           <t>Roma, LAZ, IT</t>
         </is>
       </c>
-      <c r="E212" t="inlineStr"/>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>parttime</t>
+        </is>
+      </c>
       <c r="F212" t="inlineStr"/>
       <c r="G212" t="inlineStr"/>
       <c r="H212" s="2" t="inlineStr">
         <is>
-          <t>https://it.indeed.com/viewjob?jk=33541dcf08b547a8</t>
+          <t>https://it.indeed.com/viewjob?jk=6385d2a3a4e7a915</t>
         </is>
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>2026-02-27</t>
+          <t>2026-02-26</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>Procedura di selezione per la chiamata di un professore di prima fascia, GSD 14-GSPS-03 - Storia del pensiero e delle istituzioni politiche, per il Dipartimento di scienze politiche.</t>
+          <t>People Engagement, Talent Acquisition &amp; Project HR</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>LIBERA UNIVERSITA' INTERNAZIONALE DEGLI STUDI SOCIALI GUIDO CARLI DI ROMA</t>
+          <t>B1P Group</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -8259,34 +8259,34 @@
       <c r="G213" t="inlineStr"/>
       <c r="H213" s="2" t="inlineStr">
         <is>
-          <t>https://it.indeed.com/viewjob?jk=81cab064c0c5f569</t>
+          <t>https://it.indeed.com/viewjob?jk=33541dcf08b547a8</t>
         </is>
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>2026-02-17</t>
+          <t>2026-02-27</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>Recruiting Marketing Campaign Analyst</t>
+          <t>Procedura di selezione per la chiamata di un professore di prima fascia, GSD 14-GSPS-03 - Storia del pensiero e delle istituzioni politiche, per il Dipartimento di scienze politiche.</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Verisure</t>
+          <t>LIBERA UNIVERSITA' INTERNAZIONALE DEGLI STUDI SOCIALI GUIDO CARLI DI ROMA</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>linkedin</t>
+          <t>indeed</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>Rome, Latium, Italy</t>
+          <t>Roma, LAZ, IT</t>
         </is>
       </c>
       <c r="E214" t="inlineStr"/>
@@ -8294,24 +8294,24 @@
       <c r="G214" t="inlineStr"/>
       <c r="H214" s="2" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/4373485128</t>
+          <t>https://it.indeed.com/viewjob?jk=81cab064c0c5f569</t>
         </is>
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>2026-02-20</t>
+          <t>2026-02-17</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>Talent Acquisition Specialist</t>
+          <t>Recruiting Marketing Campaign Analyst</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>MioDottore</t>
+          <t>Verisure</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -8329,20 +8329,24 @@
       <c r="G215" t="inlineStr"/>
       <c r="H215" s="2" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/4374991693</t>
-        </is>
-      </c>
-      <c r="I215" t="inlineStr"/>
+          <t>https://www.linkedin.com/jobs/view/4373485128</t>
+        </is>
+      </c>
+      <c r="I215" t="inlineStr">
+        <is>
+          <t>2026-02-20</t>
+        </is>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>Buzz Recruitment Day – Rome – 05 March 2026</t>
+          <t>Talent Acquisition Specialist</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Ryanair - Europe's Favourite Airline</t>
+          <t>MioDottore</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -8352,7 +8356,7 @@
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>Ciampino, Latium, Italy</t>
+          <t>Rome, Latium, Italy</t>
         </is>
       </c>
       <c r="E216" t="inlineStr"/>
@@ -8360,24 +8364,20 @@
       <c r="G216" t="inlineStr"/>
       <c r="H216" s="2" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/4374043226</t>
-        </is>
-      </c>
-      <c r="I216" t="inlineStr">
-        <is>
-          <t>2026-02-19</t>
-        </is>
-      </c>
+          <t>https://www.linkedin.com/jobs/view/4374991693</t>
+        </is>
+      </c>
+      <c r="I216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>Addetto/a Amministrazione del Personale - Ufficio Risorse Umane</t>
+          <t>Buzz Recruitment Day – Rome – 05 March 2026</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>tecno-system</t>
+          <t>Ryanair - Europe's Favourite Airline</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -8387,7 +8387,7 @@
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>Fondi, Latium, Italy</t>
+          <t>Ciampino, Latium, Italy</t>
         </is>
       </c>
       <c r="E217" t="inlineStr"/>
@@ -8395,7 +8395,7 @@
       <c r="G217" t="inlineStr"/>
       <c r="H217" s="2" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/4374014717</t>
+          <t>https://www.linkedin.com/jobs/view/4374043226</t>
         </is>
       </c>
       <c r="I217" t="inlineStr">
@@ -8407,96 +8407,96 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>Selezione ROMA CENTRO - Giornate FULL TIME</t>
+          <t>Addetto/a Amministrazione del Personale - Ufficio Risorse Umane</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Globe MKD</t>
+          <t>tecno-system</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>indeed</t>
+          <t>linkedin</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>Roma, LAZ, IT</t>
-        </is>
-      </c>
-      <c r="E218" t="inlineStr">
-        <is>
-          <t>fulltime</t>
-        </is>
-      </c>
+          <t>Fondi, Latium, Italy</t>
+        </is>
+      </c>
+      <c r="E218" t="inlineStr"/>
       <c r="F218" t="inlineStr"/>
       <c r="G218" t="inlineStr"/>
       <c r="H218" s="2" t="inlineStr">
         <is>
-          <t>https://it.indeed.com/viewjob?jk=d58c707c78a09f94</t>
+          <t>https://www.linkedin.com/jobs/view/4374014717</t>
         </is>
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>2026-02-20</t>
+          <t>2026-02-19</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>Impiegato/a Risorse Umane – Servizi alle Imprese</t>
+          <t>Selezione ROMA CENTRO - Giornate FULL TIME</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>tecno-system</t>
+          <t>Globe MKD</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>linkedin</t>
+          <t>indeed</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>Rome, Latium, Italy</t>
-        </is>
-      </c>
-      <c r="E219" t="inlineStr"/>
+          <t>Roma, LAZ, IT</t>
+        </is>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>fulltime</t>
+        </is>
+      </c>
       <c r="F219" t="inlineStr"/>
       <c r="G219" t="inlineStr"/>
       <c r="H219" s="2" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/4373323755</t>
+          <t>https://it.indeed.com/viewjob?jk=d58c707c78a09f94</t>
         </is>
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>2026-02-18</t>
+          <t>2026-02-20</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>Procedura di selezione per la chiamata di un professore di prima fascia, GSD 13/ECON-01 - Economia politica, per il Dipartimento di Economics and Financial Markets.</t>
+          <t>Impiegato/a Risorse Umane – Servizi alle Imprese</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>LIBERA UNIVERSITA' INTERNAZIONALE DEGLI STUDI SOCIALI GUIDO CARLI DI ROMA</t>
+          <t>tecno-system</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>indeed</t>
+          <t>linkedin</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>Roma, LAZ, IT</t>
+          <t>Rome, Latium, Italy</t>
         </is>
       </c>
       <c r="E220" t="inlineStr"/>
@@ -8504,34 +8504,34 @@
       <c r="G220" t="inlineStr"/>
       <c r="H220" s="2" t="inlineStr">
         <is>
-          <t>https://it.indeed.com/viewjob?jk=4aeb3f7015a7d6ea</t>
+          <t>https://www.linkedin.com/jobs/view/4373323755</t>
         </is>
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>2026-02-17</t>
+          <t>2026-02-18</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>Construction Leadership Academy: Percorso di Alta Formazione e Selezione</t>
+          <t>Procedura di selezione per la chiamata di un professore di prima fascia, GSD 13/ECON-01 - Economia politica, per il Dipartimento di Economics and Financial Markets.</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>RADAR - Academy &amp; Recruiting</t>
+          <t>LIBERA UNIVERSITA' INTERNAZIONALE DEGLI STUDI SOCIALI GUIDO CARLI DI ROMA</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>linkedin</t>
+          <t>indeed</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>Rome, Latium, Italy</t>
+          <t>Roma, LAZ, IT</t>
         </is>
       </c>
       <c r="E221" t="inlineStr"/>
@@ -8539,7 +8539,7 @@
       <c r="G221" t="inlineStr"/>
       <c r="H221" s="2" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/4374149768</t>
+          <t>https://it.indeed.com/viewjob?jk=4aeb3f7015a7d6ea</t>
         </is>
       </c>
       <c r="I221" t="inlineStr">
@@ -8551,12 +8551,12 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>Impiegato/a Risorse Umane</t>
+          <t>Construction Leadership Academy: Percorso di Alta Formazione e Selezione</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>key-absolute</t>
+          <t>RADAR - Academy &amp; Recruiting</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -8574,7 +8574,7 @@
       <c r="G222" t="inlineStr"/>
       <c r="H222" s="2" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/4373964211</t>
+          <t>https://www.linkedin.com/jobs/view/4374149768</t>
         </is>
       </c>
       <c r="I222" t="inlineStr">
@@ -8586,12 +8586,12 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>Responsabile Risorse Umane – Prodotti per la Cura del Riposo</t>
+          <t>Impiegato/a Risorse Umane</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>EmmeBi Group</t>
+          <t>key-absolute</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -8609,24 +8609,24 @@
       <c r="G223" t="inlineStr"/>
       <c r="H223" s="2" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/4374008813</t>
+          <t>https://www.linkedin.com/jobs/view/4373964211</t>
         </is>
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>2026-02-19</t>
+          <t>2026-02-17</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>Recruiter freelance</t>
+          <t>Responsabile Risorse Umane – Prodotti per la Cura del Riposo</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Edilizia Alternativa</t>
+          <t>EmmeBi Group</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -8644,7 +8644,7 @@
       <c r="G224" t="inlineStr"/>
       <c r="H224" s="2" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/4373106227</t>
+          <t>https://www.linkedin.com/jobs/view/4374008813</t>
         </is>
       </c>
       <c r="I224" t="inlineStr">
@@ -8656,22 +8656,22 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>HR ANALYST</t>
+          <t>Recruiter freelance</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>ITA airways</t>
+          <t>Edilizia Alternativa</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>indeed</t>
+          <t>linkedin</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>Fiumicino, LAZ, IT</t>
+          <t>Rome, Latium, Italy</t>
         </is>
       </c>
       <c r="E225" t="inlineStr"/>
@@ -8679,24 +8679,24 @@
       <c r="G225" t="inlineStr"/>
       <c r="H225" s="2" t="inlineStr">
         <is>
-          <t>https://it.indeed.com/viewjob?jk=f8588f663ab8e9fb</t>
+          <t>https://www.linkedin.com/jobs/view/4373106227</t>
         </is>
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>2026-01-30</t>
+          <t>2026-02-19</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>Operatori Recruiting (PART-TIME)</t>
+          <t>HR ANALYST</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>NTWK</t>
+          <t>ITA airways</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -8706,36 +8706,32 @@
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>Roma, LAZ, IT</t>
-        </is>
-      </c>
-      <c r="E226" t="inlineStr">
-        <is>
-          <t>parttime</t>
-        </is>
-      </c>
+          <t>Fiumicino, LAZ, IT</t>
+        </is>
+      </c>
+      <c r="E226" t="inlineStr"/>
       <c r="F226" t="inlineStr"/>
       <c r="G226" t="inlineStr"/>
       <c r="H226" s="2" t="inlineStr">
         <is>
-          <t>https://it.indeed.com/viewjob?jk=cc2eb24c3accfa9c</t>
+          <t>https://it.indeed.com/viewjob?jk=f8588f663ab8e9fb</t>
         </is>
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>2026-02-16</t>
+          <t>2026-01-30</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>Stagista Recruiter</t>
+          <t>Operatori Recruiting (PART-TIME)</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>CONSORZIO STABILE LGA SERVICE</t>
+          <t>NTWK</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -8750,31 +8746,31 @@
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>fulltime</t>
+          <t>parttime</t>
         </is>
       </c>
       <c r="F227" t="inlineStr"/>
       <c r="G227" t="inlineStr"/>
       <c r="H227" s="2" t="inlineStr">
         <is>
-          <t>https://it.indeed.com/viewjob?jk=a82bcd5b613ca42a</t>
+          <t>https://it.indeed.com/viewjob?jk=cc2eb24c3accfa9c</t>
         </is>
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>2026-02-17</t>
+          <t>2026-02-16</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>Impiegato/a Ufficio Risorse Umane – Grande Distribuzione Organizzata</t>
+          <t>Stagista Recruiter</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Twins</t>
+          <t>CONSORZIO STABILE LGA SERVICE</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -8796,24 +8792,24 @@
       <c r="G228" t="inlineStr"/>
       <c r="H228" s="2" t="inlineStr">
         <is>
-          <t>https://it.indeed.com/viewjob?jk=93a5f1a7f8d894c1</t>
+          <t>https://it.indeed.com/viewjob?jk=a82bcd5b613ca42a</t>
         </is>
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>2026-02-18</t>
+          <t>2026-02-17</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>HR Specialist</t>
+          <t>Impiegato/a Ufficio Risorse Umane – Grande Distribuzione Organizzata</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Webgenesys S.p.A.</t>
+          <t>Twins</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -8826,12 +8822,16 @@
           <t>Roma, LAZ, IT</t>
         </is>
       </c>
-      <c r="E229" t="inlineStr"/>
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>fulltime</t>
+        </is>
+      </c>
       <c r="F229" t="inlineStr"/>
       <c r="G229" t="inlineStr"/>
       <c r="H229" s="2" t="inlineStr">
         <is>
-          <t>https://it.indeed.com/viewjob?jk=07c6d28d00f459d3</t>
+          <t>https://it.indeed.com/viewjob?jk=93a5f1a7f8d894c1</t>
         </is>
       </c>
       <c r="I229" t="inlineStr">
@@ -8843,12 +8843,12 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>HR Business Partner (IT - Remote)</t>
+          <t>HR Specialist</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>ThinkingIT Corp.</t>
+          <t>Webgenesys S.p.A.</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -8861,68 +8861,68 @@
           <t>Roma, LAZ, IT</t>
         </is>
       </c>
-      <c r="E230" t="inlineStr">
-        <is>
-          <t>fulltime</t>
-        </is>
-      </c>
+      <c r="E230" t="inlineStr"/>
       <c r="F230" t="inlineStr"/>
       <c r="G230" t="inlineStr"/>
       <c r="H230" s="2" t="inlineStr">
         <is>
-          <t>https://it.indeed.com/viewjob?jk=5d54341587162f32</t>
+          <t>https://it.indeed.com/viewjob?jk=07c6d28d00f459d3</t>
         </is>
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>2026-02-19</t>
+          <t>2026-02-18</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>Pilot Recruitment Event in Rome</t>
+          <t>HR Business Partner (IT - Remote)</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Wizz Air</t>
+          <t>ThinkingIT Corp.</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>linkedin</t>
+          <t>indeed</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>Rome, Latium, Italy</t>
-        </is>
-      </c>
-      <c r="E231" t="inlineStr"/>
+          <t>Roma, LAZ, IT</t>
+        </is>
+      </c>
+      <c r="E231" t="inlineStr">
+        <is>
+          <t>fulltime</t>
+        </is>
+      </c>
       <c r="F231" t="inlineStr"/>
       <c r="G231" t="inlineStr"/>
       <c r="H231" s="2" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/4373563095</t>
+          <t>https://it.indeed.com/viewjob?jk=5d54341587162f32</t>
         </is>
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>2026-02-16</t>
+          <t>2026-02-19</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>Graduate Talent Scientist</t>
+          <t>Pilot Recruitment Event in Rome</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Canonical</t>
+          <t>Wizz Air</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -8940,24 +8940,24 @@
       <c r="G232" t="inlineStr"/>
       <c r="H232" s="2" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/4373910412</t>
+          <t>https://www.linkedin.com/jobs/view/4373563095</t>
         </is>
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>2026-02-17</t>
+          <t>2026-02-16</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>HR Generalist</t>
+          <t>Graduate Talent Scientist</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Chaberton Professionals</t>
+          <t>Canonical</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -8975,7 +8975,7 @@
       <c r="G233" t="inlineStr"/>
       <c r="H233" s="2" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/4371975588</t>
+          <t>https://www.linkedin.com/jobs/view/4373910412</t>
         </is>
       </c>
       <c r="I233" t="inlineStr">
@@ -8987,12 +8987,12 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>ADDETTO/A RICERCA E SELEZIONE DEL PERSONALE</t>
+          <t>HR Generalist</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>FONDAZIONE LAVORO</t>
+          <t>Chaberton Professionals</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -9010,7 +9010,7 @@
       <c r="G234" t="inlineStr"/>
       <c r="H234" s="2" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/4372870383</t>
+          <t>https://www.linkedin.com/jobs/view/4371975588</t>
         </is>
       </c>
       <c r="I234" t="inlineStr">
@@ -9022,12 +9022,12 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>CLIENT RECRUITMENT SPECIALIST ON SITE</t>
+          <t>ADDETTO/A RICERCA E SELEZIONE DEL PERSONALE</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>Gi Group</t>
+          <t>FONDAZIONE LAVORO</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -9045,24 +9045,24 @@
       <c r="G235" t="inlineStr"/>
       <c r="H235" s="2" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/4372463744</t>
+          <t>https://www.linkedin.com/jobs/view/4372870383</t>
         </is>
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>2026-02-18</t>
+          <t>2026-02-17</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>Talent Acquisition</t>
+          <t>CLIENT RECRUITMENT SPECIALIST ON SITE</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>DXC Technology</t>
+          <t>Gi Group</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -9080,7 +9080,7 @@
       <c r="G236" t="inlineStr"/>
       <c r="H236" s="2" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/4324290308</t>
+          <t>https://www.linkedin.com/jobs/view/4372463744</t>
         </is>
       </c>
       <c r="I236" t="inlineStr">
@@ -9092,86 +9092,86 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>HR Manager (IT - Remote)</t>
+          <t>Talent Acquisition</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>ThinkingIT Corp.</t>
+          <t>DXC Technology</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>indeed</t>
+          <t>linkedin</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>Roma, LAZ, IT</t>
-        </is>
-      </c>
-      <c r="E237" t="inlineStr">
-        <is>
-          <t>fulltime</t>
-        </is>
-      </c>
+          <t>Rome, Latium, Italy</t>
+        </is>
+      </c>
+      <c r="E237" t="inlineStr"/>
       <c r="F237" t="inlineStr"/>
       <c r="G237" t="inlineStr"/>
       <c r="H237" s="2" t="inlineStr">
         <is>
-          <t>https://it.indeed.com/viewjob?jk=8435093b0586c1ab</t>
+          <t>https://www.linkedin.com/jobs/view/4324290308</t>
         </is>
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>2026-02-19</t>
+          <t>2026-02-18</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>HRBP RETAIL CENTRO ITALIA</t>
+          <t>HR Manager (IT - Remote)</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>LHH</t>
+          <t>ThinkingIT Corp.</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>linkedin</t>
+          <t>indeed</t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>Rome, Latium, Italy</t>
-        </is>
-      </c>
-      <c r="E238" t="inlineStr"/>
+          <t>Roma, LAZ, IT</t>
+        </is>
+      </c>
+      <c r="E238" t="inlineStr">
+        <is>
+          <t>fulltime</t>
+        </is>
+      </c>
       <c r="F238" t="inlineStr"/>
       <c r="G238" t="inlineStr"/>
       <c r="H238" s="2" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/4375811505</t>
+          <t>https://it.indeed.com/viewjob?jk=8435093b0586c1ab</t>
         </is>
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>2026-02-20</t>
+          <t>2026-02-19</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>Responsabile Risorse Umane – Commerciale e Distribuzione</t>
+          <t>HRBP RETAIL CENTRO ITALIA</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>EmmeBi Group</t>
+          <t>LHH</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -9189,7 +9189,7 @@
       <c r="G239" t="inlineStr"/>
       <c r="H239" s="2" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/4374380649</t>
+          <t>https://www.linkedin.com/jobs/view/4375811505</t>
         </is>
       </c>
       <c r="I239" t="inlineStr">
@@ -9201,22 +9201,22 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>HR Generalist</t>
+          <t>Responsabile Risorse Umane – Commerciale e Distribuzione</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>NTWK</t>
+          <t>EmmeBi Group</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>indeed</t>
+          <t>linkedin</t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>Roma, LAZ, IT</t>
+          <t>Rome, Latium, Italy</t>
         </is>
       </c>
       <c r="E240" t="inlineStr"/>
@@ -9224,34 +9224,34 @@
       <c r="G240" t="inlineStr"/>
       <c r="H240" s="2" t="inlineStr">
         <is>
-          <t>https://it.indeed.com/viewjob?jk=a202633e80897c25</t>
+          <t>https://www.linkedin.com/jobs/view/4374380649</t>
         </is>
       </c>
       <c r="I240" t="inlineStr">
         <is>
-          <t>2026-02-19</t>
+          <t>2026-02-20</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>Buzz Recruitment Day – Lisbon – 09 March 2026</t>
+          <t>HR Generalist</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>Ryanair - Europe's Favourite Airline</t>
+          <t>NTWK</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>linkedin</t>
+          <t>indeed</t>
         </is>
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>Fiumicino, Latium, Italy</t>
+          <t>Roma, LAZ, IT</t>
         </is>
       </c>
       <c r="E241" t="inlineStr"/>
@@ -9259,7 +9259,7 @@
       <c r="G241" t="inlineStr"/>
       <c r="H241" s="2" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/4374083419</t>
+          <t>https://it.indeed.com/viewjob?jk=a202633e80897c25</t>
         </is>
       </c>
       <c r="I241" t="inlineStr">
@@ -9271,12 +9271,12 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>Talent Acquisition Manager</t>
+          <t>Buzz Recruitment Day – Lisbon – 09 March 2026</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>Jobbit</t>
+          <t>Ryanair - Europe's Favourite Airline</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
@@ -9286,7 +9286,7 @@
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>Rome, Latium, Italy</t>
+          <t>Fiumicino, Latium, Italy</t>
         </is>
       </c>
       <c r="E242" t="inlineStr"/>
@@ -9294,24 +9294,24 @@
       <c r="G242" t="inlineStr"/>
       <c r="H242" s="2" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/4375613154</t>
+          <t>https://www.linkedin.com/jobs/view/4374083419</t>
         </is>
       </c>
       <c r="I242" t="inlineStr">
         <is>
-          <t>2026-02-20</t>
+          <t>2026-02-19</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>Talent Acquisition &amp; Employer Branding Specialist</t>
+          <t>Talent Acquisition Manager</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>Angelini Pharma</t>
+          <t>Jobbit</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
@@ -9329,17 +9329,52 @@
       <c r="G243" t="inlineStr"/>
       <c r="H243" s="2" t="inlineStr">
         <is>
+          <t>https://www.linkedin.com/jobs/view/4375613154</t>
+        </is>
+      </c>
+      <c r="I243" t="inlineStr">
+        <is>
+          <t>2026-02-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>Talent Acquisition &amp; Employer Branding Specialist</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>Angelini Pharma</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>linkedin</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>Rome, Latium, Italy</t>
+        </is>
+      </c>
+      <c r="E244" t="inlineStr"/>
+      <c r="F244" t="inlineStr"/>
+      <c r="G244" t="inlineStr"/>
+      <c r="H244" s="2" t="inlineStr">
+        <is>
           <t>https://www.linkedin.com/jobs/view/4375809486</t>
         </is>
       </c>
-      <c r="I243" t="inlineStr">
+      <c r="I244" t="inlineStr">
         <is>
           <t>2026-02-20</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I243"/>
+  <autoFilter ref="A1:I244"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>